--- a/Wknd_Sched_Builder/sep24_Poll.xlsx
+++ b/Wknd_Sched_Builder/sep24_Poll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/david_desa_labatt_com/Documents/Documents/WkndSchdBld/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{6527C412-49C7-4FD6-A8C0-62CB726841B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A14423F1-CB5B-4FE1-AFF2-B0131E8E8432}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4A139E-AEE8-4ADD-B0E0-7E05017E39C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="2955" windowWidth="21600" windowHeight="11385" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2832" yWindow="816" windowWidth="12432" windowHeight="11004" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="283">
   <si>
     <t xml:space="preserve">Please indicate 4, 8 or 12 hour preference       </t>
   </si>
@@ -928,7 +928,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,7 +1085,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1390,12 +1390,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1605,11 +1629,29 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1629,36 +1671,1519 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="166">
+  <dxfs count="218">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5730,156 +7255,208 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1093B8D4-B799-4290-AD8C-1329DDADF426}" name="tbl_RockFT" displayName="tbl_RockFT" ref="B4:R29" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" tableBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1093B8D4-B799-4290-AD8C-1329DDADF426}" name="tbl_RockFT" displayName="tbl_RockFT" ref="B4:R29" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158" tableBorderDxfId="157">
   <autoFilter ref="B4:R29" xr:uid="{1093B8D4-B799-4290-AD8C-1329DDADF426}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{BA1864AE-C2A0-48D5-AE42-F77764DCB84A}" name="Emp. #" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{7EEE966B-DC6E-4CE2-A36F-146B0BBD0DE6}" name="Last Name" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{2094CABA-D4CD-4268-BDAD-604262C1E841}" name="First Name" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{0954B359-B8F3-4F1D-A99A-6993E8A50A6B}" name="Hrs" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{A6EE6DED-00DE-44F1-BAC4-E17B4A275DFD}" name="Column1" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{E9542A23-23BE-4355-869E-DCC570D0C910}" name="Column2" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{8C1B1079-C13C-4042-B85E-0A7E92B3BCB6}" name="Column3" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{D4A3DB51-FB85-4DB8-9B39-21819AF73B1B}" name="C" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{BC937D23-8383-44DC-A449-609611E13E03}" name="A" dataDxfId="96"/>
-    <tableColumn id="10" xr3:uid="{CAE5F924-37C5-409C-A89F-7C8AD2AF5E95}" name="B" dataDxfId="95"/>
-    <tableColumn id="11" xr3:uid="{6E6983A7-C35E-4B56-8910-30BCC7972964}" name="C2" dataDxfId="94"/>
-    <tableColumn id="12" xr3:uid="{4F8A33E2-7FFD-49CA-9EA5-4845FE69FD1E}" name="A3" dataDxfId="93"/>
-    <tableColumn id="13" xr3:uid="{E0A6AA6F-D008-4DEE-98CF-0F36411EDFEB}" name="4 Early" dataDxfId="92"/>
-    <tableColumn id="14" xr3:uid="{C25C774D-9861-4EBC-80DA-B7E8449F156A}" name="Column4" dataDxfId="91"/>
-    <tableColumn id="15" xr3:uid="{ED76B154-87B5-4272-804F-A323E45883FA}" name="Column5" dataDxfId="90"/>
-    <tableColumn id="16" xr3:uid="{A1ED1DC8-37BE-419A-AF9C-EE982EF742B5}" name="Column6" dataDxfId="89"/>
-    <tableColumn id="17" xr3:uid="{F9478E4B-FF4D-44CC-B2CD-5F140D6D5487}" name="Comments" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{BA1864AE-C2A0-48D5-AE42-F77764DCB84A}" name="Emp. #" dataDxfId="156"/>
+    <tableColumn id="2" xr3:uid="{7EEE966B-DC6E-4CE2-A36F-146B0BBD0DE6}" name="Last Name" dataDxfId="155"/>
+    <tableColumn id="3" xr3:uid="{2094CABA-D4CD-4268-BDAD-604262C1E841}" name="First Name" dataDxfId="154"/>
+    <tableColumn id="4" xr3:uid="{0954B359-B8F3-4F1D-A99A-6993E8A50A6B}" name="Hrs" dataDxfId="153"/>
+    <tableColumn id="5" xr3:uid="{A6EE6DED-00DE-44F1-BAC4-E17B4A275DFD}" name="Column1" dataDxfId="152"/>
+    <tableColumn id="6" xr3:uid="{E9542A23-23BE-4355-869E-DCC570D0C910}" name="Column2" dataDxfId="151"/>
+    <tableColumn id="7" xr3:uid="{8C1B1079-C13C-4042-B85E-0A7E92B3BCB6}" name="Column3" dataDxfId="150"/>
+    <tableColumn id="8" xr3:uid="{D4A3DB51-FB85-4DB8-9B39-21819AF73B1B}" name="C" dataDxfId="149"/>
+    <tableColumn id="9" xr3:uid="{BC937D23-8383-44DC-A449-609611E13E03}" name="A" dataDxfId="148"/>
+    <tableColumn id="10" xr3:uid="{CAE5F924-37C5-409C-A89F-7C8AD2AF5E95}" name="B" dataDxfId="147"/>
+    <tableColumn id="11" xr3:uid="{6E6983A7-C35E-4B56-8910-30BCC7972964}" name="C2" dataDxfId="146"/>
+    <tableColumn id="12" xr3:uid="{4F8A33E2-7FFD-49CA-9EA5-4845FE69FD1E}" name="A3" dataDxfId="145"/>
+    <tableColumn id="13" xr3:uid="{E0A6AA6F-D008-4DEE-98CF-0F36411EDFEB}" name="4 Early" dataDxfId="144"/>
+    <tableColumn id="14" xr3:uid="{C25C774D-9861-4EBC-80DA-B7E8449F156A}" name="Column4" dataDxfId="143"/>
+    <tableColumn id="15" xr3:uid="{ED76B154-87B5-4272-804F-A323E45883FA}" name="Column5" dataDxfId="142"/>
+    <tableColumn id="16" xr3:uid="{A1ED1DC8-37BE-419A-AF9C-EE982EF742B5}" name="Column6" dataDxfId="141"/>
+    <tableColumn id="17" xr3:uid="{F9478E4B-FF4D-44CC-B2CD-5F140D6D5487}" name="Comments" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05509EE2-F952-4D28-8F20-65DAFE98E7A6}" name="tbl_RockTemp" displayName="tbl_RockTemp" ref="U4:AK18" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86" tableBorderDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05509EE2-F952-4D28-8F20-65DAFE98E7A6}" name="tbl_RockTemp" displayName="tbl_RockTemp" ref="U4:AK18" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138" tableBorderDxfId="137">
   <autoFilter ref="U4:AK18" xr:uid="{05509EE2-F952-4D28-8F20-65DAFE98E7A6}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{41AD93EF-B4C5-4845-BA73-8003BBC42F98}" name="Emp. #" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{9C4A0C98-6C70-4DC7-9559-3C115F748AA8}" name="Last Name" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{A4542631-F7AA-4642-A63B-56D148851477}" name="First Name" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{41AD93EF-B4C5-4845-BA73-8003BBC42F98}" name="Emp. #" dataDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{9C4A0C98-6C70-4DC7-9559-3C115F748AA8}" name="Last Name" dataDxfId="135"/>
+    <tableColumn id="3" xr3:uid="{A4542631-F7AA-4642-A63B-56D148851477}" name="First Name" dataDxfId="134"/>
     <tableColumn id="4" xr3:uid="{F3F6545F-1A73-458E-8ABC-55B8FA0DFDFD}" name="Hrs"/>
     <tableColumn id="5" xr3:uid="{CB4E8EE9-8955-48A4-9B7C-6AEACCB292AB}" name="Column1"/>
     <tableColumn id="6" xr3:uid="{0AF8A7BD-2E42-4C2B-A052-BB18112E2502}" name="Column2"/>
     <tableColumn id="7" xr3:uid="{FE01951D-3931-4762-A912-DC859A7B3D04}" name="Column3"/>
-    <tableColumn id="8" xr3:uid="{2685E31C-5FF3-4C1A-96B4-89915579487C}" name="C" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{E5B0D406-3946-43F9-8FF8-86B5120115D2}" name="A" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{25E9A68C-94F5-4A2D-89CA-D3D056E85387}" name="B" dataDxfId="79"/>
-    <tableColumn id="11" xr3:uid="{710D9805-5863-473E-AAD7-C3997536B567}" name="C2" dataDxfId="78"/>
-    <tableColumn id="12" xr3:uid="{A8183D85-6559-4609-AD47-CC871F1CD172}" name="A3" dataDxfId="77"/>
-    <tableColumn id="13" xr3:uid="{25FAC867-265D-4A5B-BC2A-BCE0EAAA4E1C}" name="4 Early" dataDxfId="76"/>
-    <tableColumn id="14" xr3:uid="{FD38FAA8-3067-4959-8CF7-34119060BFF4}" name="Column4" dataDxfId="75"/>
-    <tableColumn id="15" xr3:uid="{FA1DA1A1-A0A0-401D-9B00-F510A592FA7D}" name="Column5" dataDxfId="74"/>
-    <tableColumn id="16" xr3:uid="{5F7E3AB1-0B19-44CA-8219-510386940977}" name="Column6" dataDxfId="73"/>
-    <tableColumn id="17" xr3:uid="{909D051E-65D9-4D2E-8722-212B75EBC7A6}" name="Comments" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{2685E31C-5FF3-4C1A-96B4-89915579487C}" name="C" dataDxfId="133"/>
+    <tableColumn id="9" xr3:uid="{E5B0D406-3946-43F9-8FF8-86B5120115D2}" name="A" dataDxfId="132"/>
+    <tableColumn id="10" xr3:uid="{25E9A68C-94F5-4A2D-89CA-D3D056E85387}" name="B" dataDxfId="131"/>
+    <tableColumn id="11" xr3:uid="{710D9805-5863-473E-AAD7-C3997536B567}" name="C2" dataDxfId="130"/>
+    <tableColumn id="12" xr3:uid="{A8183D85-6559-4609-AD47-CC871F1CD172}" name="A3" dataDxfId="129"/>
+    <tableColumn id="13" xr3:uid="{25FAC867-265D-4A5B-BC2A-BCE0EAAA4E1C}" name="4 Early" dataDxfId="128"/>
+    <tableColumn id="14" xr3:uid="{FD38FAA8-3067-4959-8CF7-34119060BFF4}" name="Column4" dataDxfId="127"/>
+    <tableColumn id="15" xr3:uid="{FA1DA1A1-A0A0-401D-9B00-F510A592FA7D}" name="Column5" dataDxfId="126"/>
+    <tableColumn id="16" xr3:uid="{5F7E3AB1-0B19-44CA-8219-510386940977}" name="Column6" dataDxfId="125"/>
+    <tableColumn id="17" xr3:uid="{909D051E-65D9-4D2E-8722-212B75EBC7A6}" name="Comments" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2CE58FE2-702C-4BEC-B684-CBBE535BC2BB}" name="tbl_BudFT" displayName="tbl_BudFT" ref="B35:R64" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" tableBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2CE58FE2-702C-4BEC-B684-CBBE535BC2BB}" name="tbl_BudFT" displayName="tbl_BudFT" ref="B35:R64" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122" tableBorderDxfId="121">
   <autoFilter ref="B35:R64" xr:uid="{2CE58FE2-702C-4BEC-B684-CBBE535BC2BB}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{CEC73D08-3C3F-4FDD-9525-8D20C1E401DE}" name="Emp. #"/>
     <tableColumn id="2" xr3:uid="{C18288D2-C462-4A63-BF78-C473CDCB15EB}" name="Last Name"/>
     <tableColumn id="3" xr3:uid="{08A773F5-EA18-4A8D-87A6-9E10868297FB}" name="First Name"/>
-    <tableColumn id="4" xr3:uid="{4F4E7EA5-B275-406A-B430-128EA0CBDF8A}" name="Hrs" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{BC3DCE3A-8ECA-4CE0-8623-1804289ABDAE}" name="Column1" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{9D51CAF8-E45D-4EF7-9336-D6DE89F157F8}" name="Column2" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{A5784D52-B8FA-453D-A8CB-B0B4A22A7AB3}" name="Column3" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{5C06C926-13B3-4C58-B19F-A15F38CD256E}" name="C" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{06D93D1D-D3F3-44FF-A667-FD0CC31F8027}" name="A" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{80707AD4-1F5E-429D-936E-3E49B83C29C0}" name="B" dataDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{0A34AA7E-0C86-44A5-AB59-0C536768E667}" name="C2" dataDxfId="61"/>
-    <tableColumn id="12" xr3:uid="{BA3D64B6-2B07-49EB-B62A-BA2F0DAC82F0}" name="A3" dataDxfId="60"/>
-    <tableColumn id="13" xr3:uid="{C54E8611-D70A-4A76-B9C3-A2461042E2FF}" name="B4" dataDxfId="59"/>
-    <tableColumn id="14" xr3:uid="{3DD928F2-B934-4883-956B-B0364560360A}" name="Column4" dataDxfId="58"/>
-    <tableColumn id="15" xr3:uid="{21141E54-EAA3-4C60-A38E-7022CECD833C}" name="Column5" dataDxfId="57"/>
-    <tableColumn id="16" xr3:uid="{EBED4FD3-8F0B-4183-921D-58F0D4EDFD64}" name="Column6" dataDxfId="56"/>
-    <tableColumn id="17" xr3:uid="{879E2F1D-1EA2-4B8D-B9F7-2F8779B4E3BA}" name="Comments" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{4F4E7EA5-B275-406A-B430-128EA0CBDF8A}" name="Hrs" dataDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{BC3DCE3A-8ECA-4CE0-8623-1804289ABDAE}" name="Column1" dataDxfId="119"/>
+    <tableColumn id="6" xr3:uid="{9D51CAF8-E45D-4EF7-9336-D6DE89F157F8}" name="Column2" dataDxfId="118"/>
+    <tableColumn id="7" xr3:uid="{A5784D52-B8FA-453D-A8CB-B0B4A22A7AB3}" name="Column3" dataDxfId="117"/>
+    <tableColumn id="8" xr3:uid="{5C06C926-13B3-4C58-B19F-A15F38CD256E}" name="C" dataDxfId="116"/>
+    <tableColumn id="9" xr3:uid="{06D93D1D-D3F3-44FF-A667-FD0CC31F8027}" name="A" dataDxfId="115"/>
+    <tableColumn id="10" xr3:uid="{80707AD4-1F5E-429D-936E-3E49B83C29C0}" name="B" dataDxfId="114"/>
+    <tableColumn id="11" xr3:uid="{0A34AA7E-0C86-44A5-AB59-0C536768E667}" name="C2" dataDxfId="113"/>
+    <tableColumn id="12" xr3:uid="{BA3D64B6-2B07-49EB-B62A-BA2F0DAC82F0}" name="A3" dataDxfId="112"/>
+    <tableColumn id="13" xr3:uid="{C54E8611-D70A-4A76-B9C3-A2461042E2FF}" name="B4" dataDxfId="111"/>
+    <tableColumn id="14" xr3:uid="{3DD928F2-B934-4883-956B-B0364560360A}" name="Column4" dataDxfId="110"/>
+    <tableColumn id="15" xr3:uid="{21141E54-EAA3-4C60-A38E-7022CECD833C}" name="Column5" dataDxfId="109"/>
+    <tableColumn id="16" xr3:uid="{EBED4FD3-8F0B-4183-921D-58F0D4EDFD64}" name="Column6" dataDxfId="108"/>
+    <tableColumn id="17" xr3:uid="{879E2F1D-1EA2-4B8D-B9F7-2F8779B4E3BA}" name="Comments" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{10FE810C-33AC-4A8E-8B0A-03D208AE7A0A}" name="tbl_BudTemp" displayName="tbl_BudTemp" ref="U35:AK53" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{10FE810C-33AC-4A8E-8B0A-03D208AE7A0A}" name="tbl_BudTemp" displayName="tbl_BudTemp" ref="U35:AK53" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105" tableBorderDxfId="104">
   <autoFilter ref="U35:AK53" xr:uid="{10FE810C-33AC-4A8E-8B0A-03D208AE7A0A}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{5F30F3A7-1AFA-4E43-B230-A1498169ADB7}" name="Emp. #" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{EED0AB13-EDCB-4629-9CBF-5E64B18F91AD}" name="Last Name" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{CF91FD8D-36DB-44F0-A523-450010D1C7D0}" name="First Name" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{B801B3BC-5C8F-4355-A75F-11F8A82B09E4}" name="Hrs" dataDxfId="48" dataCellStyle="Normal 4"/>
-    <tableColumn id="5" xr3:uid="{D922E265-AB16-40C4-BF82-54853FE850B5}" name="Column1" dataDxfId="47" dataCellStyle="Normal 4"/>
-    <tableColumn id="6" xr3:uid="{D121E1D4-239F-4767-B2B6-2808CEA377CA}" name="Column2" dataDxfId="46" dataCellStyle="Normal 4"/>
-    <tableColumn id="7" xr3:uid="{ED791D27-A7B5-43CC-A3A4-EF02F4EB1DF1}" name="Column3" dataDxfId="45" dataCellStyle="Normal 4"/>
-    <tableColumn id="8" xr3:uid="{9B2E7E45-7C0C-488C-8799-4A28F4285571}" name="C" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{7C94C0D0-86CE-4109-9193-A9B494466B13}" name="A" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{BB9073AD-9E85-4ACE-9AA1-46DC19BA696E}" name="B" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{45A514D7-AC55-4078-B5F7-9AE0BDEC780A}" name="C2" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{EE56A808-0FF3-472D-A974-3A3FB9E753D4}" name="A3" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{D345A755-D786-42B1-A35E-DAE7170E85DC}" name="B4" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{1BC70812-3559-408B-88F4-3A87038BEE0A}" name="Column4" dataDxfId="38"/>
-    <tableColumn id="15" xr3:uid="{4DA755ED-C33F-4CAA-B90B-ECC20C789B4E}" name="Column5" dataDxfId="37"/>
-    <tableColumn id="16" xr3:uid="{1CFBD190-98AE-4A2B-979D-028C7FB2A941}" name="Column6" dataDxfId="36"/>
-    <tableColumn id="17" xr3:uid="{F4AB42A9-7B64-4AE7-A81E-639913EC9ED9}" name="Comments" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{5F30F3A7-1AFA-4E43-B230-A1498169ADB7}" name="Emp. #" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{EED0AB13-EDCB-4629-9CBF-5E64B18F91AD}" name="Last Name" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{CF91FD8D-36DB-44F0-A523-450010D1C7D0}" name="First Name" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{B801B3BC-5C8F-4355-A75F-11F8A82B09E4}" name="Hrs" dataDxfId="100" dataCellStyle="Normal 4"/>
+    <tableColumn id="5" xr3:uid="{D922E265-AB16-40C4-BF82-54853FE850B5}" name="Column1" dataDxfId="99" dataCellStyle="Normal 4"/>
+    <tableColumn id="6" xr3:uid="{D121E1D4-239F-4767-B2B6-2808CEA377CA}" name="Column2" dataDxfId="98" dataCellStyle="Normal 4"/>
+    <tableColumn id="7" xr3:uid="{ED791D27-A7B5-43CC-A3A4-EF02F4EB1DF1}" name="Column3" dataDxfId="97" dataCellStyle="Normal 4"/>
+    <tableColumn id="8" xr3:uid="{9B2E7E45-7C0C-488C-8799-4A28F4285571}" name="C" dataDxfId="96"/>
+    <tableColumn id="9" xr3:uid="{7C94C0D0-86CE-4109-9193-A9B494466B13}" name="A" dataDxfId="95"/>
+    <tableColumn id="10" xr3:uid="{BB9073AD-9E85-4ACE-9AA1-46DC19BA696E}" name="B" dataDxfId="94"/>
+    <tableColumn id="11" xr3:uid="{45A514D7-AC55-4078-B5F7-9AE0BDEC780A}" name="C2" dataDxfId="93"/>
+    <tableColumn id="12" xr3:uid="{EE56A808-0FF3-472D-A974-3A3FB9E753D4}" name="A3" dataDxfId="92"/>
+    <tableColumn id="13" xr3:uid="{D345A755-D786-42B1-A35E-DAE7170E85DC}" name="B4" dataDxfId="91"/>
+    <tableColumn id="14" xr3:uid="{1BC70812-3559-408B-88F4-3A87038BEE0A}" name="Column4" dataDxfId="90"/>
+    <tableColumn id="15" xr3:uid="{4DA755ED-C33F-4CAA-B90B-ECC20C789B4E}" name="Column5" dataDxfId="89"/>
+    <tableColumn id="16" xr3:uid="{1CFBD190-98AE-4A2B-979D-028C7FB2A941}" name="Column6" dataDxfId="88"/>
+    <tableColumn id="17" xr3:uid="{F4AB42A9-7B64-4AE7-A81E-639913EC9ED9}" name="Comments" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{18DB5BEF-D85C-4FDC-86E3-7E1141F1E321}" name="tbl_BlueFT" displayName="tbl_BlueFT" ref="B76:R104" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{18DB5BEF-D85C-4FDC-86E3-7E1141F1E321}" name="tbl_BlueFT" displayName="tbl_BlueFT" ref="B76:R104" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="B76:R104" xr:uid="{18DB5BEF-D85C-4FDC-86E3-7E1141F1E321}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{E04C8957-8514-4E39-AA7D-8A41A5B99D5F}" name="Emp. #"/>
     <tableColumn id="2" xr3:uid="{AE26A459-4CDE-431B-8FE5-993A41F7E91A}" name="Last Name"/>
     <tableColumn id="3" xr3:uid="{DF11D180-FB9D-47A4-896E-DBC8D1519C5C}" name="First Name"/>
-    <tableColumn id="4" xr3:uid="{F949A777-375A-4598-BE9A-458506F31F13}" name="Hrs" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{A1A87FD7-0540-40AB-B0B4-5B13A0CC71C7}" name="Column1" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{8097FA3A-866E-4BEB-9C11-474FA411B48A}" name="Column2" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{8BC6B2AF-DBBB-40C1-9A9D-4CB768219BA0}" name="Column3" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{E3571DEC-5D7F-48F9-9B59-FF1D191F9FC2}" name="4 Over" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{7436F8E1-683A-4643-B750-1BC3197741B4}" name="A" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{16A82794-C09A-4893-A6A5-8304A9EF3A20}" name="B" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{0103AB36-BF82-458E-87E4-262B43364DDE}" name="C" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{47344C76-269E-40EE-8FB4-F9E7B6DCA91E}" name="A2" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{313B3F35-4472-4426-A69F-70346137925D}" name="B3" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{8DC3C937-A24C-4EF0-B11A-0E122C8C151D}" name="Column4" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{65AB7C87-5F38-4201-B2A9-D8D634956B96}" name="Column5" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{082E0C44-9444-4AAF-B6B0-82B16BF27C45}" name="Column6" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{D03D0A65-C856-456D-A6F5-F039FC090FFF}" name="Comments" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{F949A777-375A-4598-BE9A-458506F31F13}" name="Hrs" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{A1A87FD7-0540-40AB-B0B4-5B13A0CC71C7}" name="Column1" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{8097FA3A-866E-4BEB-9C11-474FA411B48A}" name="Column2" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{8BC6B2AF-DBBB-40C1-9A9D-4CB768219BA0}" name="Column3" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{E3571DEC-5D7F-48F9-9B59-FF1D191F9FC2}" name="4 Over" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{7436F8E1-683A-4643-B750-1BC3197741B4}" name="A" dataDxfId="79"/>
+    <tableColumn id="10" xr3:uid="{16A82794-C09A-4893-A6A5-8304A9EF3A20}" name="B" dataDxfId="78"/>
+    <tableColumn id="11" xr3:uid="{0103AB36-BF82-458E-87E4-262B43364DDE}" name="C" dataDxfId="77"/>
+    <tableColumn id="12" xr3:uid="{47344C76-269E-40EE-8FB4-F9E7B6DCA91E}" name="A2" dataDxfId="76"/>
+    <tableColumn id="13" xr3:uid="{313B3F35-4472-4426-A69F-70346137925D}" name="B3" dataDxfId="75"/>
+    <tableColumn id="14" xr3:uid="{8DC3C937-A24C-4EF0-B11A-0E122C8C151D}" name="Column4" dataDxfId="74"/>
+    <tableColumn id="15" xr3:uid="{65AB7C87-5F38-4201-B2A9-D8D634956B96}" name="Column5" dataDxfId="73"/>
+    <tableColumn id="16" xr3:uid="{082E0C44-9444-4AAF-B6B0-82B16BF27C45}" name="Column6" dataDxfId="72"/>
+    <tableColumn id="17" xr3:uid="{D03D0A65-C856-456D-A6F5-F039FC090FFF}" name="Comments" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{01BB2385-47BA-4EEA-9022-426FEC11B8B3}" name="tbl_BlueTemp" displayName="tbl_BlueTemp" ref="U76:AK91" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{01BB2385-47BA-4EEA-9022-426FEC11B8B3}" name="tbl_BlueTemp" displayName="tbl_BlueTemp" ref="U76:AK91" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="U76:AK91" xr:uid="{01BB2385-47BA-4EEA-9022-426FEC11B8B3}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{EAE43D7F-0E40-494B-AB6F-17B039A735DF}" name="Emp. #"/>
-    <tableColumn id="2" xr3:uid="{2D024453-744F-4BE0-BB64-BB4078864DAE}" name="Last Name" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{E3653937-4971-42FB-82F5-C4E3FEE515FC}" name="First Name" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{1B5B732A-4645-4CC5-92E4-3D454B9520DA}" name="Hrs" dataDxfId="13" dataCellStyle="Normal 4"/>
-    <tableColumn id="5" xr3:uid="{81347E7C-3621-481A-A47A-084778CCBFB6}" name="Column1" dataDxfId="12" dataCellStyle="Normal 4"/>
-    <tableColumn id="6" xr3:uid="{4C7660B0-54E3-43A3-ABDA-4CBAE62FDDE1}" name="Column2" dataDxfId="11" dataCellStyle="Normal 4"/>
-    <tableColumn id="7" xr3:uid="{64A311EE-D8F9-4BA5-A4CB-0523EA1AF052}" name="Column3" dataDxfId="10" dataCellStyle="Normal 4"/>
-    <tableColumn id="8" xr3:uid="{C53EB71A-3EA3-4BE3-9466-442B2AA57234}" name="4 Over" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{B8AE8687-89B2-4D0E-90B6-8CD0979FB35F}" name="A" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{8B47FD3D-055F-4CB2-8DCF-77B46D13BBC4}" name="B" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{CA8398AD-5A40-4D34-ACE1-967B4A839BFC}" name="C" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{15D74F02-F3CB-4B51-B466-AF095F6CD064}" name="A2" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{474D785C-CE35-41A8-87EB-18C58E970D63}" name="B3" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{40A90F2D-B604-4AEE-8E52-BCFF0FA78BDA}" name="Column4" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{81E2147B-4A5D-4C0F-81A1-2A8D7BE603F6}" name="Column5" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{9B72489E-08C8-4454-A4DB-96770A3C117C}" name="Column6" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{35C2279F-1A12-4840-A867-D99EE2F945D5}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2D024453-744F-4BE0-BB64-BB4078864DAE}" name="Last Name" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{E3653937-4971-42FB-82F5-C4E3FEE515FC}" name="First Name" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{1B5B732A-4645-4CC5-92E4-3D454B9520DA}" name="Hrs" dataDxfId="65" dataCellStyle="Normal 4"/>
+    <tableColumn id="5" xr3:uid="{81347E7C-3621-481A-A47A-084778CCBFB6}" name="Column1" dataDxfId="64" dataCellStyle="Normal 4"/>
+    <tableColumn id="6" xr3:uid="{4C7660B0-54E3-43A3-ABDA-4CBAE62FDDE1}" name="Column2" dataDxfId="63" dataCellStyle="Normal 4"/>
+    <tableColumn id="7" xr3:uid="{64A311EE-D8F9-4BA5-A4CB-0523EA1AF052}" name="Column3" dataDxfId="62" dataCellStyle="Normal 4"/>
+    <tableColumn id="8" xr3:uid="{C53EB71A-3EA3-4BE3-9466-442B2AA57234}" name="4 Over" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{B8AE8687-89B2-4D0E-90B6-8CD0979FB35F}" name="A" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{8B47FD3D-055F-4CB2-8DCF-77B46D13BBC4}" name="B" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{CA8398AD-5A40-4D34-ACE1-967B4A839BFC}" name="C" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{15D74F02-F3CB-4B51-B466-AF095F6CD064}" name="A2" dataDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{474D785C-CE35-41A8-87EB-18C58E970D63}" name="B3" dataDxfId="56"/>
+    <tableColumn id="14" xr3:uid="{40A90F2D-B604-4AEE-8E52-BCFF0FA78BDA}" name="Column4" dataDxfId="55"/>
+    <tableColumn id="15" xr3:uid="{81E2147B-4A5D-4C0F-81A1-2A8D7BE603F6}" name="Column5" dataDxfId="54"/>
+    <tableColumn id="16" xr3:uid="{9B72489E-08C8-4454-A4DB-96770A3C117C}" name="Column6" dataDxfId="53"/>
+    <tableColumn id="17" xr3:uid="{35C2279F-1A12-4840-A867-D99EE2F945D5}" name="Comments" dataDxfId="52"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BD05803C-7E46-4961-9ACA-B6792BABF2F1}" name="tbl_wFT" displayName="tbl_wFT" ref="B107:R108" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22" headerRowBorderDxfId="40" tableBorderDxfId="41">
+  <autoFilter ref="B107:R108" xr:uid="{BD05803C-7E46-4961-9ACA-B6792BABF2F1}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{268D565B-E9A0-440B-A61D-FAC0C7D5680B}" name="Emp. #" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{F90CCBC7-00B4-4199-8463-CE70ACA9BB51}" name="Last Name" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{C91B27B2-C444-4092-8469-7AF1F85F9897}" name="First Name" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{B4B925E9-F53D-4057-A3EC-B375EEBAAB27}" name="Hrs" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{F292AA72-3F93-4B9B-AF21-9E464A4B30A1}" name="Column1" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{31AC549A-308C-46FB-B624-74827D77B361}" name="Column2" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{4B588AC2-7181-4E05-B999-978E281F04A3}" name="Column3" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{BEFCE26D-0020-4FB3-A44D-9EBB89B91BDE}" name="4 Over" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{AF5DA180-4F8F-4BC4-9D7B-C7AAF2D3056F}" name="A" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{21D30EA1-C6F7-428E-9774-9ECC06C71423}" name="B" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{DF442A33-6E42-4E25-BE70-8217ABE22438}" name="C" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{D9B8B5CE-8078-4DB3-998F-CD722576D06D}" name="A2" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{DCE57494-C89C-4C6A-8F11-8FE5BF84F7D8}" name="B3" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{B75CDA01-2E65-4DD5-A5A3-9BA720F3E635}" name="Column4" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{7BE58487-EEFA-4101-BD20-57404EE69B64}" name="Column5" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{DA2C299E-CAEB-436C-9C72-4962E73597C6}" name="Column6" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{086C7425-3B29-49D1-A30E-24C52F0349D3}" name="Comments" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DD1D323B-4826-4CCC-8C6F-5F99971BE835}" name="tbl_wT" displayName="tbl_wT" ref="U107:AK108" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="19" tableBorderDxfId="20">
+  <autoFilter ref="U107:AK108" xr:uid="{DD1D323B-4826-4CCC-8C6F-5F99971BE835}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{9B8656CA-C72A-4D3C-85DD-1DC343D3EBA6}" name="Emp. #" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{12E50AC3-568E-4FAD-A11D-3EC0B018D986}" name="Last Name" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{7F42E99C-31BD-4153-A7F8-CE7302FC9175}" name="First Name" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{9F45957E-4944-43FD-8666-B0FA12487321}" name="Hrs" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{76038E90-C77D-4336-B6BD-3BDEAC8577FF}" name="Column1" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{86F036A2-CB62-4986-BBDF-A7D7DEEC8F64}" name="Column2" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{A0186C1E-4AB5-4245-93ED-253CBA127D69}" name="Column3" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{8869C051-46DC-4391-A63A-653E01721241}" name="4 Over" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{9F30DD86-A667-4C6C-8DDB-EC256F5C9073}" name="A" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{2DFD0EF2-7B1C-4D55-BEB3-6598306D45C1}" name="B" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{CCCC6E11-E142-4C37-A4FE-B0C14D6ECF27}" name="C" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{81439516-641D-47F8-8322-7FCB636F5FED}" name="A2" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{B55E7B95-2F9B-4B3A-A272-5885C221ECDB}" name="B3" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{8070442B-D50C-41FF-BD86-D7976B3358FE}" name="Column4" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{9C1F35A0-64D9-4E11-98FE-4476E6C28F94}" name="Column5" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{1B35B59F-80B8-418F-910C-CD1BB4834564}" name="Column6" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{5DDDC97C-CC47-42FC-9819-7534E3563AE3}" name="Comments" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6153,42 +7730,42 @@
   </sheetPr>
   <dimension ref="A1:BJ124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H1" sqref="F1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="68" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="U107" sqref="U107:AK108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="8" width="11" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="3" customWidth="1"/>
-    <col min="10" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="17" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" customWidth="1"/>
-    <col min="19" max="19" width="3.28515625" customWidth="1"/>
+    <col min="10" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="15" max="17" width="10.88671875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" customWidth="1"/>
+    <col min="19" max="19" width="3.33203125" customWidth="1"/>
     <col min="21" max="21" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="27" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" customWidth="1"/>
+    <col min="25" max="27" width="10.88671875" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="9" customWidth="1"/>
-    <col min="29" max="32" width="5.7109375" customWidth="1"/>
-    <col min="33" max="33" width="6.5703125" customWidth="1"/>
-    <col min="34" max="36" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="21.7109375" customWidth="1"/>
+    <col min="29" max="32" width="5.6640625" customWidth="1"/>
+    <col min="33" max="33" width="6.5546875" customWidth="1"/>
+    <col min="34" max="36" width="10.88671875" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="18.75">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:61" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="122" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
@@ -6247,27 +7824,27 @@
       <c r="BH1" s="16"/>
       <c r="BI1" s="16"/>
     </row>
-    <row r="2" spans="1:61" ht="19.5" thickBot="1">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:61" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110" t="s">
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
       <c r="O2" s="99"/>
       <c r="P2" s="99"/>
       <c r="Q2" s="99"/>
@@ -6281,16 +7858,16 @@
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
-      <c r="AB2" s="109" t="s">
+      <c r="AB2" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="110" t="s">
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="110"/>
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="116"/>
       <c r="AH2" s="99"/>
       <c r="AI2" s="99"/>
       <c r="AJ2" s="99"/>
@@ -6320,58 +7897,58 @@
       <c r="BH2" s="16"/>
       <c r="BI2" s="16"/>
     </row>
-    <row r="3" spans="1:61" s="16" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="114" t="s">
+    <row r="3" spans="1:61" s="16" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
-      <c r="I3" s="111" t="s">
+      <c r="I3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="111" t="s">
+      <c r="J3" s="118"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="119"/>
       <c r="O3" s="100"/>
       <c r="P3" s="100"/>
       <c r="Q3" s="100"/>
       <c r="R3" s="23"/>
       <c r="S3" s="34"/>
-      <c r="T3" s="114" t="s">
+      <c r="T3" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
+      <c r="U3" s="120"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
       <c r="X3" s="22"/>
       <c r="Y3" s="22"/>
       <c r="Z3" s="22"/>
       <c r="AA3" s="22"/>
-      <c r="AB3" s="111" t="s">
+      <c r="AB3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="111" t="s">
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="113"/>
+      <c r="AF3" s="118"/>
+      <c r="AG3" s="119"/>
       <c r="AH3" s="100"/>
       <c r="AI3" s="100"/>
       <c r="AJ3" s="100"/>
       <c r="AK3" s="23"/>
     </row>
-    <row r="4" spans="1:61" s="16" customFormat="1" ht="33.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:61" s="16" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -6482,8 +8059,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:61" s="16" customFormat="1">
-      <c r="A5" s="115" t="s">
+    <row r="5" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="109" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="57">
@@ -6524,7 +8101,7 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="62"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="115" t="s">
+      <c r="T5" s="109" t="s">
         <v>3</v>
       </c>
       <c r="U5" s="57">
@@ -6565,8 +8142,8 @@
       <c r="AJ5" s="101"/>
       <c r="AK5" s="68"/>
     </row>
-    <row r="6" spans="1:61" s="16" customFormat="1">
-      <c r="A6" s="116"/>
+    <row r="6" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="110"/>
       <c r="B6" s="63">
         <v>7403386</v>
       </c>
@@ -6605,7 +8182,7 @@
       <c r="Q6" s="67"/>
       <c r="R6" s="68"/>
       <c r="S6" s="36"/>
-      <c r="T6" s="116"/>
+      <c r="T6" s="110"/>
       <c r="U6" s="64">
         <v>7104398</v>
       </c>
@@ -6644,8 +8221,8 @@
       <c r="AJ6" s="67"/>
       <c r="AK6" s="68"/>
     </row>
-    <row r="7" spans="1:61" s="16" customFormat="1">
-      <c r="A7" s="116"/>
+    <row r="7" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="110"/>
       <c r="B7" s="57">
         <v>7403482</v>
       </c>
@@ -6684,7 +8261,7 @@
       <c r="Q7" s="67"/>
       <c r="R7" s="68"/>
       <c r="S7" s="36"/>
-      <c r="T7" s="116"/>
+      <c r="T7" s="110"/>
       <c r="U7" s="57">
         <v>7104846</v>
       </c>
@@ -6723,8 +8300,8 @@
       <c r="AJ7" s="67"/>
       <c r="AK7" s="68"/>
     </row>
-    <row r="8" spans="1:61" s="16" customFormat="1">
-      <c r="A8" s="116"/>
+    <row r="8" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="110"/>
       <c r="B8" s="70">
         <v>7093556</v>
       </c>
@@ -6763,7 +8340,7 @@
       <c r="Q8" s="67"/>
       <c r="R8" s="68"/>
       <c r="S8" s="36"/>
-      <c r="T8" s="116"/>
+      <c r="T8" s="110"/>
       <c r="U8" s="64">
         <v>7104950</v>
       </c>
@@ -6802,8 +8379,8 @@
       <c r="AJ8" s="67"/>
       <c r="AK8" s="68"/>
     </row>
-    <row r="9" spans="1:61" s="16" customFormat="1">
-      <c r="A9" s="116"/>
+    <row r="9" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="110"/>
       <c r="B9" s="57">
         <v>7402042</v>
       </c>
@@ -6842,7 +8419,7 @@
       <c r="Q9" s="67"/>
       <c r="R9" s="68"/>
       <c r="S9" s="36"/>
-      <c r="T9" s="116"/>
+      <c r="T9" s="110"/>
       <c r="U9" s="57">
         <v>7104427</v>
       </c>
@@ -6881,8 +8458,8 @@
       <c r="AJ9" s="67"/>
       <c r="AK9" s="68"/>
     </row>
-    <row r="10" spans="1:61" s="16" customFormat="1">
-      <c r="A10" s="116"/>
+    <row r="10" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="110"/>
       <c r="B10" s="64">
         <v>7402762</v>
       </c>
@@ -6921,7 +8498,7 @@
       <c r="Q10" s="67"/>
       <c r="R10" s="68"/>
       <c r="S10" s="36"/>
-      <c r="T10" s="116"/>
+      <c r="T10" s="110"/>
       <c r="U10" s="64">
         <v>7104212</v>
       </c>
@@ -6960,8 +8537,8 @@
       <c r="AJ10" s="67"/>
       <c r="AK10" s="68"/>
     </row>
-    <row r="11" spans="1:61" s="16" customFormat="1">
-      <c r="A11" s="116"/>
+    <row r="11" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="110"/>
       <c r="B11" s="72">
         <v>7051763</v>
       </c>
@@ -7000,7 +8577,7 @@
       <c r="Q11" s="67"/>
       <c r="R11" s="68"/>
       <c r="S11" s="36"/>
-      <c r="T11" s="116"/>
+      <c r="T11" s="110"/>
       <c r="U11" s="57">
         <v>7105341</v>
       </c>
@@ -7039,8 +8616,8 @@
       <c r="AJ11" s="67"/>
       <c r="AK11" s="68"/>
     </row>
-    <row r="12" spans="1:61" s="16" customFormat="1">
-      <c r="A12" s="116"/>
+    <row r="12" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="110"/>
       <c r="B12" s="64">
         <v>7401055</v>
       </c>
@@ -7079,7 +8656,7 @@
       <c r="Q12" s="67"/>
       <c r="R12" s="68"/>
       <c r="S12" s="36"/>
-      <c r="T12" s="116"/>
+      <c r="T12" s="110"/>
       <c r="U12" s="64">
         <v>7105315</v>
       </c>
@@ -7118,8 +8695,8 @@
       <c r="AJ12" s="67"/>
       <c r="AK12" s="68"/>
     </row>
-    <row r="13" spans="1:61" s="16" customFormat="1">
-      <c r="A13" s="116"/>
+    <row r="13" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="110"/>
       <c r="B13" s="57">
         <v>7092904</v>
       </c>
@@ -7158,7 +8735,7 @@
       <c r="Q13" s="67"/>
       <c r="R13" s="68"/>
       <c r="S13" s="36"/>
-      <c r="T13" s="116"/>
+      <c r="T13" s="110"/>
       <c r="U13" s="57">
         <v>7105345</v>
       </c>
@@ -7199,8 +8776,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:61" s="16" customFormat="1">
-      <c r="A14" s="116"/>
+    <row r="14" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="110"/>
       <c r="B14" s="64">
         <v>7401922</v>
       </c>
@@ -7239,7 +8816,7 @@
       <c r="Q14" s="67"/>
       <c r="R14" s="68"/>
       <c r="S14" s="36"/>
-      <c r="T14" s="116"/>
+      <c r="T14" s="110"/>
       <c r="U14" s="64">
         <v>7105038</v>
       </c>
@@ -7278,8 +8855,8 @@
       <c r="AJ14" s="67"/>
       <c r="AK14" s="68"/>
     </row>
-    <row r="15" spans="1:61" s="16" customFormat="1">
-      <c r="A15" s="116"/>
+    <row r="15" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="110"/>
       <c r="B15" s="57">
         <v>7402547</v>
       </c>
@@ -7318,7 +8895,7 @@
       <c r="Q15" s="67"/>
       <c r="R15" s="68"/>
       <c r="S15" s="36"/>
-      <c r="T15" s="116"/>
+      <c r="T15" s="110"/>
       <c r="U15" s="57">
         <v>7105177</v>
       </c>
@@ -7357,8 +8934,8 @@
       <c r="AJ15" s="67"/>
       <c r="AK15" s="68"/>
     </row>
-    <row r="16" spans="1:61" s="16" customFormat="1">
-      <c r="A16" s="116"/>
+    <row r="16" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="110"/>
       <c r="B16" s="64">
         <v>7402314</v>
       </c>
@@ -7397,7 +8974,7 @@
       <c r="Q16" s="67"/>
       <c r="R16" s="68"/>
       <c r="S16" s="36"/>
-      <c r="T16" s="116"/>
+      <c r="T16" s="110"/>
       <c r="U16" s="64">
         <v>7101072</v>
       </c>
@@ -7436,8 +9013,8 @@
       <c r="AJ16" s="67"/>
       <c r="AK16" s="68"/>
     </row>
-    <row r="17" spans="1:37" s="16" customFormat="1">
-      <c r="A17" s="116"/>
+    <row r="17" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="110"/>
       <c r="B17" s="72">
         <v>7076186</v>
       </c>
@@ -7476,7 +9053,7 @@
       <c r="Q17" s="67"/>
       <c r="R17" s="68"/>
       <c r="S17" s="52"/>
-      <c r="T17" s="116"/>
+      <c r="T17" s="110"/>
       <c r="U17" s="57">
         <v>7104190</v>
       </c>
@@ -7515,8 +9092,8 @@
       <c r="AJ17" s="67"/>
       <c r="AK17" s="68"/>
     </row>
-    <row r="18" spans="1:37" s="16" customFormat="1">
-      <c r="A18" s="116"/>
+    <row r="18" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="110"/>
       <c r="B18" s="64">
         <v>7094186</v>
       </c>
@@ -7555,7 +9132,7 @@
       <c r="Q18" s="67"/>
       <c r="R18" s="68"/>
       <c r="S18" s="36"/>
-      <c r="T18" s="116"/>
+      <c r="T18" s="110"/>
       <c r="U18" s="64">
         <v>7402019</v>
       </c>
@@ -7594,8 +9171,8 @@
       <c r="AJ18" s="67"/>
       <c r="AK18" s="68"/>
     </row>
-    <row r="19" spans="1:37" s="16" customFormat="1">
-      <c r="A19" s="116"/>
+    <row r="19" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="110"/>
       <c r="B19" s="57">
         <v>7092653</v>
       </c>
@@ -7634,7 +9211,7 @@
       <c r="Q19" s="67"/>
       <c r="R19" s="68"/>
       <c r="S19" s="36"/>
-      <c r="T19" s="116"/>
+      <c r="T19" s="110"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44"/>
       <c r="W19" s="50"/>
@@ -7653,8 +9230,8 @@
       <c r="AJ19" s="26"/>
       <c r="AK19" s="28"/>
     </row>
-    <row r="20" spans="1:37" s="16" customFormat="1">
-      <c r="A20" s="116"/>
+    <row r="20" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="110"/>
       <c r="B20" s="64">
         <v>7402080</v>
       </c>
@@ -7693,7 +9270,7 @@
       <c r="Q20" s="67"/>
       <c r="R20" s="68"/>
       <c r="S20" s="36"/>
-      <c r="T20" s="116"/>
+      <c r="T20" s="110"/>
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="50"/>
@@ -7712,8 +9289,8 @@
       <c r="AJ20" s="26"/>
       <c r="AK20" s="28"/>
     </row>
-    <row r="21" spans="1:37" s="16" customFormat="1">
-      <c r="A21" s="116"/>
+    <row r="21" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="110"/>
       <c r="B21" s="57">
         <v>7402849</v>
       </c>
@@ -7752,7 +9329,7 @@
       <c r="Q21" s="67"/>
       <c r="R21" s="68"/>
       <c r="S21" s="36"/>
-      <c r="T21" s="116"/>
+      <c r="T21" s="110"/>
       <c r="U21" s="44"/>
       <c r="V21" s="44"/>
       <c r="W21" s="50"/>
@@ -7771,8 +9348,8 @@
       <c r="AJ21" s="26"/>
       <c r="AK21" s="28"/>
     </row>
-    <row r="22" spans="1:37" s="16" customFormat="1">
-      <c r="A22" s="116"/>
+    <row r="22" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="110"/>
       <c r="B22" s="73">
         <v>7400558</v>
       </c>
@@ -7811,7 +9388,7 @@
       <c r="Q22" s="67"/>
       <c r="R22" s="68"/>
       <c r="S22" s="36"/>
-      <c r="T22" s="116"/>
+      <c r="T22" s="110"/>
       <c r="U22" s="44"/>
       <c r="V22" s="44"/>
       <c r="W22" s="50"/>
@@ -7830,8 +9407,8 @@
       <c r="AJ22" s="26"/>
       <c r="AK22" s="28"/>
     </row>
-    <row r="23" spans="1:37" s="16" customFormat="1">
-      <c r="A23" s="116"/>
+    <row r="23" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="110"/>
       <c r="B23" s="72">
         <v>7401960</v>
       </c>
@@ -7870,7 +9447,7 @@
       <c r="Q23" s="67"/>
       <c r="R23" s="68"/>
       <c r="S23" s="36"/>
-      <c r="T23" s="116"/>
+      <c r="T23" s="110"/>
       <c r="U23" s="44"/>
       <c r="V23" s="44"/>
       <c r="W23" s="50"/>
@@ -7889,8 +9466,8 @@
       <c r="AJ23" s="26"/>
       <c r="AK23" s="28"/>
     </row>
-    <row r="24" spans="1:37" s="16" customFormat="1">
-      <c r="A24" s="116"/>
+    <row r="24" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="110"/>
       <c r="B24" s="64">
         <v>7400394</v>
       </c>
@@ -7929,7 +9506,7 @@
       <c r="Q24" s="67"/>
       <c r="R24" s="68"/>
       <c r="S24" s="36"/>
-      <c r="T24" s="116"/>
+      <c r="T24" s="110"/>
       <c r="U24" s="44"/>
       <c r="V24" s="44"/>
       <c r="W24" s="50"/>
@@ -7948,8 +9525,8 @@
       <c r="AJ24" s="26"/>
       <c r="AK24" s="28"/>
     </row>
-    <row r="25" spans="1:37" s="16" customFormat="1">
-      <c r="A25" s="116"/>
+    <row r="25" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="110"/>
       <c r="B25" s="74">
         <v>7402915</v>
       </c>
@@ -7988,7 +9565,7 @@
       <c r="Q25" s="67"/>
       <c r="R25" s="68"/>
       <c r="S25" s="36"/>
-      <c r="T25" s="116"/>
+      <c r="T25" s="110"/>
       <c r="U25" s="29"/>
       <c r="V25" s="1"/>
       <c r="W25" s="2"/>
@@ -8007,8 +9584,8 @@
       <c r="AJ25" s="26"/>
       <c r="AK25" s="28"/>
     </row>
-    <row r="26" spans="1:37" s="16" customFormat="1">
-      <c r="A26" s="116"/>
+    <row r="26" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="110"/>
       <c r="B26" s="74">
         <v>7104132</v>
       </c>
@@ -8047,7 +9624,7 @@
       <c r="Q26" s="67"/>
       <c r="R26" s="68"/>
       <c r="S26" s="36"/>
-      <c r="T26" s="116"/>
+      <c r="T26" s="110"/>
       <c r="U26" s="29"/>
       <c r="V26" s="1"/>
       <c r="W26" s="2"/>
@@ -8066,8 +9643,8 @@
       <c r="AJ26" s="26"/>
       <c r="AK26" s="28"/>
     </row>
-    <row r="27" spans="1:37" s="16" customFormat="1">
-      <c r="A27" s="116"/>
+    <row r="27" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="110"/>
       <c r="B27" s="74">
         <v>7104205</v>
       </c>
@@ -8106,7 +9683,7 @@
       <c r="Q27" s="67"/>
       <c r="R27" s="68"/>
       <c r="S27" s="36"/>
-      <c r="T27" s="116"/>
+      <c r="T27" s="110"/>
       <c r="U27" s="29"/>
       <c r="V27" s="1"/>
       <c r="W27" s="2"/>
@@ -8125,8 +9702,8 @@
       <c r="AJ27" s="26"/>
       <c r="AK27" s="28"/>
     </row>
-    <row r="28" spans="1:37" s="16" customFormat="1">
-      <c r="A28" s="116"/>
+    <row r="28" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="110"/>
       <c r="B28" s="74">
         <v>7403653</v>
       </c>
@@ -8165,7 +9742,7 @@
       <c r="Q28" s="67"/>
       <c r="R28" s="68"/>
       <c r="S28" s="36"/>
-      <c r="T28" s="116"/>
+      <c r="T28" s="110"/>
       <c r="U28" s="29"/>
       <c r="V28" s="1"/>
       <c r="W28" s="2"/>
@@ -8184,8 +9761,8 @@
       <c r="AJ28" s="26"/>
       <c r="AK28" s="28"/>
     </row>
-    <row r="29" spans="1:37" s="16" customFormat="1">
-      <c r="A29" s="116"/>
+    <row r="29" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="110"/>
       <c r="B29" s="74">
         <v>7403380</v>
       </c>
@@ -8224,7 +9801,7 @@
       <c r="Q29" s="67"/>
       <c r="R29" s="68"/>
       <c r="S29" s="36"/>
-      <c r="T29" s="116"/>
+      <c r="T29" s="110"/>
       <c r="U29" s="29"/>
       <c r="V29" s="1"/>
       <c r="W29" s="2"/>
@@ -8243,8 +9820,8 @@
       <c r="AJ29" s="26"/>
       <c r="AK29" s="28"/>
     </row>
-    <row r="30" spans="1:37" s="16" customFormat="1">
-      <c r="A30" s="116"/>
+    <row r="30" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="110"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
       <c r="D30" s="50"/>
@@ -8263,7 +9840,7 @@
       <c r="Q30" s="26"/>
       <c r="R30" s="28"/>
       <c r="S30" s="36"/>
-      <c r="T30" s="116"/>
+      <c r="T30" s="110"/>
       <c r="U30" s="29"/>
       <c r="V30" s="1"/>
       <c r="W30" s="2"/>
@@ -8282,8 +9859,8 @@
       <c r="AJ30" s="26"/>
       <c r="AK30" s="28"/>
     </row>
-    <row r="31" spans="1:37" s="16" customFormat="1">
-      <c r="A31" s="117"/>
+    <row r="31" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="111"/>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
@@ -8302,7 +9879,7 @@
       <c r="Q31" s="26"/>
       <c r="R31" s="28"/>
       <c r="S31" s="37"/>
-      <c r="T31" s="117"/>
+      <c r="T31" s="111"/>
       <c r="U31" s="29"/>
       <c r="V31" s="1"/>
       <c r="W31" s="2"/>
@@ -8321,7 +9898,7 @@
       <c r="AJ31" s="26"/>
       <c r="AK31" s="28"/>
     </row>
-    <row r="32" spans="1:37" s="16" customFormat="1">
+    <row r="32" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="12"/>
       <c r="C32" s="8"/>
@@ -8343,7 +9920,7 @@
       <c r="S32" s="38"/>
       <c r="U32" s="18"/>
     </row>
-    <row r="33" spans="1:62" ht="19.5" thickBot="1">
+    <row r="33" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -8352,16 +9929,16 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="109" t="s">
+      <c r="I33" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="110" t="s">
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
       <c r="O33" s="99"/>
       <c r="P33" s="99"/>
       <c r="Q33" s="99"/>
@@ -8375,16 +9952,16 @@
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
       <c r="AA33" s="21"/>
-      <c r="AB33" s="109" t="s">
+      <c r="AB33" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="AC33" s="109"/>
-      <c r="AD33" s="109"/>
-      <c r="AE33" s="110" t="s">
+      <c r="AC33" s="115"/>
+      <c r="AD33" s="115"/>
+      <c r="AE33" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="AF33" s="110"/>
-      <c r="AG33" s="110"/>
+      <c r="AF33" s="116"/>
+      <c r="AG33" s="116"/>
       <c r="AH33" s="99"/>
       <c r="AI33" s="99"/>
       <c r="AJ33" s="99"/>
@@ -8415,39 +9992,39 @@
       <c r="BI33" s="16"/>
       <c r="BJ33" s="16"/>
     </row>
-    <row r="34" spans="1:62" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I34" s="111" t="s">
+    <row r="34" spans="1:62" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I34" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="112"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="111" t="s">
+      <c r="J34" s="118"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="M34" s="112"/>
-      <c r="N34" s="113"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="119"/>
       <c r="O34" s="100"/>
       <c r="P34" s="100"/>
       <c r="Q34" s="100"/>
       <c r="R34" s="23"/>
       <c r="S34" s="34"/>
       <c r="U34" s="18"/>
-      <c r="AB34" s="111" t="s">
+      <c r="AB34" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="AC34" s="112"/>
-      <c r="AD34" s="113"/>
-      <c r="AE34" s="111" t="s">
+      <c r="AC34" s="118"/>
+      <c r="AD34" s="119"/>
+      <c r="AE34" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="AF34" s="112"/>
-      <c r="AG34" s="113"/>
+      <c r="AF34" s="118"/>
+      <c r="AG34" s="119"/>
       <c r="AH34" s="100"/>
       <c r="AI34" s="100"/>
       <c r="AJ34" s="100"/>
       <c r="AK34" s="23"/>
     </row>
-    <row r="35" spans="1:62" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="35" spans="1:62" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>18</v>
       </c>
@@ -8558,8 +10135,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="118" t="s">
+    <row r="36" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="112" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="57">
@@ -8600,7 +10177,7 @@
       <c r="Q36" s="101"/>
       <c r="R36" s="68"/>
       <c r="S36" s="10"/>
-      <c r="T36" s="118" t="s">
+      <c r="T36" s="112" t="s">
         <v>4</v>
       </c>
       <c r="U36" s="57">
@@ -8641,8 +10218,8 @@
       <c r="AJ36" s="101"/>
       <c r="AK36" s="68"/>
     </row>
-    <row r="37" spans="1:62" s="16" customFormat="1">
-      <c r="A37" s="119"/>
+    <row r="37" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="113"/>
       <c r="B37" s="64">
         <v>7042058</v>
       </c>
@@ -8683,7 +10260,7 @@
         <v>261</v>
       </c>
       <c r="S37" s="11"/>
-      <c r="T37" s="119"/>
+      <c r="T37" s="113"/>
       <c r="U37" s="73">
         <v>7401154</v>
       </c>
@@ -8722,8 +10299,8 @@
       <c r="AJ37" s="67"/>
       <c r="AK37" s="68"/>
     </row>
-    <row r="38" spans="1:62" s="16" customFormat="1">
-      <c r="A38" s="119"/>
+    <row r="38" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="113"/>
       <c r="B38" s="57">
         <v>7095860</v>
       </c>
@@ -8762,7 +10339,7 @@
       <c r="Q38" s="67"/>
       <c r="R38" s="68"/>
       <c r="S38" s="38"/>
-      <c r="T38" s="119"/>
+      <c r="T38" s="113"/>
       <c r="U38" s="57">
         <v>7104407</v>
       </c>
@@ -8801,8 +10378,8 @@
       <c r="AJ38" s="67"/>
       <c r="AK38" s="68"/>
     </row>
-    <row r="39" spans="1:62" s="16" customFormat="1">
-      <c r="A39" s="119"/>
+    <row r="39" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="113"/>
       <c r="B39" s="64">
         <v>7051932</v>
       </c>
@@ -8841,7 +10418,7 @@
       <c r="Q39" s="67"/>
       <c r="R39" s="68"/>
       <c r="S39" s="38"/>
-      <c r="T39" s="119"/>
+      <c r="T39" s="113"/>
       <c r="U39" s="64">
         <v>7104331</v>
       </c>
@@ -8880,8 +10457,8 @@
       <c r="AJ39" s="67"/>
       <c r="AK39" s="68"/>
     </row>
-    <row r="40" spans="1:62" s="16" customFormat="1">
-      <c r="A40" s="119"/>
+    <row r="40" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="113"/>
       <c r="B40" s="57">
         <v>7402448</v>
       </c>
@@ -8922,7 +10499,7 @@
         <v>268</v>
       </c>
       <c r="S40" s="38"/>
-      <c r="T40" s="119"/>
+      <c r="T40" s="113"/>
       <c r="U40" s="57">
         <v>7104882</v>
       </c>
@@ -8961,8 +10538,8 @@
       <c r="AJ40" s="67"/>
       <c r="AK40" s="68"/>
     </row>
-    <row r="41" spans="1:62" s="16" customFormat="1">
-      <c r="A41" s="119"/>
+    <row r="41" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="113"/>
       <c r="B41" s="64">
         <v>7092742</v>
       </c>
@@ -9001,7 +10578,7 @@
       <c r="Q41" s="67"/>
       <c r="R41" s="68"/>
       <c r="S41" s="38"/>
-      <c r="T41" s="119"/>
+      <c r="T41" s="113"/>
       <c r="U41" s="64">
         <v>7104871</v>
       </c>
@@ -9040,8 +10617,8 @@
       <c r="AJ41" s="67"/>
       <c r="AK41" s="68"/>
     </row>
-    <row r="42" spans="1:62" s="16" customFormat="1">
-      <c r="A42" s="119"/>
+    <row r="42" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="113"/>
       <c r="B42" s="57">
         <v>7092620</v>
       </c>
@@ -9080,7 +10657,7 @@
       <c r="Q42" s="67"/>
       <c r="R42" s="68"/>
       <c r="S42" s="38"/>
-      <c r="T42" s="119"/>
+      <c r="T42" s="113"/>
       <c r="U42" s="57">
         <v>7104865</v>
       </c>
@@ -9119,8 +10696,8 @@
       <c r="AJ42" s="67"/>
       <c r="AK42" s="68"/>
     </row>
-    <row r="43" spans="1:62" s="16" customFormat="1">
-      <c r="A43" s="119"/>
+    <row r="43" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="113"/>
       <c r="B43" s="64">
         <v>7098056</v>
       </c>
@@ -9149,7 +10726,7 @@
         <v>263</v>
       </c>
       <c r="S43" s="38"/>
-      <c r="T43" s="119"/>
+      <c r="T43" s="113"/>
       <c r="U43" s="64">
         <v>7105001</v>
       </c>
@@ -9188,8 +10765,8 @@
       <c r="AJ43" s="67"/>
       <c r="AK43" s="68"/>
     </row>
-    <row r="44" spans="1:62" s="16" customFormat="1">
-      <c r="A44" s="119"/>
+    <row r="44" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="113"/>
       <c r="B44" s="57">
         <v>7400269</v>
       </c>
@@ -9228,7 +10805,7 @@
       <c r="Q44" s="67"/>
       <c r="R44" s="68"/>
       <c r="S44" s="38"/>
-      <c r="T44" s="119"/>
+      <c r="T44" s="113"/>
       <c r="U44" s="57">
         <v>7104924</v>
       </c>
@@ -9267,8 +10844,8 @@
       <c r="AJ44" s="67"/>
       <c r="AK44" s="68"/>
     </row>
-    <row r="45" spans="1:62" s="16" customFormat="1">
-      <c r="A45" s="119"/>
+    <row r="45" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="113"/>
       <c r="B45" s="64">
         <v>7091821</v>
       </c>
@@ -9307,7 +10884,7 @@
       <c r="Q45" s="67"/>
       <c r="R45" s="68"/>
       <c r="S45" s="38"/>
-      <c r="T45" s="119"/>
+      <c r="T45" s="113"/>
       <c r="U45" s="64">
         <v>7105307</v>
       </c>
@@ -9346,8 +10923,8 @@
       <c r="AJ45" s="67"/>
       <c r="AK45" s="68"/>
     </row>
-    <row r="46" spans="1:62" s="16" customFormat="1">
-      <c r="A46" s="119"/>
+    <row r="46" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="113"/>
       <c r="B46" s="72">
         <v>7093513</v>
       </c>
@@ -9386,7 +10963,7 @@
       <c r="Q46" s="67"/>
       <c r="R46" s="68"/>
       <c r="S46" s="38"/>
-      <c r="T46" s="119"/>
+      <c r="T46" s="113"/>
       <c r="U46" s="57">
         <v>7105382</v>
       </c>
@@ -9425,8 +11002,8 @@
       <c r="AJ46" s="67"/>
       <c r="AK46" s="68"/>
     </row>
-    <row r="47" spans="1:62" s="16" customFormat="1">
-      <c r="A47" s="119"/>
+    <row r="47" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="113"/>
       <c r="B47" s="70">
         <v>7092977</v>
       </c>
@@ -9467,7 +11044,7 @@
         <v>264</v>
       </c>
       <c r="S47" s="38"/>
-      <c r="T47" s="119"/>
+      <c r="T47" s="113"/>
       <c r="U47" s="64">
         <v>7105419</v>
       </c>
@@ -9506,8 +11083,8 @@
       <c r="AJ47" s="67"/>
       <c r="AK47" s="68"/>
     </row>
-    <row r="48" spans="1:62" s="16" customFormat="1" ht="30">
-      <c r="A48" s="119"/>
+    <row r="48" spans="1:62" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="113"/>
       <c r="B48" s="57">
         <v>7092738</v>
       </c>
@@ -9548,7 +11125,7 @@
         <v>266</v>
       </c>
       <c r="S48" s="38"/>
-      <c r="T48" s="119"/>
+      <c r="T48" s="113"/>
       <c r="U48" s="57">
         <v>7105393</v>
       </c>
@@ -9587,8 +11164,8 @@
       <c r="AJ48" s="67"/>
       <c r="AK48" s="68"/>
     </row>
-    <row r="49" spans="1:37" s="16" customFormat="1">
-      <c r="A49" s="119"/>
+    <row r="49" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="113"/>
       <c r="B49" s="64">
         <v>7092308</v>
       </c>
@@ -9627,7 +11204,7 @@
       <c r="Q49" s="67"/>
       <c r="R49" s="68"/>
       <c r="S49" s="38"/>
-      <c r="T49" s="119"/>
+      <c r="T49" s="113"/>
       <c r="U49" s="64">
         <v>7105427</v>
       </c>
@@ -9666,8 +11243,8 @@
       <c r="AJ49" s="67"/>
       <c r="AK49" s="68"/>
     </row>
-    <row r="50" spans="1:37" s="16" customFormat="1">
-      <c r="A50" s="119"/>
+    <row r="50" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="113"/>
       <c r="B50" s="57">
         <v>7098023</v>
       </c>
@@ -9706,7 +11283,7 @@
       <c r="Q50" s="67"/>
       <c r="R50" s="87"/>
       <c r="S50" s="38"/>
-      <c r="T50" s="119"/>
+      <c r="T50" s="113"/>
       <c r="U50" s="57">
         <v>7105319</v>
       </c>
@@ -9745,8 +11322,8 @@
       <c r="AJ50" s="67"/>
       <c r="AK50" s="68"/>
     </row>
-    <row r="51" spans="1:37" s="16" customFormat="1">
-      <c r="A51" s="119"/>
+    <row r="51" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="113"/>
       <c r="B51" s="64">
         <v>7051892</v>
       </c>
@@ -9785,7 +11362,7 @@
       <c r="Q51" s="67"/>
       <c r="R51" s="68"/>
       <c r="S51" s="38"/>
-      <c r="T51" s="119"/>
+      <c r="T51" s="113"/>
       <c r="U51" s="64">
         <v>7096686</v>
       </c>
@@ -9824,8 +11401,8 @@
       <c r="AJ51" s="67"/>
       <c r="AK51" s="68"/>
     </row>
-    <row r="52" spans="1:37" s="16" customFormat="1">
-      <c r="A52" s="119"/>
+    <row r="52" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="113"/>
       <c r="B52" s="57">
         <v>7029156</v>
       </c>
@@ -9866,7 +11443,7 @@
         <v>265</v>
       </c>
       <c r="S52" s="38"/>
-      <c r="T52" s="119"/>
+      <c r="T52" s="113"/>
       <c r="U52" s="57">
         <v>7105184</v>
       </c>
@@ -9905,8 +11482,8 @@
       <c r="AJ52" s="67"/>
       <c r="AK52" s="68"/>
     </row>
-    <row r="53" spans="1:37" s="16" customFormat="1">
-      <c r="A53" s="119"/>
+    <row r="53" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="113"/>
       <c r="B53" s="64">
         <v>7092660</v>
       </c>
@@ -9945,7 +11522,7 @@
       <c r="Q53" s="67"/>
       <c r="R53" s="68"/>
       <c r="S53" s="38"/>
-      <c r="T53" s="119"/>
+      <c r="T53" s="113"/>
       <c r="U53" s="64">
         <v>7104141</v>
       </c>
@@ -9984,8 +11561,8 @@
       <c r="AJ53" s="67"/>
       <c r="AK53" s="68"/>
     </row>
-    <row r="54" spans="1:37" s="16" customFormat="1">
-      <c r="A54" s="119"/>
+    <row r="54" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="113"/>
       <c r="B54" s="72">
         <v>7051920</v>
       </c>
@@ -10026,7 +11603,7 @@
         <v>262</v>
       </c>
       <c r="S54" s="38"/>
-      <c r="T54" s="119"/>
+      <c r="T54" s="113"/>
       <c r="U54" s="44"/>
       <c r="V54" s="44"/>
       <c r="W54" s="50"/>
@@ -10045,8 +11622,8 @@
       <c r="AJ54" s="26"/>
       <c r="AK54" s="28"/>
     </row>
-    <row r="55" spans="1:37" s="16" customFormat="1">
-      <c r="A55" s="119"/>
+    <row r="55" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="113"/>
       <c r="B55" s="64">
         <v>7095865</v>
       </c>
@@ -10085,7 +11662,7 @@
       <c r="Q55" s="67"/>
       <c r="R55" s="68"/>
       <c r="S55" s="38"/>
-      <c r="T55" s="119"/>
+      <c r="T55" s="113"/>
       <c r="U55" s="44"/>
       <c r="V55" s="44"/>
       <c r="W55" s="50"/>
@@ -10104,8 +11681,8 @@
       <c r="AJ55" s="26"/>
       <c r="AK55" s="28"/>
     </row>
-    <row r="56" spans="1:37" s="16" customFormat="1">
-      <c r="A56" s="119"/>
+    <row r="56" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="113"/>
       <c r="B56" s="57">
         <v>7095735</v>
       </c>
@@ -10144,7 +11721,7 @@
       <c r="Q56" s="67"/>
       <c r="R56" s="68"/>
       <c r="S56" s="38"/>
-      <c r="T56" s="119"/>
+      <c r="T56" s="113"/>
       <c r="U56" s="44"/>
       <c r="V56" s="44"/>
       <c r="W56" s="50"/>
@@ -10163,8 +11740,8 @@
       <c r="AJ56" s="26"/>
       <c r="AK56" s="28"/>
     </row>
-    <row r="57" spans="1:37" s="16" customFormat="1" ht="45">
-      <c r="A57" s="119"/>
+    <row r="57" spans="1:37" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="113"/>
       <c r="B57" s="64">
         <v>7051765</v>
       </c>
@@ -10205,7 +11782,7 @@
         <v>267</v>
       </c>
       <c r="S57" s="38"/>
-      <c r="T57" s="119"/>
+      <c r="T57" s="113"/>
       <c r="U57" s="44"/>
       <c r="V57" s="44"/>
       <c r="W57" s="50"/>
@@ -10224,8 +11801,8 @@
       <c r="AJ57" s="26"/>
       <c r="AK57" s="28"/>
     </row>
-    <row r="58" spans="1:37" s="16" customFormat="1">
-      <c r="A58" s="119"/>
+    <row r="58" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="113"/>
       <c r="B58" s="57">
         <v>7094195</v>
       </c>
@@ -10264,7 +11841,7 @@
       <c r="Q58" s="67"/>
       <c r="R58" s="68"/>
       <c r="S58" s="38"/>
-      <c r="T58" s="119"/>
+      <c r="T58" s="113"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="2"/>
@@ -10283,8 +11860,8 @@
       <c r="AJ58" s="26"/>
       <c r="AK58" s="28"/>
     </row>
-    <row r="59" spans="1:37" s="16" customFormat="1" ht="30">
-      <c r="A59" s="119"/>
+    <row r="59" spans="1:37" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="113"/>
       <c r="B59" s="63">
         <v>7401045</v>
       </c>
@@ -10325,7 +11902,7 @@
         <v>271</v>
       </c>
       <c r="S59" s="38"/>
-      <c r="T59" s="119"/>
+      <c r="T59" s="113"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="2"/>
@@ -10344,8 +11921,8 @@
       <c r="AJ59" s="26"/>
       <c r="AK59" s="28"/>
     </row>
-    <row r="60" spans="1:37" s="16" customFormat="1">
-      <c r="A60" s="119"/>
+    <row r="60" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="113"/>
       <c r="B60" s="57">
         <v>7045037</v>
       </c>
@@ -10384,7 +11961,7 @@
       <c r="Q60" s="67"/>
       <c r="R60" s="68"/>
       <c r="S60" s="38"/>
-      <c r="T60" s="119"/>
+      <c r="T60" s="113"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="2"/>
@@ -10403,8 +11980,8 @@
       <c r="AJ60" s="26"/>
       <c r="AK60" s="28"/>
     </row>
-    <row r="61" spans="1:37" s="16" customFormat="1">
-      <c r="A61" s="119"/>
+    <row r="61" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="113"/>
       <c r="B61" s="64">
         <v>7402044</v>
       </c>
@@ -10443,7 +12020,7 @@
       <c r="Q61" s="67"/>
       <c r="R61" s="68"/>
       <c r="S61" s="38"/>
-      <c r="T61" s="119"/>
+      <c r="T61" s="113"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="2"/>
@@ -10462,8 +12039,8 @@
       <c r="AJ61" s="26"/>
       <c r="AK61" s="28"/>
     </row>
-    <row r="62" spans="1:37" s="16" customFormat="1">
-      <c r="A62" s="119"/>
+    <row r="62" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="113"/>
       <c r="B62" s="70">
         <v>7093549</v>
       </c>
@@ -10502,7 +12079,7 @@
       <c r="Q62" s="67"/>
       <c r="R62" s="68"/>
       <c r="S62" s="38"/>
-      <c r="T62" s="119"/>
+      <c r="T62" s="113"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="2"/>
@@ -10521,8 +12098,8 @@
       <c r="AJ62" s="26"/>
       <c r="AK62" s="28"/>
     </row>
-    <row r="63" spans="1:37" s="16" customFormat="1">
-      <c r="A63" s="119"/>
+    <row r="63" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="113"/>
       <c r="B63" s="63">
         <v>7093554</v>
       </c>
@@ -10561,7 +12138,7 @@
       <c r="Q63" s="67"/>
       <c r="R63" s="68"/>
       <c r="S63" s="38"/>
-      <c r="T63" s="119"/>
+      <c r="T63" s="113"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="2"/>
@@ -10580,8 +12157,8 @@
       <c r="AJ63" s="26"/>
       <c r="AK63" s="28"/>
     </row>
-    <row r="64" spans="1:37" s="16" customFormat="1">
-      <c r="A64" s="119"/>
+    <row r="64" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="113"/>
       <c r="B64" s="74">
         <v>7403371</v>
       </c>
@@ -10620,7 +12197,7 @@
       <c r="Q64" s="67"/>
       <c r="R64" s="68"/>
       <c r="S64" s="38"/>
-      <c r="T64" s="119"/>
+      <c r="T64" s="113"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="2"/>
@@ -10639,8 +12216,8 @@
       <c r="AJ64" s="26"/>
       <c r="AK64" s="28"/>
     </row>
-    <row r="65" spans="1:62" s="16" customFormat="1">
-      <c r="A65" s="119"/>
+    <row r="65" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="113"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
       <c r="D65" s="50"/>
@@ -10659,7 +12236,7 @@
       <c r="Q65" s="26"/>
       <c r="R65" s="28"/>
       <c r="S65" s="38"/>
-      <c r="T65" s="119"/>
+      <c r="T65" s="113"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="2"/>
@@ -10678,8 +12255,8 @@
       <c r="AJ65" s="26"/>
       <c r="AK65" s="28"/>
     </row>
-    <row r="66" spans="1:62" s="16" customFormat="1">
-      <c r="A66" s="119"/>
+    <row r="66" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="113"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
       <c r="D66" s="50"/>
@@ -10698,7 +12275,7 @@
       <c r="Q66" s="26"/>
       <c r="R66" s="28"/>
       <c r="S66" s="38"/>
-      <c r="T66" s="119"/>
+      <c r="T66" s="113"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="2"/>
@@ -10717,8 +12294,8 @@
       <c r="AJ66" s="26"/>
       <c r="AK66" s="28"/>
     </row>
-    <row r="67" spans="1:62" s="16" customFormat="1">
-      <c r="A67" s="119"/>
+    <row r="67" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="113"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
       <c r="D67" s="50"/>
@@ -10737,7 +12314,7 @@
       <c r="Q67" s="26"/>
       <c r="R67" s="28"/>
       <c r="S67" s="38"/>
-      <c r="T67" s="119"/>
+      <c r="T67" s="113"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="2"/>
@@ -10756,8 +12333,8 @@
       <c r="AJ67" s="26"/>
       <c r="AK67" s="28"/>
     </row>
-    <row r="68" spans="1:62" s="16" customFormat="1">
-      <c r="A68" s="119"/>
+    <row r="68" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="113"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
       <c r="D68" s="50"/>
@@ -10776,7 +12353,7 @@
       <c r="Q68" s="26"/>
       <c r="R68" s="28"/>
       <c r="S68" s="38"/>
-      <c r="T68" s="119"/>
+      <c r="T68" s="113"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="2"/>
@@ -10795,8 +12372,8 @@
       <c r="AJ68" s="26"/>
       <c r="AK68" s="28"/>
     </row>
-    <row r="69" spans="1:62" s="16" customFormat="1">
-      <c r="A69" s="119"/>
+    <row r="69" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="113"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
       <c r="D69" s="50"/>
@@ -10815,7 +12392,7 @@
       <c r="Q69" s="26"/>
       <c r="R69" s="28"/>
       <c r="S69" s="38"/>
-      <c r="T69" s="119"/>
+      <c r="T69" s="113"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="2"/>
@@ -10834,8 +12411,8 @@
       <c r="AJ69" s="26"/>
       <c r="AK69" s="28"/>
     </row>
-    <row r="70" spans="1:62" s="16" customFormat="1">
-      <c r="A70" s="119"/>
+    <row r="70" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="113"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
       <c r="D70" s="50"/>
@@ -10854,7 +12431,7 @@
       <c r="Q70" s="26"/>
       <c r="R70" s="28"/>
       <c r="S70" s="38"/>
-      <c r="T70" s="119"/>
+      <c r="T70" s="113"/>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
       <c r="W70" s="2"/>
@@ -10873,8 +12450,8 @@
       <c r="AJ70" s="26"/>
       <c r="AK70" s="28"/>
     </row>
-    <row r="71" spans="1:62" s="16" customFormat="1">
-      <c r="A71" s="119"/>
+    <row r="71" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="113"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -10893,7 +12470,7 @@
       <c r="Q71" s="26"/>
       <c r="R71" s="28"/>
       <c r="S71" s="38"/>
-      <c r="T71" s="119"/>
+      <c r="T71" s="113"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
       <c r="W71" s="2"/>
@@ -10912,8 +12489,8 @@
       <c r="AJ71" s="26"/>
       <c r="AK71" s="28"/>
     </row>
-    <row r="72" spans="1:62" s="16" customFormat="1">
-      <c r="A72" s="120"/>
+    <row r="72" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="114"/>
       <c r="B72" s="44"/>
       <c r="C72" s="41"/>
       <c r="D72" s="42"/>
@@ -10932,7 +12509,7 @@
       <c r="Q72" s="26"/>
       <c r="R72" s="28"/>
       <c r="S72" s="38"/>
-      <c r="T72" s="120"/>
+      <c r="T72" s="114"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="2"/>
@@ -10951,7 +12528,7 @@
       <c r="AJ72" s="26"/>
       <c r="AK72" s="28"/>
     </row>
-    <row r="73" spans="1:62" s="16" customFormat="1">
+    <row r="73" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="19"/>
       <c r="C73" s="6"/>
@@ -10973,7 +12550,7 @@
       <c r="S73" s="38"/>
       <c r="U73" s="18"/>
     </row>
-    <row r="74" spans="1:62" ht="19.5" thickBot="1">
+    <row r="74" spans="1:62" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="5"/>
       <c r="B74" s="19"/>
       <c r="C74" s="6"/>
@@ -10982,16 +12559,16 @@
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
-      <c r="I74" s="109" t="s">
+      <c r="I74" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="109"/>
-      <c r="K74" s="109"/>
-      <c r="L74" s="110" t="s">
+      <c r="J74" s="115"/>
+      <c r="K74" s="115"/>
+      <c r="L74" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="M74" s="110"/>
-      <c r="N74" s="110"/>
+      <c r="M74" s="116"/>
+      <c r="N74" s="116"/>
       <c r="O74" s="99"/>
       <c r="P74" s="99"/>
       <c r="Q74" s="99"/>
@@ -11005,16 +12582,16 @@
       <c r="Y74" s="21"/>
       <c r="Z74" s="21"/>
       <c r="AA74" s="21"/>
-      <c r="AB74" s="109" t="s">
+      <c r="AB74" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="AC74" s="109"/>
-      <c r="AD74" s="109"/>
-      <c r="AE74" s="110" t="s">
+      <c r="AC74" s="115"/>
+      <c r="AD74" s="115"/>
+      <c r="AE74" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="AF74" s="110"/>
-      <c r="AG74" s="110"/>
+      <c r="AF74" s="116"/>
+      <c r="AG74" s="116"/>
       <c r="AH74" s="99"/>
       <c r="AI74" s="99"/>
       <c r="AJ74" s="99"/>
@@ -11045,43 +12622,43 @@
       <c r="BI74" s="16"/>
       <c r="BJ74" s="16"/>
     </row>
-    <row r="75" spans="1:62" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="75" spans="1:62" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
-      <c r="I75" s="111" t="s">
+      <c r="I75" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J75" s="112"/>
-      <c r="K75" s="113"/>
-      <c r="L75" s="111" t="s">
+      <c r="J75" s="118"/>
+      <c r="K75" s="119"/>
+      <c r="L75" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="M75" s="112"/>
-      <c r="N75" s="113"/>
+      <c r="M75" s="118"/>
+      <c r="N75" s="119"/>
       <c r="O75" s="100"/>
       <c r="P75" s="100"/>
       <c r="Q75" s="100"/>
       <c r="R75" s="23"/>
       <c r="S75" s="34"/>
       <c r="U75" s="18"/>
-      <c r="AB75" s="111" t="s">
+      <c r="AB75" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="AC75" s="112"/>
-      <c r="AD75" s="113"/>
-      <c r="AE75" s="111" t="s">
+      <c r="AC75" s="118"/>
+      <c r="AD75" s="119"/>
+      <c r="AE75" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="AF75" s="112"/>
-      <c r="AG75" s="113"/>
+      <c r="AF75" s="118"/>
+      <c r="AG75" s="119"/>
       <c r="AH75" s="100"/>
       <c r="AI75" s="100"/>
       <c r="AJ75" s="100"/>
       <c r="AK75" s="23"/>
     </row>
-    <row r="76" spans="1:62" s="16" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+    <row r="76" spans="1:62" s="16" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
         <v>18</v>
       </c>
@@ -11192,8 +12769,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:62" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A77" s="121" t="s">
+    <row r="77" spans="1:62" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="107" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="57">
@@ -11234,7 +12811,7 @@
       <c r="Q77" s="102"/>
       <c r="R77" s="89"/>
       <c r="S77" s="39"/>
-      <c r="T77" s="121" t="s">
+      <c r="T77" s="107" t="s">
         <v>5</v>
       </c>
       <c r="U77" s="72">
@@ -11275,8 +12852,8 @@
       <c r="AJ77" s="101"/>
       <c r="AK77" s="68"/>
     </row>
-    <row r="78" spans="1:62" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A78" s="122"/>
+    <row r="78" spans="1:62" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="108"/>
       <c r="B78" s="64">
         <v>7077343</v>
       </c>
@@ -11303,7 +12880,7 @@
       <c r="Q78" s="103"/>
       <c r="R78" s="89"/>
       <c r="S78" s="39"/>
-      <c r="T78" s="122"/>
+      <c r="T78" s="108"/>
       <c r="U78" s="64">
         <v>7104550</v>
       </c>
@@ -11332,8 +12909,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="79" spans="1:62" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A79" s="122"/>
+    <row r="79" spans="1:62" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="108"/>
       <c r="B79" s="57">
         <v>7092320</v>
       </c>
@@ -11372,7 +12949,7 @@
       <c r="Q79" s="103"/>
       <c r="R79" s="89"/>
       <c r="S79" s="39"/>
-      <c r="T79" s="122"/>
+      <c r="T79" s="108"/>
       <c r="U79" s="57">
         <v>7104396</v>
       </c>
@@ -11411,8 +12988,8 @@
       <c r="AJ79" s="67"/>
       <c r="AK79" s="68"/>
     </row>
-    <row r="80" spans="1:62" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A80" s="122"/>
+    <row r="80" spans="1:62" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="108"/>
       <c r="B80" s="64">
         <v>7402634</v>
       </c>
@@ -11451,7 +13028,7 @@
       <c r="Q80" s="103"/>
       <c r="R80" s="89"/>
       <c r="S80" s="39"/>
-      <c r="T80" s="122"/>
+      <c r="T80" s="108"/>
       <c r="U80" s="64">
         <v>7105245</v>
       </c>
@@ -11478,8 +13055,8 @@
       <c r="AJ80" s="67"/>
       <c r="AK80" s="68"/>
     </row>
-    <row r="81" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A81" s="122"/>
+    <row r="81" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="108"/>
       <c r="B81" s="57">
         <v>7095862</v>
       </c>
@@ -11518,7 +13095,7 @@
       <c r="Q81" s="103"/>
       <c r="R81" s="91"/>
       <c r="S81" s="40"/>
-      <c r="T81" s="122"/>
+      <c r="T81" s="108"/>
       <c r="U81" s="57">
         <v>7105289</v>
       </c>
@@ -11545,8 +13122,8 @@
       <c r="AJ81" s="67"/>
       <c r="AK81" s="68"/>
     </row>
-    <row r="82" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A82" s="122"/>
+    <row r="82" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="108"/>
       <c r="B82" s="64">
         <v>7402470</v>
       </c>
@@ -11587,7 +13164,7 @@
         <v>269</v>
       </c>
       <c r="S82" s="39"/>
-      <c r="T82" s="122"/>
+      <c r="T82" s="108"/>
       <c r="U82" s="64">
         <v>7105291</v>
       </c>
@@ -11626,8 +13203,8 @@
       <c r="AJ82" s="67"/>
       <c r="AK82" s="68"/>
     </row>
-    <row r="83" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A83" s="122"/>
+    <row r="83" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="108"/>
       <c r="B83" s="57">
         <v>7402166</v>
       </c>
@@ -11666,7 +13243,7 @@
       <c r="Q83" s="103"/>
       <c r="R83" s="89"/>
       <c r="S83" s="39"/>
-      <c r="T83" s="122"/>
+      <c r="T83" s="108"/>
       <c r="U83" s="57">
         <v>7105290</v>
       </c>
@@ -11695,8 +13272,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A84" s="122"/>
+    <row r="84" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="108"/>
       <c r="B84" s="64">
         <v>7095758</v>
       </c>
@@ -11735,7 +13312,7 @@
       <c r="Q84" s="103"/>
       <c r="R84" s="89"/>
       <c r="S84" s="39"/>
-      <c r="T84" s="122"/>
+      <c r="T84" s="108"/>
       <c r="U84" s="64">
         <v>7105318</v>
       </c>
@@ -11774,8 +13351,8 @@
       <c r="AJ84" s="67"/>
       <c r="AK84" s="68"/>
     </row>
-    <row r="85" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A85" s="122"/>
+    <row r="85" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="108"/>
       <c r="B85" s="57">
         <v>7096314</v>
       </c>
@@ -11814,7 +13391,7 @@
       <c r="Q85" s="103"/>
       <c r="R85" s="89"/>
       <c r="S85" s="39"/>
-      <c r="T85" s="122"/>
+      <c r="T85" s="108"/>
       <c r="U85" s="57">
         <v>7105367</v>
       </c>
@@ -11841,8 +13418,8 @@
       <c r="AJ85" s="67"/>
       <c r="AK85" s="68"/>
     </row>
-    <row r="86" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A86" s="122"/>
+    <row r="86" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="108"/>
       <c r="B86" s="64">
         <v>7403495</v>
       </c>
@@ -11883,7 +13460,7 @@
         <v>270</v>
       </c>
       <c r="S86" s="39"/>
-      <c r="T86" s="122"/>
+      <c r="T86" s="108"/>
       <c r="U86" s="63">
         <v>7104858</v>
       </c>
@@ -11922,8 +13499,8 @@
       <c r="AJ86" s="67"/>
       <c r="AK86" s="68"/>
     </row>
-    <row r="87" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A87" s="122"/>
+    <row r="87" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="108"/>
       <c r="B87" s="72">
         <v>7095746</v>
       </c>
@@ -11962,7 +13539,7 @@
       <c r="Q87" s="103"/>
       <c r="R87" s="91"/>
       <c r="S87" s="40"/>
-      <c r="T87" s="122"/>
+      <c r="T87" s="108"/>
       <c r="U87" s="57">
         <v>7104292</v>
       </c>
@@ -12001,8 +13578,8 @@
       <c r="AJ87" s="67"/>
       <c r="AK87" s="68"/>
     </row>
-    <row r="88" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A88" s="122"/>
+    <row r="88" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="108"/>
       <c r="B88" s="64">
         <v>7077347</v>
       </c>
@@ -12041,7 +13618,7 @@
       <c r="Q88" s="103"/>
       <c r="R88" s="89"/>
       <c r="S88" s="39"/>
-      <c r="T88" s="122"/>
+      <c r="T88" s="108"/>
       <c r="U88" s="64">
         <v>7403411</v>
       </c>
@@ -12070,8 +13647,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A89" s="122"/>
+    <row r="89" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="108"/>
       <c r="B89" s="57">
         <v>7094192</v>
       </c>
@@ -12110,7 +13687,7 @@
       <c r="Q89" s="103"/>
       <c r="R89" s="89"/>
       <c r="S89" s="39"/>
-      <c r="T89" s="122"/>
+      <c r="T89" s="108"/>
       <c r="U89" s="57">
         <v>7403370</v>
       </c>
@@ -12149,8 +13726,8 @@
       <c r="AJ89" s="67"/>
       <c r="AK89" s="68"/>
     </row>
-    <row r="90" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A90" s="122"/>
+    <row r="90" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="108"/>
       <c r="B90" s="70">
         <v>7092642</v>
       </c>
@@ -12189,7 +13766,7 @@
       <c r="Q90" s="103"/>
       <c r="R90" s="89"/>
       <c r="S90" s="39"/>
-      <c r="T90" s="122"/>
+      <c r="T90" s="108"/>
       <c r="U90" s="64">
         <v>7402425</v>
       </c>
@@ -12228,8 +13805,8 @@
       <c r="AJ90" s="67"/>
       <c r="AK90" s="68"/>
     </row>
-    <row r="91" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A91" s="122"/>
+    <row r="91" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="108"/>
       <c r="B91" s="57">
         <v>7403357</v>
       </c>
@@ -12268,7 +13845,7 @@
       <c r="Q91" s="103"/>
       <c r="R91" s="89"/>
       <c r="S91" s="39"/>
-      <c r="T91" s="122"/>
+      <c r="T91" s="108"/>
       <c r="U91" s="106">
         <v>7403136</v>
       </c>
@@ -12307,8 +13884,8 @@
       <c r="AJ91" s="67"/>
       <c r="AK91" s="68"/>
     </row>
-    <row r="92" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A92" s="122"/>
+    <row r="92" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="108"/>
       <c r="B92" s="64">
         <v>7096839</v>
       </c>
@@ -12347,7 +13924,7 @@
       <c r="Q92" s="103"/>
       <c r="R92" s="89"/>
       <c r="S92" s="39"/>
-      <c r="T92" s="122"/>
+      <c r="T92" s="108"/>
       <c r="U92" s="44"/>
       <c r="V92" s="44"/>
       <c r="W92" s="50"/>
@@ -12366,8 +13943,8 @@
       <c r="AJ92" s="26"/>
       <c r="AK92" s="28"/>
     </row>
-    <row r="93" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A93" s="122"/>
+    <row r="93" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="108"/>
       <c r="B93" s="57">
         <v>7400313</v>
       </c>
@@ -12406,7 +13983,7 @@
       <c r="Q93" s="103"/>
       <c r="R93" s="89"/>
       <c r="S93" s="39"/>
-      <c r="T93" s="122"/>
+      <c r="T93" s="108"/>
       <c r="U93" s="44"/>
       <c r="V93" s="44"/>
       <c r="W93" s="50"/>
@@ -12425,8 +14002,8 @@
       <c r="AJ93" s="26"/>
       <c r="AK93" s="28"/>
     </row>
-    <row r="94" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A94" s="122"/>
+    <row r="94" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="108"/>
       <c r="B94" s="73">
         <v>7401131</v>
       </c>
@@ -12465,7 +14042,7 @@
       <c r="Q94" s="103"/>
       <c r="R94" s="89"/>
       <c r="S94" s="39"/>
-      <c r="T94" s="122"/>
+      <c r="T94" s="108"/>
       <c r="U94" s="44"/>
       <c r="V94" s="44"/>
       <c r="W94" s="50"/>
@@ -12484,8 +14061,8 @@
       <c r="AJ94" s="26"/>
       <c r="AK94" s="28"/>
     </row>
-    <row r="95" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A95" s="122"/>
+    <row r="95" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="108"/>
       <c r="B95" s="57">
         <v>7402022</v>
       </c>
@@ -12524,7 +14101,7 @@
       <c r="Q95" s="103"/>
       <c r="R95" s="89"/>
       <c r="S95" s="39"/>
-      <c r="T95" s="122"/>
+      <c r="T95" s="108"/>
       <c r="U95" s="44"/>
       <c r="V95" s="44"/>
       <c r="W95" s="50"/>
@@ -12543,8 +14120,8 @@
       <c r="AJ95" s="26"/>
       <c r="AK95" s="28"/>
     </row>
-    <row r="96" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A96" s="122"/>
+    <row r="96" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="108"/>
       <c r="B96" s="64">
         <v>7096419</v>
       </c>
@@ -12583,7 +14160,7 @@
       <c r="Q96" s="103"/>
       <c r="R96" s="89"/>
       <c r="S96" s="39"/>
-      <c r="T96" s="122"/>
+      <c r="T96" s="108"/>
       <c r="U96" s="44"/>
       <c r="V96" s="44"/>
       <c r="W96" s="50"/>
@@ -12602,8 +14179,8 @@
       <c r="AJ96" s="26"/>
       <c r="AK96" s="28"/>
     </row>
-    <row r="97" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A97" s="122"/>
+    <row r="97" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="108"/>
       <c r="B97" s="72">
         <v>7401914</v>
       </c>
@@ -12642,7 +14219,7 @@
       <c r="Q97" s="103"/>
       <c r="R97" s="89"/>
       <c r="S97" s="39"/>
-      <c r="T97" s="122"/>
+      <c r="T97" s="108"/>
       <c r="U97" s="46"/>
       <c r="V97" s="51"/>
       <c r="W97" s="51"/>
@@ -12661,8 +14238,8 @@
       <c r="AJ97" s="26"/>
       <c r="AK97" s="28"/>
     </row>
-    <row r="98" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A98" s="122"/>
+    <row r="98" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="108"/>
       <c r="B98" s="73">
         <v>7095767</v>
       </c>
@@ -12701,7 +14278,7 @@
       <c r="Q98" s="103"/>
       <c r="R98" s="89"/>
       <c r="S98" s="39"/>
-      <c r="T98" s="122"/>
+      <c r="T98" s="108"/>
       <c r="U98" s="44"/>
       <c r="V98" s="44"/>
       <c r="W98" s="50"/>
@@ -12720,8 +14297,8 @@
       <c r="AJ98" s="26"/>
       <c r="AK98" s="28"/>
     </row>
-    <row r="99" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A99" s="122"/>
+    <row r="99" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="108"/>
       <c r="B99" s="57">
         <v>7400855</v>
       </c>
@@ -12760,7 +14337,7 @@
       <c r="Q99" s="103"/>
       <c r="R99" s="89"/>
       <c r="S99" s="39"/>
-      <c r="T99" s="122"/>
+      <c r="T99" s="108"/>
       <c r="U99" s="44"/>
       <c r="V99" s="44"/>
       <c r="W99" s="50"/>
@@ -12779,8 +14356,8 @@
       <c r="AJ99" s="26"/>
       <c r="AK99" s="28"/>
     </row>
-    <row r="100" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A100" s="122"/>
+    <row r="100" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="108"/>
       <c r="B100" s="64">
         <v>7402422</v>
       </c>
@@ -12819,7 +14396,7 @@
       <c r="Q100" s="103"/>
       <c r="R100" s="89"/>
       <c r="S100" s="39"/>
-      <c r="T100" s="122"/>
+      <c r="T100" s="108"/>
       <c r="U100" s="32"/>
       <c r="V100" s="1"/>
       <c r="W100" s="2"/>
@@ -12838,8 +14415,8 @@
       <c r="AJ100" s="26"/>
       <c r="AK100" s="28"/>
     </row>
-    <row r="101" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A101" s="122"/>
+    <row r="101" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="108"/>
       <c r="B101" s="57">
         <v>7401169</v>
       </c>
@@ -12878,7 +14455,7 @@
       <c r="Q101" s="103"/>
       <c r="R101" s="89"/>
       <c r="S101" s="39"/>
-      <c r="T101" s="122"/>
+      <c r="T101" s="108"/>
       <c r="U101" s="32"/>
       <c r="V101" s="1"/>
       <c r="W101" s="2"/>
@@ -12897,8 +14474,8 @@
       <c r="AJ101" s="26"/>
       <c r="AK101" s="28"/>
     </row>
-    <row r="102" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A102" s="122"/>
+    <row r="102" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="108"/>
       <c r="B102" s="63">
         <v>7400910</v>
       </c>
@@ -12939,7 +14516,7 @@
         <v>257</v>
       </c>
       <c r="S102" s="39"/>
-      <c r="T102" s="122"/>
+      <c r="T102" s="108"/>
       <c r="U102" s="32"/>
       <c r="V102" s="1"/>
       <c r="W102" s="2"/>
@@ -12958,8 +14535,8 @@
       <c r="AJ102" s="26"/>
       <c r="AK102" s="28"/>
     </row>
-    <row r="103" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A103" s="122"/>
+    <row r="103" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="108"/>
       <c r="B103" s="74">
         <v>7402698</v>
       </c>
@@ -12998,7 +14575,7 @@
       <c r="Q103" s="103"/>
       <c r="R103" s="89"/>
       <c r="S103" s="39"/>
-      <c r="T103" s="122"/>
+      <c r="T103" s="108"/>
       <c r="U103" s="32"/>
       <c r="V103" s="1"/>
       <c r="W103" s="2"/>
@@ -13017,8 +14594,8 @@
       <c r="AJ103" s="26"/>
       <c r="AK103" s="28"/>
     </row>
-    <row r="104" spans="1:37" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A104" s="122"/>
+    <row r="104" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="108"/>
       <c r="B104" s="76">
         <v>7403383</v>
       </c>
@@ -13057,7 +14634,7 @@
       <c r="Q104" s="103"/>
       <c r="R104" s="96"/>
       <c r="S104" s="39"/>
-      <c r="T104" s="122"/>
+      <c r="T104" s="108"/>
       <c r="U104" s="32"/>
       <c r="V104" s="1"/>
       <c r="W104" s="2"/>
@@ -13076,104 +14653,242 @@
       <c r="AJ104" s="26"/>
       <c r="AK104" s="28"/>
     </row>
-    <row r="105" spans="1:37" s="16" customFormat="1">
+    <row r="105" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="48"/>
       <c r="I105" s="49"/>
       <c r="U105" s="18"/>
     </row>
-    <row r="106" spans="1:37" s="16" customFormat="1">
+    <row r="106" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="20"/>
       <c r="I106" s="47"/>
       <c r="U106" s="18"/>
     </row>
-    <row r="107" spans="1:37" s="16" customFormat="1">
+    <row r="107" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="20"/>
-      <c r="I107" s="47"/>
-      <c r="U107" s="18"/>
+      <c r="B107" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" s="124" t="s">
+        <v>277</v>
+      </c>
+      <c r="G107" s="124" t="s">
+        <v>278</v>
+      </c>
+      <c r="H107" s="124" t="s">
+        <v>279</v>
+      </c>
+      <c r="I107" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="M107" s="125" t="s">
+        <v>275</v>
+      </c>
+      <c r="N107" s="125" t="s">
+        <v>276</v>
+      </c>
+      <c r="O107" s="125" t="s">
+        <v>280</v>
+      </c>
+      <c r="P107" s="125" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q107" s="125" t="s">
+        <v>282</v>
+      </c>
+      <c r="R107" s="126" t="s">
+        <v>2</v>
+      </c>
+      <c r="U107" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="V107" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="W107" s="123" t="s">
+        <v>17</v>
+      </c>
+      <c r="X107" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y107" s="124" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z107" s="124" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA107" s="124" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB107" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC107" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD107" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE107" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF107" s="125" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG107" s="125" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH107" s="125" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI107" s="125" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ107" s="125" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK107" s="126" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="108" spans="1:37" s="16" customFormat="1">
+    <row r="108" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="20"/>
-      <c r="I108" s="47"/>
-      <c r="U108" s="18"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="60"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="61"/>
+      <c r="L108" s="61"/>
+      <c r="M108" s="61"/>
+      <c r="N108" s="61"/>
+      <c r="O108" s="102"/>
+      <c r="P108" s="102"/>
+      <c r="Q108" s="102"/>
+      <c r="R108" s="127"/>
+      <c r="U108" s="57"/>
+      <c r="V108" s="57"/>
+      <c r="W108" s="57"/>
+      <c r="X108" s="59"/>
+      <c r="Y108" s="59"/>
+      <c r="Z108" s="59"/>
+      <c r="AA108" s="59"/>
+      <c r="AB108" s="60"/>
+      <c r="AC108" s="61"/>
+      <c r="AD108" s="61"/>
+      <c r="AE108" s="61"/>
+      <c r="AF108" s="61"/>
+      <c r="AG108" s="61"/>
+      <c r="AH108" s="102"/>
+      <c r="AI108" s="102"/>
+      <c r="AJ108" s="102"/>
+      <c r="AK108" s="127"/>
     </row>
-    <row r="109" spans="1:37" s="16" customFormat="1">
+    <row r="109" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="I109" s="47"/>
       <c r="U109" s="18"/>
     </row>
-    <row r="110" spans="1:37" s="16" customFormat="1">
+    <row r="110" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="20"/>
       <c r="I110" s="47"/>
       <c r="U110" s="18"/>
     </row>
-    <row r="111" spans="1:37" s="16" customFormat="1">
+    <row r="111" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="20"/>
       <c r="I111" s="47"/>
       <c r="U111" s="18"/>
     </row>
-    <row r="112" spans="1:37" s="16" customFormat="1">
+    <row r="112" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="I112" s="47"/>
       <c r="U112" s="18"/>
     </row>
-    <row r="113" spans="9:21" s="16" customFormat="1">
+    <row r="113" spans="9:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I113" s="33"/>
       <c r="U113" s="18"/>
     </row>
-    <row r="114" spans="9:21" s="16" customFormat="1">
+    <row r="114" spans="9:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I114" s="33"/>
       <c r="U114" s="18"/>
     </row>
-    <row r="115" spans="9:21" s="16" customFormat="1">
+    <row r="115" spans="9:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I115" s="33"/>
       <c r="U115" s="18"/>
     </row>
-    <row r="116" spans="9:21" s="16" customFormat="1">
+    <row r="116" spans="9:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I116" s="33"/>
       <c r="U116" s="18"/>
     </row>
-    <row r="117" spans="9:21" s="16" customFormat="1">
+    <row r="117" spans="9:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I117" s="33"/>
       <c r="U117" s="18"/>
     </row>
-    <row r="118" spans="9:21" s="16" customFormat="1">
+    <row r="118" spans="9:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I118" s="33"/>
       <c r="U118" s="18"/>
     </row>
-    <row r="119" spans="9:21" s="16" customFormat="1">
+    <row r="119" spans="9:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I119" s="33"/>
       <c r="U119" s="18"/>
     </row>
-    <row r="120" spans="9:21" s="16" customFormat="1">
+    <row r="120" spans="9:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I120" s="33"/>
       <c r="U120" s="18"/>
     </row>
-    <row r="121" spans="9:21" s="16" customFormat="1">
+    <row r="121" spans="9:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I121" s="33"/>
       <c r="U121" s="18"/>
     </row>
-    <row r="122" spans="9:21" s="16" customFormat="1">
+    <row r="122" spans="9:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I122" s="33"/>
       <c r="U122" s="18"/>
     </row>
-    <row r="123" spans="9:21" s="16" customFormat="1">
+    <row r="123" spans="9:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I123" s="33"/>
       <c r="U123" s="18"/>
     </row>
-    <row r="124" spans="9:21" s="16" customFormat="1">
+    <row r="124" spans="9:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I124" s="33"/>
       <c r="U124" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A77:A104"/>
-    <mergeCell ref="T5:T31"/>
-    <mergeCell ref="T36:T72"/>
-    <mergeCell ref="T77:T104"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="I75:K75"/>
-    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE33:AG33"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AB74:AD74"/>
     <mergeCell ref="AE74:AG74"/>
     <mergeCell ref="AB75:AD75"/>
@@ -13186,242 +14901,274 @@
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="AE34:AG34"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE33:AG33"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A77:A104"/>
+    <mergeCell ref="T5:T31"/>
+    <mergeCell ref="T36:T72"/>
+    <mergeCell ref="T77:T104"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="I75:K75"/>
+    <mergeCell ref="L75:N75"/>
   </mergeCells>
   <conditionalFormatting sqref="AB77:AJ85 I77:Q77 N51:Q51 I80:Q80 I82:Q85 I87:Q99 I102:Q104 AB5:AJ15 I5:Q32 I51:L51 I49:Q50 I36:Q47 I52:Q73 AB36:AJ72">
-    <cfRule type="containsText" dxfId="165" priority="761" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="217" priority="771" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="762" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="216" priority="772" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB77:AJ85 I77:Q77 N51:Q51 I80:Q80 I82:Q85 I87:Q99 I102:Q104 AB5:AJ15 I5:Q32 I51:L51 I49:Q50 I36:Q47 I52:Q73 AB36:AJ72">
-    <cfRule type="cellIs" dxfId="163" priority="758" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="768" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="759" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="769" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="760" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="213" priority="770" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51">
-    <cfRule type="containsText" dxfId="160" priority="531" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="212" priority="541" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",M51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51">
-    <cfRule type="cellIs" dxfId="159" priority="530" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="211" priority="540" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16:AJ31">
-    <cfRule type="containsText" dxfId="158" priority="276" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="210" priority="286" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",AB16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="277" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="209" priority="287" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",AB16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16:AJ31">
-    <cfRule type="cellIs" dxfId="156" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="283" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="284" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="275" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="285" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB86:AJ104">
-    <cfRule type="containsText" dxfId="153" priority="253" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="205" priority="263" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",AB86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="254" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="204" priority="264" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",AB86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB86:AJ104">
-    <cfRule type="cellIs" dxfId="151" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="260" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="261" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="252" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="262" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36 A77">
-    <cfRule type="containsText" dxfId="148" priority="40" operator="containsText" text="Bud">
+    <cfRule type="containsText" dxfId="200" priority="50" operator="containsText" text="Bud">
       <formula>NOT(ISERROR(SEARCH("Bud",A36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="41" operator="containsText" text="Blue">
+    <cfRule type="containsText" dxfId="199" priority="51" operator="containsText" text="Blue">
       <formula>NOT(ISERROR(SEARCH("Blue",A36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78:Q78">
-    <cfRule type="containsText" dxfId="146" priority="38" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="198" priority="48" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="39" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="197" priority="49" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78:Q78">
-    <cfRule type="cellIs" dxfId="144" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="45" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="46" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="47" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79:Q79">
-    <cfRule type="containsText" dxfId="141" priority="33" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="193" priority="43" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="34" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="192" priority="44" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79:Q79">
-    <cfRule type="cellIs" dxfId="139" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="40" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="41" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81:Q81">
-    <cfRule type="containsText" dxfId="136" priority="28" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="188" priority="38" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="29" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="187" priority="39" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81:Q81">
-    <cfRule type="cellIs" dxfId="134" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="35" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="36" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86:Q86">
-    <cfRule type="containsText" dxfId="131" priority="23" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="183" priority="33" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="24" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="182" priority="34" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86:Q86">
-    <cfRule type="cellIs" dxfId="129" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="31" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100:Q100">
-    <cfRule type="containsText" dxfId="126" priority="18" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="178" priority="28" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="19" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="177" priority="29" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100:Q100">
-    <cfRule type="cellIs" dxfId="124" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="25" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101:Q101">
-    <cfRule type="containsText" dxfId="121" priority="13" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="173" priority="23" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="14" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="172" priority="24" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101:Q101">
-    <cfRule type="cellIs" dxfId="119" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="20" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T77">
-    <cfRule type="containsText" dxfId="116" priority="8" operator="containsText" text="Bud">
+    <cfRule type="containsText" dxfId="168" priority="18" operator="containsText" text="Bud">
       <formula>NOT(ISERROR(SEARCH("Bud",T77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="9" operator="containsText" text="Blue">
+    <cfRule type="containsText" dxfId="167" priority="19" operator="containsText" text="Blue">
       <formula>NOT(ISERROR(SEARCH("Blue",T77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T36">
-    <cfRule type="containsText" dxfId="114" priority="6" operator="containsText" text="Bud">
+    <cfRule type="containsText" dxfId="166" priority="16" operator="containsText" text="Bud">
       <formula>NOT(ISERROR(SEARCH("Bud",T36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="Blue">
+    <cfRule type="containsText" dxfId="165" priority="17" operator="containsText" text="Blue">
       <formula>NOT(ISERROR(SEARCH("Blue",T36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:Q48">
-    <cfRule type="containsText" dxfId="112" priority="4" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="164" priority="14" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="5" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="163" priority="15" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:Q48">
-    <cfRule type="cellIs" dxfId="110" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="11" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I108:Q108">
+    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",I108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="n">
+      <formula>NOT(ISERROR(SEARCH("n",I108)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I108:Q108">
+    <cfRule type="cellIs" dxfId="49" priority="6" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB108:AJ108">
+    <cfRule type="containsText" dxfId="46" priority="4" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",AB108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="n">
+      <formula>NOT(ISERROR(SEARCH("n",AB108)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB108:AJ108">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13431,13 +15178,15 @@
     <brk id="32" max="16383" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
-  <tableParts count="6">
+  <tableParts count="8">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Wknd_Sched_Builder/sep24_Poll.xlsx
+++ b/Wknd_Sched_Builder/sep24_Poll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4A139E-AEE8-4ADD-B0E0-7E05017E39C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476B4712-125B-4E9A-9C1A-9841952DCCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="816" windowWidth="12432" windowHeight="11004" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30630" yWindow="1830" windowWidth="21600" windowHeight="11235" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1629,11 +1629,42 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -1653,42 +1684,11 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1696,6 +1696,679 @@
     <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="218">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1749,13 +2422,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1781,11 +2467,9 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right/>
         <top style="medium">
           <color indexed="64"/>
@@ -1893,7 +2577,9 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="medium">
           <color indexed="64"/>
@@ -2081,44 +2767,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -2393,16 +3041,41 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
       </border>
     </dxf>
     <dxf>
@@ -2440,749 +3113,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6883,6 +6813,76 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF00B0F0"/>
       </font>
@@ -7255,208 +7255,208 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1093B8D4-B799-4290-AD8C-1329DDADF426}" name="tbl_RockFT" displayName="tbl_RockFT" ref="B4:R29" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158" tableBorderDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1093B8D4-B799-4290-AD8C-1329DDADF426}" name="tbl_RockFT" displayName="tbl_RockFT" ref="B4:R29" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148" tableBorderDxfId="147">
   <autoFilter ref="B4:R29" xr:uid="{1093B8D4-B799-4290-AD8C-1329DDADF426}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{BA1864AE-C2A0-48D5-AE42-F77764DCB84A}" name="Emp. #" dataDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{7EEE966B-DC6E-4CE2-A36F-146B0BBD0DE6}" name="Last Name" dataDxfId="155"/>
-    <tableColumn id="3" xr3:uid="{2094CABA-D4CD-4268-BDAD-604262C1E841}" name="First Name" dataDxfId="154"/>
-    <tableColumn id="4" xr3:uid="{0954B359-B8F3-4F1D-A99A-6993E8A50A6B}" name="Hrs" dataDxfId="153"/>
-    <tableColumn id="5" xr3:uid="{A6EE6DED-00DE-44F1-BAC4-E17B4A275DFD}" name="Column1" dataDxfId="152"/>
-    <tableColumn id="6" xr3:uid="{E9542A23-23BE-4355-869E-DCC570D0C910}" name="Column2" dataDxfId="151"/>
-    <tableColumn id="7" xr3:uid="{8C1B1079-C13C-4042-B85E-0A7E92B3BCB6}" name="Column3" dataDxfId="150"/>
-    <tableColumn id="8" xr3:uid="{D4A3DB51-FB85-4DB8-9B39-21819AF73B1B}" name="C" dataDxfId="149"/>
-    <tableColumn id="9" xr3:uid="{BC937D23-8383-44DC-A449-609611E13E03}" name="A" dataDxfId="148"/>
-    <tableColumn id="10" xr3:uid="{CAE5F924-37C5-409C-A89F-7C8AD2AF5E95}" name="B" dataDxfId="147"/>
-    <tableColumn id="11" xr3:uid="{6E6983A7-C35E-4B56-8910-30BCC7972964}" name="C2" dataDxfId="146"/>
-    <tableColumn id="12" xr3:uid="{4F8A33E2-7FFD-49CA-9EA5-4845FE69FD1E}" name="A3" dataDxfId="145"/>
-    <tableColumn id="13" xr3:uid="{E0A6AA6F-D008-4DEE-98CF-0F36411EDFEB}" name="4 Early" dataDxfId="144"/>
-    <tableColumn id="14" xr3:uid="{C25C774D-9861-4EBC-80DA-B7E8449F156A}" name="Column4" dataDxfId="143"/>
-    <tableColumn id="15" xr3:uid="{ED76B154-87B5-4272-804F-A323E45883FA}" name="Column5" dataDxfId="142"/>
-    <tableColumn id="16" xr3:uid="{A1ED1DC8-37BE-419A-AF9C-EE982EF742B5}" name="Column6" dataDxfId="141"/>
-    <tableColumn id="17" xr3:uid="{F9478E4B-FF4D-44CC-B2CD-5F140D6D5487}" name="Comments" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{BA1864AE-C2A0-48D5-AE42-F77764DCB84A}" name="Emp. #" dataDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{7EEE966B-DC6E-4CE2-A36F-146B0BBD0DE6}" name="Last Name" dataDxfId="145"/>
+    <tableColumn id="3" xr3:uid="{2094CABA-D4CD-4268-BDAD-604262C1E841}" name="First Name" dataDxfId="144"/>
+    <tableColumn id="4" xr3:uid="{0954B359-B8F3-4F1D-A99A-6993E8A50A6B}" name="Hrs" dataDxfId="143"/>
+    <tableColumn id="5" xr3:uid="{A6EE6DED-00DE-44F1-BAC4-E17B4A275DFD}" name="Column1" dataDxfId="142"/>
+    <tableColumn id="6" xr3:uid="{E9542A23-23BE-4355-869E-DCC570D0C910}" name="Column2" dataDxfId="141"/>
+    <tableColumn id="7" xr3:uid="{8C1B1079-C13C-4042-B85E-0A7E92B3BCB6}" name="Column3" dataDxfId="140"/>
+    <tableColumn id="8" xr3:uid="{D4A3DB51-FB85-4DB8-9B39-21819AF73B1B}" name="C" dataDxfId="139"/>
+    <tableColumn id="9" xr3:uid="{BC937D23-8383-44DC-A449-609611E13E03}" name="A" dataDxfId="138"/>
+    <tableColumn id="10" xr3:uid="{CAE5F924-37C5-409C-A89F-7C8AD2AF5E95}" name="B" dataDxfId="137"/>
+    <tableColumn id="11" xr3:uid="{6E6983A7-C35E-4B56-8910-30BCC7972964}" name="C2" dataDxfId="136"/>
+    <tableColumn id="12" xr3:uid="{4F8A33E2-7FFD-49CA-9EA5-4845FE69FD1E}" name="A3" dataDxfId="135"/>
+    <tableColumn id="13" xr3:uid="{E0A6AA6F-D008-4DEE-98CF-0F36411EDFEB}" name="4 Early" dataDxfId="134"/>
+    <tableColumn id="14" xr3:uid="{C25C774D-9861-4EBC-80DA-B7E8449F156A}" name="Column4" dataDxfId="133"/>
+    <tableColumn id="15" xr3:uid="{ED76B154-87B5-4272-804F-A323E45883FA}" name="Column5" dataDxfId="132"/>
+    <tableColumn id="16" xr3:uid="{A1ED1DC8-37BE-419A-AF9C-EE982EF742B5}" name="Column6" dataDxfId="131"/>
+    <tableColumn id="17" xr3:uid="{F9478E4B-FF4D-44CC-B2CD-5F140D6D5487}" name="Comments" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05509EE2-F952-4D28-8F20-65DAFE98E7A6}" name="tbl_RockTemp" displayName="tbl_RockTemp" ref="U4:AK18" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138" tableBorderDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05509EE2-F952-4D28-8F20-65DAFE98E7A6}" name="tbl_RockTemp" displayName="tbl_RockTemp" ref="U4:AK18" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128" tableBorderDxfId="127">
   <autoFilter ref="U4:AK18" xr:uid="{05509EE2-F952-4D28-8F20-65DAFE98E7A6}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{41AD93EF-B4C5-4845-BA73-8003BBC42F98}" name="Emp. #" dataDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{9C4A0C98-6C70-4DC7-9559-3C115F748AA8}" name="Last Name" dataDxfId="135"/>
-    <tableColumn id="3" xr3:uid="{A4542631-F7AA-4642-A63B-56D148851477}" name="First Name" dataDxfId="134"/>
+    <tableColumn id="1" xr3:uid="{41AD93EF-B4C5-4845-BA73-8003BBC42F98}" name="Emp. #" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{9C4A0C98-6C70-4DC7-9559-3C115F748AA8}" name="Last Name" dataDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{A4542631-F7AA-4642-A63B-56D148851477}" name="First Name" dataDxfId="124"/>
     <tableColumn id="4" xr3:uid="{F3F6545F-1A73-458E-8ABC-55B8FA0DFDFD}" name="Hrs"/>
     <tableColumn id="5" xr3:uid="{CB4E8EE9-8955-48A4-9B7C-6AEACCB292AB}" name="Column1"/>
     <tableColumn id="6" xr3:uid="{0AF8A7BD-2E42-4C2B-A052-BB18112E2502}" name="Column2"/>
     <tableColumn id="7" xr3:uid="{FE01951D-3931-4762-A912-DC859A7B3D04}" name="Column3"/>
-    <tableColumn id="8" xr3:uid="{2685E31C-5FF3-4C1A-96B4-89915579487C}" name="C" dataDxfId="133"/>
-    <tableColumn id="9" xr3:uid="{E5B0D406-3946-43F9-8FF8-86B5120115D2}" name="A" dataDxfId="132"/>
-    <tableColumn id="10" xr3:uid="{25E9A68C-94F5-4A2D-89CA-D3D056E85387}" name="B" dataDxfId="131"/>
-    <tableColumn id="11" xr3:uid="{710D9805-5863-473E-AAD7-C3997536B567}" name="C2" dataDxfId="130"/>
-    <tableColumn id="12" xr3:uid="{A8183D85-6559-4609-AD47-CC871F1CD172}" name="A3" dataDxfId="129"/>
-    <tableColumn id="13" xr3:uid="{25FAC867-265D-4A5B-BC2A-BCE0EAAA4E1C}" name="4 Early" dataDxfId="128"/>
-    <tableColumn id="14" xr3:uid="{FD38FAA8-3067-4959-8CF7-34119060BFF4}" name="Column4" dataDxfId="127"/>
-    <tableColumn id="15" xr3:uid="{FA1DA1A1-A0A0-401D-9B00-F510A592FA7D}" name="Column5" dataDxfId="126"/>
-    <tableColumn id="16" xr3:uid="{5F7E3AB1-0B19-44CA-8219-510386940977}" name="Column6" dataDxfId="125"/>
-    <tableColumn id="17" xr3:uid="{909D051E-65D9-4D2E-8722-212B75EBC7A6}" name="Comments" dataDxfId="124"/>
+    <tableColumn id="8" xr3:uid="{2685E31C-5FF3-4C1A-96B4-89915579487C}" name="C" dataDxfId="123"/>
+    <tableColumn id="9" xr3:uid="{E5B0D406-3946-43F9-8FF8-86B5120115D2}" name="A" dataDxfId="122"/>
+    <tableColumn id="10" xr3:uid="{25E9A68C-94F5-4A2D-89CA-D3D056E85387}" name="B" dataDxfId="121"/>
+    <tableColumn id="11" xr3:uid="{710D9805-5863-473E-AAD7-C3997536B567}" name="C2" dataDxfId="120"/>
+    <tableColumn id="12" xr3:uid="{A8183D85-6559-4609-AD47-CC871F1CD172}" name="A3" dataDxfId="119"/>
+    <tableColumn id="13" xr3:uid="{25FAC867-265D-4A5B-BC2A-BCE0EAAA4E1C}" name="4 Early" dataDxfId="118"/>
+    <tableColumn id="14" xr3:uid="{FD38FAA8-3067-4959-8CF7-34119060BFF4}" name="Column4" dataDxfId="117"/>
+    <tableColumn id="15" xr3:uid="{FA1DA1A1-A0A0-401D-9B00-F510A592FA7D}" name="Column5" dataDxfId="116"/>
+    <tableColumn id="16" xr3:uid="{5F7E3AB1-0B19-44CA-8219-510386940977}" name="Column6" dataDxfId="115"/>
+    <tableColumn id="17" xr3:uid="{909D051E-65D9-4D2E-8722-212B75EBC7A6}" name="Comments" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2CE58FE2-702C-4BEC-B684-CBBE535BC2BB}" name="tbl_BudFT" displayName="tbl_BudFT" ref="B35:R64" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122" tableBorderDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2CE58FE2-702C-4BEC-B684-CBBE535BC2BB}" name="tbl_BudFT" displayName="tbl_BudFT" ref="B35:R64" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112" tableBorderDxfId="111">
   <autoFilter ref="B35:R64" xr:uid="{2CE58FE2-702C-4BEC-B684-CBBE535BC2BB}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{CEC73D08-3C3F-4FDD-9525-8D20C1E401DE}" name="Emp. #"/>
     <tableColumn id="2" xr3:uid="{C18288D2-C462-4A63-BF78-C473CDCB15EB}" name="Last Name"/>
     <tableColumn id="3" xr3:uid="{08A773F5-EA18-4A8D-87A6-9E10868297FB}" name="First Name"/>
-    <tableColumn id="4" xr3:uid="{4F4E7EA5-B275-406A-B430-128EA0CBDF8A}" name="Hrs" dataDxfId="120"/>
-    <tableColumn id="5" xr3:uid="{BC3DCE3A-8ECA-4CE0-8623-1804289ABDAE}" name="Column1" dataDxfId="119"/>
-    <tableColumn id="6" xr3:uid="{9D51CAF8-E45D-4EF7-9336-D6DE89F157F8}" name="Column2" dataDxfId="118"/>
-    <tableColumn id="7" xr3:uid="{A5784D52-B8FA-453D-A8CB-B0B4A22A7AB3}" name="Column3" dataDxfId="117"/>
-    <tableColumn id="8" xr3:uid="{5C06C926-13B3-4C58-B19F-A15F38CD256E}" name="C" dataDxfId="116"/>
-    <tableColumn id="9" xr3:uid="{06D93D1D-D3F3-44FF-A667-FD0CC31F8027}" name="A" dataDxfId="115"/>
-    <tableColumn id="10" xr3:uid="{80707AD4-1F5E-429D-936E-3E49B83C29C0}" name="B" dataDxfId="114"/>
-    <tableColumn id="11" xr3:uid="{0A34AA7E-0C86-44A5-AB59-0C536768E667}" name="C2" dataDxfId="113"/>
-    <tableColumn id="12" xr3:uid="{BA3D64B6-2B07-49EB-B62A-BA2F0DAC82F0}" name="A3" dataDxfId="112"/>
-    <tableColumn id="13" xr3:uid="{C54E8611-D70A-4A76-B9C3-A2461042E2FF}" name="B4" dataDxfId="111"/>
-    <tableColumn id="14" xr3:uid="{3DD928F2-B934-4883-956B-B0364560360A}" name="Column4" dataDxfId="110"/>
-    <tableColumn id="15" xr3:uid="{21141E54-EAA3-4C60-A38E-7022CECD833C}" name="Column5" dataDxfId="109"/>
-    <tableColumn id="16" xr3:uid="{EBED4FD3-8F0B-4183-921D-58F0D4EDFD64}" name="Column6" dataDxfId="108"/>
-    <tableColumn id="17" xr3:uid="{879E2F1D-1EA2-4B8D-B9F7-2F8779B4E3BA}" name="Comments" dataDxfId="107"/>
+    <tableColumn id="4" xr3:uid="{4F4E7EA5-B275-406A-B430-128EA0CBDF8A}" name="Hrs" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{BC3DCE3A-8ECA-4CE0-8623-1804289ABDAE}" name="Column1" dataDxfId="109"/>
+    <tableColumn id="6" xr3:uid="{9D51CAF8-E45D-4EF7-9336-D6DE89F157F8}" name="Column2" dataDxfId="108"/>
+    <tableColumn id="7" xr3:uid="{A5784D52-B8FA-453D-A8CB-B0B4A22A7AB3}" name="Column3" dataDxfId="107"/>
+    <tableColumn id="8" xr3:uid="{5C06C926-13B3-4C58-B19F-A15F38CD256E}" name="C" dataDxfId="106"/>
+    <tableColumn id="9" xr3:uid="{06D93D1D-D3F3-44FF-A667-FD0CC31F8027}" name="A" dataDxfId="105"/>
+    <tableColumn id="10" xr3:uid="{80707AD4-1F5E-429D-936E-3E49B83C29C0}" name="B" dataDxfId="104"/>
+    <tableColumn id="11" xr3:uid="{0A34AA7E-0C86-44A5-AB59-0C536768E667}" name="C2" dataDxfId="103"/>
+    <tableColumn id="12" xr3:uid="{BA3D64B6-2B07-49EB-B62A-BA2F0DAC82F0}" name="A3" dataDxfId="102"/>
+    <tableColumn id="13" xr3:uid="{C54E8611-D70A-4A76-B9C3-A2461042E2FF}" name="B4" dataDxfId="101"/>
+    <tableColumn id="14" xr3:uid="{3DD928F2-B934-4883-956B-B0364560360A}" name="Column4" dataDxfId="100"/>
+    <tableColumn id="15" xr3:uid="{21141E54-EAA3-4C60-A38E-7022CECD833C}" name="Column5" dataDxfId="99"/>
+    <tableColumn id="16" xr3:uid="{EBED4FD3-8F0B-4183-921D-58F0D4EDFD64}" name="Column6" dataDxfId="98"/>
+    <tableColumn id="17" xr3:uid="{879E2F1D-1EA2-4B8D-B9F7-2F8779B4E3BA}" name="Comments" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{10FE810C-33AC-4A8E-8B0A-03D208AE7A0A}" name="tbl_BudTemp" displayName="tbl_BudTemp" ref="U35:AK53" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105" tableBorderDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{10FE810C-33AC-4A8E-8B0A-03D208AE7A0A}" name="tbl_BudTemp" displayName="tbl_BudTemp" ref="U35:AK53" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95" tableBorderDxfId="94">
   <autoFilter ref="U35:AK53" xr:uid="{10FE810C-33AC-4A8E-8B0A-03D208AE7A0A}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{5F30F3A7-1AFA-4E43-B230-A1498169ADB7}" name="Emp. #" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{EED0AB13-EDCB-4629-9CBF-5E64B18F91AD}" name="Last Name" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{CF91FD8D-36DB-44F0-A523-450010D1C7D0}" name="First Name" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{B801B3BC-5C8F-4355-A75F-11F8A82B09E4}" name="Hrs" dataDxfId="100" dataCellStyle="Normal 4"/>
-    <tableColumn id="5" xr3:uid="{D922E265-AB16-40C4-BF82-54853FE850B5}" name="Column1" dataDxfId="99" dataCellStyle="Normal 4"/>
-    <tableColumn id="6" xr3:uid="{D121E1D4-239F-4767-B2B6-2808CEA377CA}" name="Column2" dataDxfId="98" dataCellStyle="Normal 4"/>
-    <tableColumn id="7" xr3:uid="{ED791D27-A7B5-43CC-A3A4-EF02F4EB1DF1}" name="Column3" dataDxfId="97" dataCellStyle="Normal 4"/>
-    <tableColumn id="8" xr3:uid="{9B2E7E45-7C0C-488C-8799-4A28F4285571}" name="C" dataDxfId="96"/>
-    <tableColumn id="9" xr3:uid="{7C94C0D0-86CE-4109-9193-A9B494466B13}" name="A" dataDxfId="95"/>
-    <tableColumn id="10" xr3:uid="{BB9073AD-9E85-4ACE-9AA1-46DC19BA696E}" name="B" dataDxfId="94"/>
-    <tableColumn id="11" xr3:uid="{45A514D7-AC55-4078-B5F7-9AE0BDEC780A}" name="C2" dataDxfId="93"/>
-    <tableColumn id="12" xr3:uid="{EE56A808-0FF3-472D-A974-3A3FB9E753D4}" name="A3" dataDxfId="92"/>
-    <tableColumn id="13" xr3:uid="{D345A755-D786-42B1-A35E-DAE7170E85DC}" name="B4" dataDxfId="91"/>
-    <tableColumn id="14" xr3:uid="{1BC70812-3559-408B-88F4-3A87038BEE0A}" name="Column4" dataDxfId="90"/>
-    <tableColumn id="15" xr3:uid="{4DA755ED-C33F-4CAA-B90B-ECC20C789B4E}" name="Column5" dataDxfId="89"/>
-    <tableColumn id="16" xr3:uid="{1CFBD190-98AE-4A2B-979D-028C7FB2A941}" name="Column6" dataDxfId="88"/>
-    <tableColumn id="17" xr3:uid="{F4AB42A9-7B64-4AE7-A81E-639913EC9ED9}" name="Comments" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{5F30F3A7-1AFA-4E43-B230-A1498169ADB7}" name="Emp. #" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{EED0AB13-EDCB-4629-9CBF-5E64B18F91AD}" name="Last Name" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{CF91FD8D-36DB-44F0-A523-450010D1C7D0}" name="First Name" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{B801B3BC-5C8F-4355-A75F-11F8A82B09E4}" name="Hrs" dataDxfId="90" dataCellStyle="Normal 4"/>
+    <tableColumn id="5" xr3:uid="{D922E265-AB16-40C4-BF82-54853FE850B5}" name="Column1" dataDxfId="89" dataCellStyle="Normal 4"/>
+    <tableColumn id="6" xr3:uid="{D121E1D4-239F-4767-B2B6-2808CEA377CA}" name="Column2" dataDxfId="88" dataCellStyle="Normal 4"/>
+    <tableColumn id="7" xr3:uid="{ED791D27-A7B5-43CC-A3A4-EF02F4EB1DF1}" name="Column3" dataDxfId="87" dataCellStyle="Normal 4"/>
+    <tableColumn id="8" xr3:uid="{9B2E7E45-7C0C-488C-8799-4A28F4285571}" name="C" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{7C94C0D0-86CE-4109-9193-A9B494466B13}" name="A" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{BB9073AD-9E85-4ACE-9AA1-46DC19BA696E}" name="B" dataDxfId="84"/>
+    <tableColumn id="11" xr3:uid="{45A514D7-AC55-4078-B5F7-9AE0BDEC780A}" name="C2" dataDxfId="83"/>
+    <tableColumn id="12" xr3:uid="{EE56A808-0FF3-472D-A974-3A3FB9E753D4}" name="A3" dataDxfId="82"/>
+    <tableColumn id="13" xr3:uid="{D345A755-D786-42B1-A35E-DAE7170E85DC}" name="B4" dataDxfId="81"/>
+    <tableColumn id="14" xr3:uid="{1BC70812-3559-408B-88F4-3A87038BEE0A}" name="Column4" dataDxfId="80"/>
+    <tableColumn id="15" xr3:uid="{4DA755ED-C33F-4CAA-B90B-ECC20C789B4E}" name="Column5" dataDxfId="79"/>
+    <tableColumn id="16" xr3:uid="{1CFBD190-98AE-4A2B-979D-028C7FB2A941}" name="Column6" dataDxfId="78"/>
+    <tableColumn id="17" xr3:uid="{F4AB42A9-7B64-4AE7-A81E-639913EC9ED9}" name="Comments" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{18DB5BEF-D85C-4FDC-86E3-7E1141F1E321}" name="tbl_BlueFT" displayName="tbl_BlueFT" ref="B76:R104" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{18DB5BEF-D85C-4FDC-86E3-7E1141F1E321}" name="tbl_BlueFT" displayName="tbl_BlueFT" ref="B76:R104" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="B76:R104" xr:uid="{18DB5BEF-D85C-4FDC-86E3-7E1141F1E321}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{E04C8957-8514-4E39-AA7D-8A41A5B99D5F}" name="Emp. #"/>
     <tableColumn id="2" xr3:uid="{AE26A459-4CDE-431B-8FE5-993A41F7E91A}" name="Last Name"/>
     <tableColumn id="3" xr3:uid="{DF11D180-FB9D-47A4-896E-DBC8D1519C5C}" name="First Name"/>
-    <tableColumn id="4" xr3:uid="{F949A777-375A-4598-BE9A-458506F31F13}" name="Hrs" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{A1A87FD7-0540-40AB-B0B4-5B13A0CC71C7}" name="Column1" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{8097FA3A-866E-4BEB-9C11-474FA411B48A}" name="Column2" dataDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{8BC6B2AF-DBBB-40C1-9A9D-4CB768219BA0}" name="Column3" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{E3571DEC-5D7F-48F9-9B59-FF1D191F9FC2}" name="4 Over" dataDxfId="80"/>
-    <tableColumn id="9" xr3:uid="{7436F8E1-683A-4643-B750-1BC3197741B4}" name="A" dataDxfId="79"/>
-    <tableColumn id="10" xr3:uid="{16A82794-C09A-4893-A6A5-8304A9EF3A20}" name="B" dataDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{0103AB36-BF82-458E-87E4-262B43364DDE}" name="C" dataDxfId="77"/>
-    <tableColumn id="12" xr3:uid="{47344C76-269E-40EE-8FB4-F9E7B6DCA91E}" name="A2" dataDxfId="76"/>
-    <tableColumn id="13" xr3:uid="{313B3F35-4472-4426-A69F-70346137925D}" name="B3" dataDxfId="75"/>
-    <tableColumn id="14" xr3:uid="{8DC3C937-A24C-4EF0-B11A-0E122C8C151D}" name="Column4" dataDxfId="74"/>
-    <tableColumn id="15" xr3:uid="{65AB7C87-5F38-4201-B2A9-D8D634956B96}" name="Column5" dataDxfId="73"/>
-    <tableColumn id="16" xr3:uid="{082E0C44-9444-4AAF-B6B0-82B16BF27C45}" name="Column6" dataDxfId="72"/>
-    <tableColumn id="17" xr3:uid="{D03D0A65-C856-456D-A6F5-F039FC090FFF}" name="Comments" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{F949A777-375A-4598-BE9A-458506F31F13}" name="Hrs" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{A1A87FD7-0540-40AB-B0B4-5B13A0CC71C7}" name="Column1" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{8097FA3A-866E-4BEB-9C11-474FA411B48A}" name="Column2" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{8BC6B2AF-DBBB-40C1-9A9D-4CB768219BA0}" name="Column3" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{E3571DEC-5D7F-48F9-9B59-FF1D191F9FC2}" name="4 Over" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{7436F8E1-683A-4643-B750-1BC3197741B4}" name="A" dataDxfId="69"/>
+    <tableColumn id="10" xr3:uid="{16A82794-C09A-4893-A6A5-8304A9EF3A20}" name="B" dataDxfId="68"/>
+    <tableColumn id="11" xr3:uid="{0103AB36-BF82-458E-87E4-262B43364DDE}" name="C" dataDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{47344C76-269E-40EE-8FB4-F9E7B6DCA91E}" name="A2" dataDxfId="66"/>
+    <tableColumn id="13" xr3:uid="{313B3F35-4472-4426-A69F-70346137925D}" name="B3" dataDxfId="65"/>
+    <tableColumn id="14" xr3:uid="{8DC3C937-A24C-4EF0-B11A-0E122C8C151D}" name="Column4" dataDxfId="64"/>
+    <tableColumn id="15" xr3:uid="{65AB7C87-5F38-4201-B2A9-D8D634956B96}" name="Column5" dataDxfId="63"/>
+    <tableColumn id="16" xr3:uid="{082E0C44-9444-4AAF-B6B0-82B16BF27C45}" name="Column6" dataDxfId="62"/>
+    <tableColumn id="17" xr3:uid="{D03D0A65-C856-456D-A6F5-F039FC090FFF}" name="Comments" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{01BB2385-47BA-4EEA-9022-426FEC11B8B3}" name="tbl_BlueTemp" displayName="tbl_BlueTemp" ref="U76:AK91" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" tableBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{01BB2385-47BA-4EEA-9022-426FEC11B8B3}" name="tbl_BlueTemp" displayName="tbl_BlueTemp" ref="U76:AK91" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="U76:AK91" xr:uid="{01BB2385-47BA-4EEA-9022-426FEC11B8B3}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{EAE43D7F-0E40-494B-AB6F-17B039A735DF}" name="Emp. #"/>
-    <tableColumn id="2" xr3:uid="{2D024453-744F-4BE0-BB64-BB4078864DAE}" name="Last Name" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{E3653937-4971-42FB-82F5-C4E3FEE515FC}" name="First Name" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{1B5B732A-4645-4CC5-92E4-3D454B9520DA}" name="Hrs" dataDxfId="65" dataCellStyle="Normal 4"/>
-    <tableColumn id="5" xr3:uid="{81347E7C-3621-481A-A47A-084778CCBFB6}" name="Column1" dataDxfId="64" dataCellStyle="Normal 4"/>
-    <tableColumn id="6" xr3:uid="{4C7660B0-54E3-43A3-ABDA-4CBAE62FDDE1}" name="Column2" dataDxfId="63" dataCellStyle="Normal 4"/>
-    <tableColumn id="7" xr3:uid="{64A311EE-D8F9-4BA5-A4CB-0523EA1AF052}" name="Column3" dataDxfId="62" dataCellStyle="Normal 4"/>
-    <tableColumn id="8" xr3:uid="{C53EB71A-3EA3-4BE3-9466-442B2AA57234}" name="4 Over" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{B8AE8687-89B2-4D0E-90B6-8CD0979FB35F}" name="A" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{8B47FD3D-055F-4CB2-8DCF-77B46D13BBC4}" name="B" dataDxfId="59"/>
-    <tableColumn id="11" xr3:uid="{CA8398AD-5A40-4D34-ACE1-967B4A839BFC}" name="C" dataDxfId="58"/>
-    <tableColumn id="12" xr3:uid="{15D74F02-F3CB-4B51-B466-AF095F6CD064}" name="A2" dataDxfId="57"/>
-    <tableColumn id="13" xr3:uid="{474D785C-CE35-41A8-87EB-18C58E970D63}" name="B3" dataDxfId="56"/>
-    <tableColumn id="14" xr3:uid="{40A90F2D-B604-4AEE-8E52-BCFF0FA78BDA}" name="Column4" dataDxfId="55"/>
-    <tableColumn id="15" xr3:uid="{81E2147B-4A5D-4C0F-81A1-2A8D7BE603F6}" name="Column5" dataDxfId="54"/>
-    <tableColumn id="16" xr3:uid="{9B72489E-08C8-4454-A4DB-96770A3C117C}" name="Column6" dataDxfId="53"/>
-    <tableColumn id="17" xr3:uid="{35C2279F-1A12-4840-A867-D99EE2F945D5}" name="Comments" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{2D024453-744F-4BE0-BB64-BB4078864DAE}" name="Last Name" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{E3653937-4971-42FB-82F5-C4E3FEE515FC}" name="First Name" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{1B5B732A-4645-4CC5-92E4-3D454B9520DA}" name="Hrs" dataDxfId="55" dataCellStyle="Normal 4"/>
+    <tableColumn id="5" xr3:uid="{81347E7C-3621-481A-A47A-084778CCBFB6}" name="Column1" dataDxfId="54" dataCellStyle="Normal 4"/>
+    <tableColumn id="6" xr3:uid="{4C7660B0-54E3-43A3-ABDA-4CBAE62FDDE1}" name="Column2" dataDxfId="53" dataCellStyle="Normal 4"/>
+    <tableColumn id="7" xr3:uid="{64A311EE-D8F9-4BA5-A4CB-0523EA1AF052}" name="Column3" dataDxfId="52" dataCellStyle="Normal 4"/>
+    <tableColumn id="8" xr3:uid="{C53EB71A-3EA3-4BE3-9466-442B2AA57234}" name="4 Over" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{B8AE8687-89B2-4D0E-90B6-8CD0979FB35F}" name="A" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{8B47FD3D-055F-4CB2-8DCF-77B46D13BBC4}" name="B" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{CA8398AD-5A40-4D34-ACE1-967B4A839BFC}" name="C" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{15D74F02-F3CB-4B51-B466-AF095F6CD064}" name="A2" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{474D785C-CE35-41A8-87EB-18C58E970D63}" name="B3" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{40A90F2D-B604-4AEE-8E52-BCFF0FA78BDA}" name="Column4" dataDxfId="45"/>
+    <tableColumn id="15" xr3:uid="{81E2147B-4A5D-4C0F-81A1-2A8D7BE603F6}" name="Column5" dataDxfId="44"/>
+    <tableColumn id="16" xr3:uid="{9B72489E-08C8-4454-A4DB-96770A3C117C}" name="Column6" dataDxfId="43"/>
+    <tableColumn id="17" xr3:uid="{35C2279F-1A12-4840-A867-D99EE2F945D5}" name="Comments" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BD05803C-7E46-4961-9ACA-B6792BABF2F1}" name="tbl_wFT" displayName="tbl_wFT" ref="B107:R108" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22" headerRowBorderDxfId="40" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BD05803C-7E46-4961-9ACA-B6792BABF2F1}" name="tbl_wFT" displayName="tbl_wFT" ref="B107:R108" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="B107:R108" xr:uid="{BD05803C-7E46-4961-9ACA-B6792BABF2F1}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{268D565B-E9A0-440B-A61D-FAC0C7D5680B}" name="Emp. #" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{F90CCBC7-00B4-4199-8463-CE70ACA9BB51}" name="Last Name" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{C91B27B2-C444-4092-8469-7AF1F85F9897}" name="First Name" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{B4B925E9-F53D-4057-A3EC-B375EEBAAB27}" name="Hrs" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{F292AA72-3F93-4B9B-AF21-9E464A4B30A1}" name="Column1" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{31AC549A-308C-46FB-B624-74827D77B361}" name="Column2" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{4B588AC2-7181-4E05-B999-978E281F04A3}" name="Column3" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{BEFCE26D-0020-4FB3-A44D-9EBB89B91BDE}" name="4 Over" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{AF5DA180-4F8F-4BC4-9D7B-C7AAF2D3056F}" name="A" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{21D30EA1-C6F7-428E-9774-9ECC06C71423}" name="B" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{DF442A33-6E42-4E25-BE70-8217ABE22438}" name="C" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{D9B8B5CE-8078-4DB3-998F-CD722576D06D}" name="A2" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{DCE57494-C89C-4C6A-8F11-8FE5BF84F7D8}" name="B3" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{B75CDA01-2E65-4DD5-A5A3-9BA720F3E635}" name="Column4" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{7BE58487-EEFA-4101-BD20-57404EE69B64}" name="Column5" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{DA2C299E-CAEB-436C-9C72-4962E73597C6}" name="Column6" dataDxfId="24"/>
-    <tableColumn id="17" xr3:uid="{086C7425-3B29-49D1-A30E-24C52F0349D3}" name="Comments" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{268D565B-E9A0-440B-A61D-FAC0C7D5680B}" name="Emp. #" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{F90CCBC7-00B4-4199-8463-CE70ACA9BB51}" name="Last Name" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{C91B27B2-C444-4092-8469-7AF1F85F9897}" name="First Name" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{B4B925E9-F53D-4057-A3EC-B375EEBAAB27}" name="Hrs" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{F292AA72-3F93-4B9B-AF21-9E464A4B30A1}" name="Column1" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{31AC549A-308C-46FB-B624-74827D77B361}" name="Column2" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{4B588AC2-7181-4E05-B999-978E281F04A3}" name="Column3" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{BEFCE26D-0020-4FB3-A44D-9EBB89B91BDE}" name="4 Over" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{AF5DA180-4F8F-4BC4-9D7B-C7AAF2D3056F}" name="A" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{21D30EA1-C6F7-428E-9774-9ECC06C71423}" name="B" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{DF442A33-6E42-4E25-BE70-8217ABE22438}" name="C" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{D9B8B5CE-8078-4DB3-998F-CD722576D06D}" name="A2" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{DCE57494-C89C-4C6A-8F11-8FE5BF84F7D8}" name="B3" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{B75CDA01-2E65-4DD5-A5A3-9BA720F3E635}" name="Column4" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{7BE58487-EEFA-4101-BD20-57404EE69B64}" name="Column5" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{DA2C299E-CAEB-436C-9C72-4962E73597C6}" name="Column6" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{086C7425-3B29-49D1-A30E-24C52F0349D3}" name="Comments" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DD1D323B-4826-4CCC-8C6F-5F99971BE835}" name="tbl_wT" displayName="tbl_wT" ref="U107:AK108" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="19" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DD1D323B-4826-4CCC-8C6F-5F99971BE835}" name="tbl_wT" displayName="tbl_wT" ref="U107:AK108" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <autoFilter ref="U107:AK108" xr:uid="{DD1D323B-4826-4CCC-8C6F-5F99971BE835}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{9B8656CA-C72A-4D3C-85DD-1DC343D3EBA6}" name="Emp. #" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{12E50AC3-568E-4FAD-A11D-3EC0B018D986}" name="Last Name" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{7F42E99C-31BD-4153-A7F8-CE7302FC9175}" name="First Name" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{9F45957E-4944-43FD-8666-B0FA12487321}" name="Hrs" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{76038E90-C77D-4336-B6BD-3BDEAC8577FF}" name="Column1" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{86F036A2-CB62-4986-BBDF-A7D7DEEC8F64}" name="Column2" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{A0186C1E-4AB5-4245-93ED-253CBA127D69}" name="Column3" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{8869C051-46DC-4391-A63A-653E01721241}" name="4 Over" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{9F30DD86-A667-4C6C-8DDB-EC256F5C9073}" name="A" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{2DFD0EF2-7B1C-4D55-BEB3-6598306D45C1}" name="B" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{CCCC6E11-E142-4C37-A4FE-B0C14D6ECF27}" name="C" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{81439516-641D-47F8-8322-7FCB636F5FED}" name="A2" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{B55E7B95-2F9B-4B3A-A272-5885C221ECDB}" name="B3" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{8070442B-D50C-41FF-BD86-D7976B3358FE}" name="Column4" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{9C1F35A0-64D9-4E11-98FE-4476E6C28F94}" name="Column5" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{1B35B59F-80B8-418F-910C-CD1BB4834564}" name="Column6" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{5DDDC97C-CC47-42FC-9819-7534E3563AE3}" name="Comments" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9B8656CA-C72A-4D3C-85DD-1DC343D3EBA6}" name="Emp. #" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{12E50AC3-568E-4FAD-A11D-3EC0B018D986}" name="Last Name" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{7F42E99C-31BD-4153-A7F8-CE7302FC9175}" name="First Name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{9F45957E-4944-43FD-8666-B0FA12487321}" name="Hrs" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{76038E90-C77D-4336-B6BD-3BDEAC8577FF}" name="Column1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{86F036A2-CB62-4986-BBDF-A7D7DEEC8F64}" name="Column2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{A0186C1E-4AB5-4245-93ED-253CBA127D69}" name="Column3" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{8869C051-46DC-4391-A63A-653E01721241}" name="4 Over" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{9F30DD86-A667-4C6C-8DDB-EC256F5C9073}" name="A" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{2DFD0EF2-7B1C-4D55-BEB3-6598306D45C1}" name="B" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{CCCC6E11-E142-4C37-A4FE-B0C14D6ECF27}" name="C" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{81439516-641D-47F8-8322-7FCB636F5FED}" name="A2" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{B55E7B95-2F9B-4B3A-A272-5885C221ECDB}" name="B3" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{8070442B-D50C-41FF-BD86-D7976B3358FE}" name="Column4" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{9C1F35A0-64D9-4E11-98FE-4476E6C28F94}" name="Column5" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{1B35B59F-80B8-418F-910C-CD1BB4834564}" name="Column6" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{5DDDC97C-CC47-42FC-9819-7534E3563AE3}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7730,8 +7730,8 @@
   </sheetPr>
   <dimension ref="A1:BJ124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="68" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="U107" sqref="U107:AK108"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="68" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="N103" sqref="N103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7760,12 +7760,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="113" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
@@ -7825,26 +7825,26 @@
       <c r="BI1" s="16"/>
     </row>
     <row r="2" spans="1:61" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="116" t="s">
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
       <c r="O2" s="99"/>
       <c r="P2" s="99"/>
       <c r="Q2" s="99"/>
@@ -7858,16 +7858,16 @@
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
-      <c r="AB2" s="115" t="s">
+      <c r="AB2" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="116" t="s">
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="116"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
       <c r="AH2" s="99"/>
       <c r="AI2" s="99"/>
       <c r="AJ2" s="99"/>
@@ -7898,51 +7898,51 @@
       <c r="BI2" s="16"/>
     </row>
     <row r="3" spans="1:61" s="16" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
-      <c r="I3" s="117" t="s">
+      <c r="I3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="118"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="117" t="s">
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="118"/>
-      <c r="N3" s="119"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="118"/>
       <c r="O3" s="100"/>
       <c r="P3" s="100"/>
       <c r="Q3" s="100"/>
       <c r="R3" s="23"/>
       <c r="S3" s="34"/>
-      <c r="T3" s="120" t="s">
+      <c r="T3" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
       <c r="X3" s="22"/>
       <c r="Y3" s="22"/>
       <c r="Z3" s="22"/>
       <c r="AA3" s="22"/>
-      <c r="AB3" s="117" t="s">
+      <c r="AB3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="118"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="117" t="s">
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="118"/>
-      <c r="AG3" s="119"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="118"/>
       <c r="AH3" s="100"/>
       <c r="AI3" s="100"/>
       <c r="AJ3" s="100"/>
@@ -8060,7 +8060,7 @@
       </c>
     </row>
     <row r="5" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="120" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="57">
@@ -8101,7 +8101,7 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="62"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="109" t="s">
+      <c r="T5" s="120" t="s">
         <v>3</v>
       </c>
       <c r="U5" s="57">
@@ -8143,7 +8143,7 @@
       <c r="AK5" s="68"/>
     </row>
     <row r="6" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="110"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="63">
         <v>7403386</v>
       </c>
@@ -8182,7 +8182,7 @@
       <c r="Q6" s="67"/>
       <c r="R6" s="68"/>
       <c r="S6" s="36"/>
-      <c r="T6" s="110"/>
+      <c r="T6" s="121"/>
       <c r="U6" s="64">
         <v>7104398</v>
       </c>
@@ -8222,7 +8222,7 @@
       <c r="AK6" s="68"/>
     </row>
     <row r="7" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="110"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="57">
         <v>7403482</v>
       </c>
@@ -8261,7 +8261,7 @@
       <c r="Q7" s="67"/>
       <c r="R7" s="68"/>
       <c r="S7" s="36"/>
-      <c r="T7" s="110"/>
+      <c r="T7" s="121"/>
       <c r="U7" s="57">
         <v>7104846</v>
       </c>
@@ -8301,7 +8301,7 @@
       <c r="AK7" s="68"/>
     </row>
     <row r="8" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="110"/>
+      <c r="A8" s="121"/>
       <c r="B8" s="70">
         <v>7093556</v>
       </c>
@@ -8340,7 +8340,7 @@
       <c r="Q8" s="67"/>
       <c r="R8" s="68"/>
       <c r="S8" s="36"/>
-      <c r="T8" s="110"/>
+      <c r="T8" s="121"/>
       <c r="U8" s="64">
         <v>7104950</v>
       </c>
@@ -8380,7 +8380,7 @@
       <c r="AK8" s="68"/>
     </row>
     <row r="9" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110"/>
+      <c r="A9" s="121"/>
       <c r="B9" s="57">
         <v>7402042</v>
       </c>
@@ -8419,7 +8419,7 @@
       <c r="Q9" s="67"/>
       <c r="R9" s="68"/>
       <c r="S9" s="36"/>
-      <c r="T9" s="110"/>
+      <c r="T9" s="121"/>
       <c r="U9" s="57">
         <v>7104427</v>
       </c>
@@ -8459,7 +8459,7 @@
       <c r="AK9" s="68"/>
     </row>
     <row r="10" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="64">
         <v>7402762</v>
       </c>
@@ -8498,7 +8498,7 @@
       <c r="Q10" s="67"/>
       <c r="R10" s="68"/>
       <c r="S10" s="36"/>
-      <c r="T10" s="110"/>
+      <c r="T10" s="121"/>
       <c r="U10" s="64">
         <v>7104212</v>
       </c>
@@ -8538,7 +8538,7 @@
       <c r="AK10" s="68"/>
     </row>
     <row r="11" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="110"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="72">
         <v>7051763</v>
       </c>
@@ -8577,7 +8577,7 @@
       <c r="Q11" s="67"/>
       <c r="R11" s="68"/>
       <c r="S11" s="36"/>
-      <c r="T11" s="110"/>
+      <c r="T11" s="121"/>
       <c r="U11" s="57">
         <v>7105341</v>
       </c>
@@ -8617,7 +8617,7 @@
       <c r="AK11" s="68"/>
     </row>
     <row r="12" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="64">
         <v>7401055</v>
       </c>
@@ -8656,7 +8656,7 @@
       <c r="Q12" s="67"/>
       <c r="R12" s="68"/>
       <c r="S12" s="36"/>
-      <c r="T12" s="110"/>
+      <c r="T12" s="121"/>
       <c r="U12" s="64">
         <v>7105315</v>
       </c>
@@ -8696,7 +8696,7 @@
       <c r="AK12" s="68"/>
     </row>
     <row r="13" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="110"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="57">
         <v>7092904</v>
       </c>
@@ -8735,7 +8735,7 @@
       <c r="Q13" s="67"/>
       <c r="R13" s="68"/>
       <c r="S13" s="36"/>
-      <c r="T13" s="110"/>
+      <c r="T13" s="121"/>
       <c r="U13" s="57">
         <v>7105345</v>
       </c>
@@ -8777,7 +8777,7 @@
       </c>
     </row>
     <row r="14" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="110"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="64">
         <v>7401922</v>
       </c>
@@ -8816,7 +8816,7 @@
       <c r="Q14" s="67"/>
       <c r="R14" s="68"/>
       <c r="S14" s="36"/>
-      <c r="T14" s="110"/>
+      <c r="T14" s="121"/>
       <c r="U14" s="64">
         <v>7105038</v>
       </c>
@@ -8856,7 +8856,7 @@
       <c r="AK14" s="68"/>
     </row>
     <row r="15" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="57">
         <v>7402547</v>
       </c>
@@ -8895,7 +8895,7 @@
       <c r="Q15" s="67"/>
       <c r="R15" s="68"/>
       <c r="S15" s="36"/>
-      <c r="T15" s="110"/>
+      <c r="T15" s="121"/>
       <c r="U15" s="57">
         <v>7105177</v>
       </c>
@@ -8935,7 +8935,7 @@
       <c r="AK15" s="68"/>
     </row>
     <row r="16" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="110"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="64">
         <v>7402314</v>
       </c>
@@ -8974,7 +8974,7 @@
       <c r="Q16" s="67"/>
       <c r="R16" s="68"/>
       <c r="S16" s="36"/>
-      <c r="T16" s="110"/>
+      <c r="T16" s="121"/>
       <c r="U16" s="64">
         <v>7101072</v>
       </c>
@@ -9014,7 +9014,7 @@
       <c r="AK16" s="68"/>
     </row>
     <row r="17" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="110"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="72">
         <v>7076186</v>
       </c>
@@ -9053,7 +9053,7 @@
       <c r="Q17" s="67"/>
       <c r="R17" s="68"/>
       <c r="S17" s="52"/>
-      <c r="T17" s="110"/>
+      <c r="T17" s="121"/>
       <c r="U17" s="57">
         <v>7104190</v>
       </c>
@@ -9093,7 +9093,7 @@
       <c r="AK17" s="68"/>
     </row>
     <row r="18" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="110"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="64">
         <v>7094186</v>
       </c>
@@ -9132,7 +9132,7 @@
       <c r="Q18" s="67"/>
       <c r="R18" s="68"/>
       <c r="S18" s="36"/>
-      <c r="T18" s="110"/>
+      <c r="T18" s="121"/>
       <c r="U18" s="64">
         <v>7402019</v>
       </c>
@@ -9172,7 +9172,7 @@
       <c r="AK18" s="68"/>
     </row>
     <row r="19" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="110"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="57">
         <v>7092653</v>
       </c>
@@ -9211,7 +9211,7 @@
       <c r="Q19" s="67"/>
       <c r="R19" s="68"/>
       <c r="S19" s="36"/>
-      <c r="T19" s="110"/>
+      <c r="T19" s="121"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44"/>
       <c r="W19" s="50"/>
@@ -9231,7 +9231,7 @@
       <c r="AK19" s="28"/>
     </row>
     <row r="20" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="110"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="64">
         <v>7402080</v>
       </c>
@@ -9270,7 +9270,7 @@
       <c r="Q20" s="67"/>
       <c r="R20" s="68"/>
       <c r="S20" s="36"/>
-      <c r="T20" s="110"/>
+      <c r="T20" s="121"/>
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="50"/>
@@ -9290,7 +9290,7 @@
       <c r="AK20" s="28"/>
     </row>
     <row r="21" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="57">
         <v>7402849</v>
       </c>
@@ -9329,7 +9329,7 @@
       <c r="Q21" s="67"/>
       <c r="R21" s="68"/>
       <c r="S21" s="36"/>
-      <c r="T21" s="110"/>
+      <c r="T21" s="121"/>
       <c r="U21" s="44"/>
       <c r="V21" s="44"/>
       <c r="W21" s="50"/>
@@ -9349,7 +9349,7 @@
       <c r="AK21" s="28"/>
     </row>
     <row r="22" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="110"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="73">
         <v>7400558</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="Q22" s="67"/>
       <c r="R22" s="68"/>
       <c r="S22" s="36"/>
-      <c r="T22" s="110"/>
+      <c r="T22" s="121"/>
       <c r="U22" s="44"/>
       <c r="V22" s="44"/>
       <c r="W22" s="50"/>
@@ -9408,7 +9408,7 @@
       <c r="AK22" s="28"/>
     </row>
     <row r="23" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="110"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="72">
         <v>7401960</v>
       </c>
@@ -9447,7 +9447,7 @@
       <c r="Q23" s="67"/>
       <c r="R23" s="68"/>
       <c r="S23" s="36"/>
-      <c r="T23" s="110"/>
+      <c r="T23" s="121"/>
       <c r="U23" s="44"/>
       <c r="V23" s="44"/>
       <c r="W23" s="50"/>
@@ -9467,7 +9467,7 @@
       <c r="AK23" s="28"/>
     </row>
     <row r="24" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="110"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="64">
         <v>7400394</v>
       </c>
@@ -9506,7 +9506,7 @@
       <c r="Q24" s="67"/>
       <c r="R24" s="68"/>
       <c r="S24" s="36"/>
-      <c r="T24" s="110"/>
+      <c r="T24" s="121"/>
       <c r="U24" s="44"/>
       <c r="V24" s="44"/>
       <c r="W24" s="50"/>
@@ -9526,7 +9526,7 @@
       <c r="AK24" s="28"/>
     </row>
     <row r="25" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="110"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="74">
         <v>7402915</v>
       </c>
@@ -9565,7 +9565,7 @@
       <c r="Q25" s="67"/>
       <c r="R25" s="68"/>
       <c r="S25" s="36"/>
-      <c r="T25" s="110"/>
+      <c r="T25" s="121"/>
       <c r="U25" s="29"/>
       <c r="V25" s="1"/>
       <c r="W25" s="2"/>
@@ -9585,7 +9585,7 @@
       <c r="AK25" s="28"/>
     </row>
     <row r="26" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="110"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="74">
         <v>7104132</v>
       </c>
@@ -9624,7 +9624,7 @@
       <c r="Q26" s="67"/>
       <c r="R26" s="68"/>
       <c r="S26" s="36"/>
-      <c r="T26" s="110"/>
+      <c r="T26" s="121"/>
       <c r="U26" s="29"/>
       <c r="V26" s="1"/>
       <c r="W26" s="2"/>
@@ -9644,7 +9644,7 @@
       <c r="AK26" s="28"/>
     </row>
     <row r="27" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="110"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="74">
         <v>7104205</v>
       </c>
@@ -9683,7 +9683,7 @@
       <c r="Q27" s="67"/>
       <c r="R27" s="68"/>
       <c r="S27" s="36"/>
-      <c r="T27" s="110"/>
+      <c r="T27" s="121"/>
       <c r="U27" s="29"/>
       <c r="V27" s="1"/>
       <c r="W27" s="2"/>
@@ -9703,7 +9703,7 @@
       <c r="AK27" s="28"/>
     </row>
     <row r="28" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="110"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="74">
         <v>7403653</v>
       </c>
@@ -9742,7 +9742,7 @@
       <c r="Q28" s="67"/>
       <c r="R28" s="68"/>
       <c r="S28" s="36"/>
-      <c r="T28" s="110"/>
+      <c r="T28" s="121"/>
       <c r="U28" s="29"/>
       <c r="V28" s="1"/>
       <c r="W28" s="2"/>
@@ -9762,7 +9762,7 @@
       <c r="AK28" s="28"/>
     </row>
     <row r="29" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="110"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="74">
         <v>7403380</v>
       </c>
@@ -9801,7 +9801,7 @@
       <c r="Q29" s="67"/>
       <c r="R29" s="68"/>
       <c r="S29" s="36"/>
-      <c r="T29" s="110"/>
+      <c r="T29" s="121"/>
       <c r="U29" s="29"/>
       <c r="V29" s="1"/>
       <c r="W29" s="2"/>
@@ -9821,7 +9821,7 @@
       <c r="AK29" s="28"/>
     </row>
     <row r="30" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="110"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
       <c r="D30" s="50"/>
@@ -9840,7 +9840,7 @@
       <c r="Q30" s="26"/>
       <c r="R30" s="28"/>
       <c r="S30" s="36"/>
-      <c r="T30" s="110"/>
+      <c r="T30" s="121"/>
       <c r="U30" s="29"/>
       <c r="V30" s="1"/>
       <c r="W30" s="2"/>
@@ -9860,7 +9860,7 @@
       <c r="AK30" s="28"/>
     </row>
     <row r="31" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
@@ -9879,7 +9879,7 @@
       <c r="Q31" s="26"/>
       <c r="R31" s="28"/>
       <c r="S31" s="37"/>
-      <c r="T31" s="111"/>
+      <c r="T31" s="122"/>
       <c r="U31" s="29"/>
       <c r="V31" s="1"/>
       <c r="W31" s="2"/>
@@ -9929,16 +9929,16 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="115" t="s">
+      <c r="I33" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="116" t="s">
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
       <c r="O33" s="99"/>
       <c r="P33" s="99"/>
       <c r="Q33" s="99"/>
@@ -9952,16 +9952,16 @@
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
       <c r="AA33" s="21"/>
-      <c r="AB33" s="115" t="s">
+      <c r="AB33" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="AC33" s="115"/>
-      <c r="AD33" s="115"/>
-      <c r="AE33" s="116" t="s">
+      <c r="AC33" s="114"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="AF33" s="116"/>
-      <c r="AG33" s="116"/>
+      <c r="AF33" s="115"/>
+      <c r="AG33" s="115"/>
       <c r="AH33" s="99"/>
       <c r="AI33" s="99"/>
       <c r="AJ33" s="99"/>
@@ -9993,32 +9993,32 @@
       <c r="BJ33" s="16"/>
     </row>
     <row r="34" spans="1:62" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I34" s="117" t="s">
+      <c r="I34" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="118"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="117" t="s">
+      <c r="J34" s="117"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="M34" s="118"/>
-      <c r="N34" s="119"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="118"/>
       <c r="O34" s="100"/>
       <c r="P34" s="100"/>
       <c r="Q34" s="100"/>
       <c r="R34" s="23"/>
       <c r="S34" s="34"/>
       <c r="U34" s="18"/>
-      <c r="AB34" s="117" t="s">
+      <c r="AB34" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="AC34" s="118"/>
-      <c r="AD34" s="119"/>
-      <c r="AE34" s="117" t="s">
+      <c r="AC34" s="117"/>
+      <c r="AD34" s="118"/>
+      <c r="AE34" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="AF34" s="118"/>
-      <c r="AG34" s="119"/>
+      <c r="AF34" s="117"/>
+      <c r="AG34" s="118"/>
       <c r="AH34" s="100"/>
       <c r="AI34" s="100"/>
       <c r="AJ34" s="100"/>
@@ -10136,7 +10136,7 @@
       </c>
     </row>
     <row r="36" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="123" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="57">
@@ -10177,7 +10177,7 @@
       <c r="Q36" s="101"/>
       <c r="R36" s="68"/>
       <c r="S36" s="10"/>
-      <c r="T36" s="112" t="s">
+      <c r="T36" s="123" t="s">
         <v>4</v>
       </c>
       <c r="U36" s="57">
@@ -10219,7 +10219,7 @@
       <c r="AK36" s="68"/>
     </row>
     <row r="37" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="113"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="64">
         <v>7042058</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>261</v>
       </c>
       <c r="S37" s="11"/>
-      <c r="T37" s="113"/>
+      <c r="T37" s="124"/>
       <c r="U37" s="73">
         <v>7401154</v>
       </c>
@@ -10300,7 +10300,7 @@
       <c r="AK37" s="68"/>
     </row>
     <row r="38" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="113"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="57">
         <v>7095860</v>
       </c>
@@ -10339,7 +10339,7 @@
       <c r="Q38" s="67"/>
       <c r="R38" s="68"/>
       <c r="S38" s="38"/>
-      <c r="T38" s="113"/>
+      <c r="T38" s="124"/>
       <c r="U38" s="57">
         <v>7104407</v>
       </c>
@@ -10379,7 +10379,7 @@
       <c r="AK38" s="68"/>
     </row>
     <row r="39" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="113"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="64">
         <v>7051932</v>
       </c>
@@ -10418,7 +10418,7 @@
       <c r="Q39" s="67"/>
       <c r="R39" s="68"/>
       <c r="S39" s="38"/>
-      <c r="T39" s="113"/>
+      <c r="T39" s="124"/>
       <c r="U39" s="64">
         <v>7104331</v>
       </c>
@@ -10458,7 +10458,7 @@
       <c r="AK39" s="68"/>
     </row>
     <row r="40" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="113"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="57">
         <v>7402448</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>268</v>
       </c>
       <c r="S40" s="38"/>
-      <c r="T40" s="113"/>
+      <c r="T40" s="124"/>
       <c r="U40" s="57">
         <v>7104882</v>
       </c>
@@ -10539,7 +10539,7 @@
       <c r="AK40" s="68"/>
     </row>
     <row r="41" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="113"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="64">
         <v>7092742</v>
       </c>
@@ -10578,7 +10578,7 @@
       <c r="Q41" s="67"/>
       <c r="R41" s="68"/>
       <c r="S41" s="38"/>
-      <c r="T41" s="113"/>
+      <c r="T41" s="124"/>
       <c r="U41" s="64">
         <v>7104871</v>
       </c>
@@ -10618,7 +10618,7 @@
       <c r="AK41" s="68"/>
     </row>
     <row r="42" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="113"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="57">
         <v>7092620</v>
       </c>
@@ -10657,7 +10657,7 @@
       <c r="Q42" s="67"/>
       <c r="R42" s="68"/>
       <c r="S42" s="38"/>
-      <c r="T42" s="113"/>
+      <c r="T42" s="124"/>
       <c r="U42" s="57">
         <v>7104865</v>
       </c>
@@ -10697,7 +10697,7 @@
       <c r="AK42" s="68"/>
     </row>
     <row r="43" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="113"/>
+      <c r="A43" s="124"/>
       <c r="B43" s="64">
         <v>7098056</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>263</v>
       </c>
       <c r="S43" s="38"/>
-      <c r="T43" s="113"/>
+      <c r="T43" s="124"/>
       <c r="U43" s="64">
         <v>7105001</v>
       </c>
@@ -10766,7 +10766,7 @@
       <c r="AK43" s="68"/>
     </row>
     <row r="44" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="113"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="57">
         <v>7400269</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="Q44" s="67"/>
       <c r="R44" s="68"/>
       <c r="S44" s="38"/>
-      <c r="T44" s="113"/>
+      <c r="T44" s="124"/>
       <c r="U44" s="57">
         <v>7104924</v>
       </c>
@@ -10845,7 +10845,7 @@
       <c r="AK44" s="68"/>
     </row>
     <row r="45" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="113"/>
+      <c r="A45" s="124"/>
       <c r="B45" s="64">
         <v>7091821</v>
       </c>
@@ -10884,7 +10884,7 @@
       <c r="Q45" s="67"/>
       <c r="R45" s="68"/>
       <c r="S45" s="38"/>
-      <c r="T45" s="113"/>
+      <c r="T45" s="124"/>
       <c r="U45" s="64">
         <v>7105307</v>
       </c>
@@ -10924,7 +10924,7 @@
       <c r="AK45" s="68"/>
     </row>
     <row r="46" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="113"/>
+      <c r="A46" s="124"/>
       <c r="B46" s="72">
         <v>7093513</v>
       </c>
@@ -10963,7 +10963,7 @@
       <c r="Q46" s="67"/>
       <c r="R46" s="68"/>
       <c r="S46" s="38"/>
-      <c r="T46" s="113"/>
+      <c r="T46" s="124"/>
       <c r="U46" s="57">
         <v>7105382</v>
       </c>
@@ -11003,7 +11003,7 @@
       <c r="AK46" s="68"/>
     </row>
     <row r="47" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="113"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="70">
         <v>7092977</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>264</v>
       </c>
       <c r="S47" s="38"/>
-      <c r="T47" s="113"/>
+      <c r="T47" s="124"/>
       <c r="U47" s="64">
         <v>7105419</v>
       </c>
@@ -11084,7 +11084,7 @@
       <c r="AK47" s="68"/>
     </row>
     <row r="48" spans="1:62" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="113"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="57">
         <v>7092738</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>266</v>
       </c>
       <c r="S48" s="38"/>
-      <c r="T48" s="113"/>
+      <c r="T48" s="124"/>
       <c r="U48" s="57">
         <v>7105393</v>
       </c>
@@ -11165,7 +11165,7 @@
       <c r="AK48" s="68"/>
     </row>
     <row r="49" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="113"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="64">
         <v>7092308</v>
       </c>
@@ -11204,7 +11204,7 @@
       <c r="Q49" s="67"/>
       <c r="R49" s="68"/>
       <c r="S49" s="38"/>
-      <c r="T49" s="113"/>
+      <c r="T49" s="124"/>
       <c r="U49" s="64">
         <v>7105427</v>
       </c>
@@ -11244,7 +11244,7 @@
       <c r="AK49" s="68"/>
     </row>
     <row r="50" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="113"/>
+      <c r="A50" s="124"/>
       <c r="B50" s="57">
         <v>7098023</v>
       </c>
@@ -11283,7 +11283,7 @@
       <c r="Q50" s="67"/>
       <c r="R50" s="87"/>
       <c r="S50" s="38"/>
-      <c r="T50" s="113"/>
+      <c r="T50" s="124"/>
       <c r="U50" s="57">
         <v>7105319</v>
       </c>
@@ -11323,7 +11323,7 @@
       <c r="AK50" s="68"/>
     </row>
     <row r="51" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="113"/>
+      <c r="A51" s="124"/>
       <c r="B51" s="64">
         <v>7051892</v>
       </c>
@@ -11362,7 +11362,7 @@
       <c r="Q51" s="67"/>
       <c r="R51" s="68"/>
       <c r="S51" s="38"/>
-      <c r="T51" s="113"/>
+      <c r="T51" s="124"/>
       <c r="U51" s="64">
         <v>7096686</v>
       </c>
@@ -11402,7 +11402,7 @@
       <c r="AK51" s="68"/>
     </row>
     <row r="52" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="113"/>
+      <c r="A52" s="124"/>
       <c r="B52" s="57">
         <v>7029156</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>265</v>
       </c>
       <c r="S52" s="38"/>
-      <c r="T52" s="113"/>
+      <c r="T52" s="124"/>
       <c r="U52" s="57">
         <v>7105184</v>
       </c>
@@ -11483,7 +11483,7 @@
       <c r="AK52" s="68"/>
     </row>
     <row r="53" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="113"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="64">
         <v>7092660</v>
       </c>
@@ -11522,7 +11522,7 @@
       <c r="Q53" s="67"/>
       <c r="R53" s="68"/>
       <c r="S53" s="38"/>
-      <c r="T53" s="113"/>
+      <c r="T53" s="124"/>
       <c r="U53" s="64">
         <v>7104141</v>
       </c>
@@ -11562,7 +11562,7 @@
       <c r="AK53" s="68"/>
     </row>
     <row r="54" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="113"/>
+      <c r="A54" s="124"/>
       <c r="B54" s="72">
         <v>7051920</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>262</v>
       </c>
       <c r="S54" s="38"/>
-      <c r="T54" s="113"/>
+      <c r="T54" s="124"/>
       <c r="U54" s="44"/>
       <c r="V54" s="44"/>
       <c r="W54" s="50"/>
@@ -11623,7 +11623,7 @@
       <c r="AK54" s="28"/>
     </row>
     <row r="55" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="113"/>
+      <c r="A55" s="124"/>
       <c r="B55" s="64">
         <v>7095865</v>
       </c>
@@ -11662,7 +11662,7 @@
       <c r="Q55" s="67"/>
       <c r="R55" s="68"/>
       <c r="S55" s="38"/>
-      <c r="T55" s="113"/>
+      <c r="T55" s="124"/>
       <c r="U55" s="44"/>
       <c r="V55" s="44"/>
       <c r="W55" s="50"/>
@@ -11682,7 +11682,7 @@
       <c r="AK55" s="28"/>
     </row>
     <row r="56" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="113"/>
+      <c r="A56" s="124"/>
       <c r="B56" s="57">
         <v>7095735</v>
       </c>
@@ -11721,7 +11721,7 @@
       <c r="Q56" s="67"/>
       <c r="R56" s="68"/>
       <c r="S56" s="38"/>
-      <c r="T56" s="113"/>
+      <c r="T56" s="124"/>
       <c r="U56" s="44"/>
       <c r="V56" s="44"/>
       <c r="W56" s="50"/>
@@ -11741,7 +11741,7 @@
       <c r="AK56" s="28"/>
     </row>
     <row r="57" spans="1:37" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="113"/>
+      <c r="A57" s="124"/>
       <c r="B57" s="64">
         <v>7051765</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>267</v>
       </c>
       <c r="S57" s="38"/>
-      <c r="T57" s="113"/>
+      <c r="T57" s="124"/>
       <c r="U57" s="44"/>
       <c r="V57" s="44"/>
       <c r="W57" s="50"/>
@@ -11802,7 +11802,7 @@
       <c r="AK57" s="28"/>
     </row>
     <row r="58" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="113"/>
+      <c r="A58" s="124"/>
       <c r="B58" s="57">
         <v>7094195</v>
       </c>
@@ -11841,7 +11841,7 @@
       <c r="Q58" s="67"/>
       <c r="R58" s="68"/>
       <c r="S58" s="38"/>
-      <c r="T58" s="113"/>
+      <c r="T58" s="124"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="2"/>
@@ -11861,7 +11861,7 @@
       <c r="AK58" s="28"/>
     </row>
     <row r="59" spans="1:37" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="113"/>
+      <c r="A59" s="124"/>
       <c r="B59" s="63">
         <v>7401045</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>271</v>
       </c>
       <c r="S59" s="38"/>
-      <c r="T59" s="113"/>
+      <c r="T59" s="124"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="2"/>
@@ -11922,7 +11922,7 @@
       <c r="AK59" s="28"/>
     </row>
     <row r="60" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="113"/>
+      <c r="A60" s="124"/>
       <c r="B60" s="57">
         <v>7045037</v>
       </c>
@@ -11961,7 +11961,7 @@
       <c r="Q60" s="67"/>
       <c r="R60" s="68"/>
       <c r="S60" s="38"/>
-      <c r="T60" s="113"/>
+      <c r="T60" s="124"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="2"/>
@@ -11981,7 +11981,7 @@
       <c r="AK60" s="28"/>
     </row>
     <row r="61" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="113"/>
+      <c r="A61" s="124"/>
       <c r="B61" s="64">
         <v>7402044</v>
       </c>
@@ -12020,7 +12020,7 @@
       <c r="Q61" s="67"/>
       <c r="R61" s="68"/>
       <c r="S61" s="38"/>
-      <c r="T61" s="113"/>
+      <c r="T61" s="124"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="2"/>
@@ -12040,7 +12040,7 @@
       <c r="AK61" s="28"/>
     </row>
     <row r="62" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="113"/>
+      <c r="A62" s="124"/>
       <c r="B62" s="70">
         <v>7093549</v>
       </c>
@@ -12079,7 +12079,7 @@
       <c r="Q62" s="67"/>
       <c r="R62" s="68"/>
       <c r="S62" s="38"/>
-      <c r="T62" s="113"/>
+      <c r="T62" s="124"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="2"/>
@@ -12099,7 +12099,7 @@
       <c r="AK62" s="28"/>
     </row>
     <row r="63" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="113"/>
+      <c r="A63" s="124"/>
       <c r="B63" s="63">
         <v>7093554</v>
       </c>
@@ -12138,7 +12138,7 @@
       <c r="Q63" s="67"/>
       <c r="R63" s="68"/>
       <c r="S63" s="38"/>
-      <c r="T63" s="113"/>
+      <c r="T63" s="124"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="2"/>
@@ -12158,7 +12158,7 @@
       <c r="AK63" s="28"/>
     </row>
     <row r="64" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="113"/>
+      <c r="A64" s="124"/>
       <c r="B64" s="74">
         <v>7403371</v>
       </c>
@@ -12197,7 +12197,7 @@
       <c r="Q64" s="67"/>
       <c r="R64" s="68"/>
       <c r="S64" s="38"/>
-      <c r="T64" s="113"/>
+      <c r="T64" s="124"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="2"/>
@@ -12217,7 +12217,7 @@
       <c r="AK64" s="28"/>
     </row>
     <row r="65" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="113"/>
+      <c r="A65" s="124"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
       <c r="D65" s="50"/>
@@ -12236,7 +12236,7 @@
       <c r="Q65" s="26"/>
       <c r="R65" s="28"/>
       <c r="S65" s="38"/>
-      <c r="T65" s="113"/>
+      <c r="T65" s="124"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="2"/>
@@ -12256,7 +12256,7 @@
       <c r="AK65" s="28"/>
     </row>
     <row r="66" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="113"/>
+      <c r="A66" s="124"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
       <c r="D66" s="50"/>
@@ -12275,7 +12275,7 @@
       <c r="Q66" s="26"/>
       <c r="R66" s="28"/>
       <c r="S66" s="38"/>
-      <c r="T66" s="113"/>
+      <c r="T66" s="124"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="2"/>
@@ -12295,7 +12295,7 @@
       <c r="AK66" s="28"/>
     </row>
     <row r="67" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="113"/>
+      <c r="A67" s="124"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
       <c r="D67" s="50"/>
@@ -12314,7 +12314,7 @@
       <c r="Q67" s="26"/>
       <c r="R67" s="28"/>
       <c r="S67" s="38"/>
-      <c r="T67" s="113"/>
+      <c r="T67" s="124"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="2"/>
@@ -12334,7 +12334,7 @@
       <c r="AK67" s="28"/>
     </row>
     <row r="68" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="113"/>
+      <c r="A68" s="124"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
       <c r="D68" s="50"/>
@@ -12353,7 +12353,7 @@
       <c r="Q68" s="26"/>
       <c r="R68" s="28"/>
       <c r="S68" s="38"/>
-      <c r="T68" s="113"/>
+      <c r="T68" s="124"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="2"/>
@@ -12373,7 +12373,7 @@
       <c r="AK68" s="28"/>
     </row>
     <row r="69" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="113"/>
+      <c r="A69" s="124"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
       <c r="D69" s="50"/>
@@ -12392,7 +12392,7 @@
       <c r="Q69" s="26"/>
       <c r="R69" s="28"/>
       <c r="S69" s="38"/>
-      <c r="T69" s="113"/>
+      <c r="T69" s="124"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="2"/>
@@ -12412,7 +12412,7 @@
       <c r="AK69" s="28"/>
     </row>
     <row r="70" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="113"/>
+      <c r="A70" s="124"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
       <c r="D70" s="50"/>
@@ -12431,7 +12431,7 @@
       <c r="Q70" s="26"/>
       <c r="R70" s="28"/>
       <c r="S70" s="38"/>
-      <c r="T70" s="113"/>
+      <c r="T70" s="124"/>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
       <c r="W70" s="2"/>
@@ -12451,7 +12451,7 @@
       <c r="AK70" s="28"/>
     </row>
     <row r="71" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="113"/>
+      <c r="A71" s="124"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -12470,7 +12470,7 @@
       <c r="Q71" s="26"/>
       <c r="R71" s="28"/>
       <c r="S71" s="38"/>
-      <c r="T71" s="113"/>
+      <c r="T71" s="124"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
       <c r="W71" s="2"/>
@@ -12490,7 +12490,7 @@
       <c r="AK71" s="28"/>
     </row>
     <row r="72" spans="1:62" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="114"/>
+      <c r="A72" s="125"/>
       <c r="B72" s="44"/>
       <c r="C72" s="41"/>
       <c r="D72" s="42"/>
@@ -12509,7 +12509,7 @@
       <c r="Q72" s="26"/>
       <c r="R72" s="28"/>
       <c r="S72" s="38"/>
-      <c r="T72" s="114"/>
+      <c r="T72" s="125"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="2"/>
@@ -12559,16 +12559,16 @@
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
-      <c r="I74" s="115" t="s">
+      <c r="I74" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="115"/>
-      <c r="K74" s="115"/>
-      <c r="L74" s="116" t="s">
+      <c r="J74" s="114"/>
+      <c r="K74" s="114"/>
+      <c r="L74" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="M74" s="116"/>
-      <c r="N74" s="116"/>
+      <c r="M74" s="115"/>
+      <c r="N74" s="115"/>
       <c r="O74" s="99"/>
       <c r="P74" s="99"/>
       <c r="Q74" s="99"/>
@@ -12582,16 +12582,16 @@
       <c r="Y74" s="21"/>
       <c r="Z74" s="21"/>
       <c r="AA74" s="21"/>
-      <c r="AB74" s="115" t="s">
+      <c r="AB74" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="AC74" s="115"/>
-      <c r="AD74" s="115"/>
-      <c r="AE74" s="116" t="s">
+      <c r="AC74" s="114"/>
+      <c r="AD74" s="114"/>
+      <c r="AE74" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="AF74" s="116"/>
-      <c r="AG74" s="116"/>
+      <c r="AF74" s="115"/>
+      <c r="AG74" s="115"/>
       <c r="AH74" s="99"/>
       <c r="AI74" s="99"/>
       <c r="AJ74" s="99"/>
@@ -12627,32 +12627,32 @@
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
-      <c r="I75" s="117" t="s">
+      <c r="I75" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="J75" s="118"/>
-      <c r="K75" s="119"/>
-      <c r="L75" s="117" t="s">
+      <c r="J75" s="117"/>
+      <c r="K75" s="118"/>
+      <c r="L75" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="M75" s="118"/>
-      <c r="N75" s="119"/>
+      <c r="M75" s="117"/>
+      <c r="N75" s="118"/>
       <c r="O75" s="100"/>
       <c r="P75" s="100"/>
       <c r="Q75" s="100"/>
       <c r="R75" s="23"/>
       <c r="S75" s="34"/>
       <c r="U75" s="18"/>
-      <c r="AB75" s="117" t="s">
+      <c r="AB75" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="AC75" s="118"/>
-      <c r="AD75" s="119"/>
-      <c r="AE75" s="117" t="s">
+      <c r="AC75" s="117"/>
+      <c r="AD75" s="118"/>
+      <c r="AE75" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="AF75" s="118"/>
-      <c r="AG75" s="119"/>
+      <c r="AF75" s="117"/>
+      <c r="AG75" s="118"/>
       <c r="AH75" s="100"/>
       <c r="AI75" s="100"/>
       <c r="AJ75" s="100"/>
@@ -12770,7 +12770,7 @@
       </c>
     </row>
     <row r="77" spans="1:62" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="107" t="s">
+      <c r="A77" s="126" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="57">
@@ -12811,7 +12811,7 @@
       <c r="Q77" s="102"/>
       <c r="R77" s="89"/>
       <c r="S77" s="39"/>
-      <c r="T77" s="107" t="s">
+      <c r="T77" s="126" t="s">
         <v>5</v>
       </c>
       <c r="U77" s="72">
@@ -12853,7 +12853,7 @@
       <c r="AK77" s="68"/>
     </row>
     <row r="78" spans="1:62" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="108"/>
+      <c r="A78" s="127"/>
       <c r="B78" s="64">
         <v>7077343</v>
       </c>
@@ -12880,7 +12880,7 @@
       <c r="Q78" s="103"/>
       <c r="R78" s="89"/>
       <c r="S78" s="39"/>
-      <c r="T78" s="108"/>
+      <c r="T78" s="127"/>
       <c r="U78" s="64">
         <v>7104550</v>
       </c>
@@ -12910,7 +12910,7 @@
       </c>
     </row>
     <row r="79" spans="1:62" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="108"/>
+      <c r="A79" s="127"/>
       <c r="B79" s="57">
         <v>7092320</v>
       </c>
@@ -12949,7 +12949,7 @@
       <c r="Q79" s="103"/>
       <c r="R79" s="89"/>
       <c r="S79" s="39"/>
-      <c r="T79" s="108"/>
+      <c r="T79" s="127"/>
       <c r="U79" s="57">
         <v>7104396</v>
       </c>
@@ -12989,7 +12989,7 @@
       <c r="AK79" s="68"/>
     </row>
     <row r="80" spans="1:62" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="108"/>
+      <c r="A80" s="127"/>
       <c r="B80" s="64">
         <v>7402634</v>
       </c>
@@ -13028,7 +13028,7 @@
       <c r="Q80" s="103"/>
       <c r="R80" s="89"/>
       <c r="S80" s="39"/>
-      <c r="T80" s="108"/>
+      <c r="T80" s="127"/>
       <c r="U80" s="64">
         <v>7105245</v>
       </c>
@@ -13056,7 +13056,7 @@
       <c r="AK80" s="68"/>
     </row>
     <row r="81" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="108"/>
+      <c r="A81" s="127"/>
       <c r="B81" s="57">
         <v>7095862</v>
       </c>
@@ -13095,7 +13095,7 @@
       <c r="Q81" s="103"/>
       <c r="R81" s="91"/>
       <c r="S81" s="40"/>
-      <c r="T81" s="108"/>
+      <c r="T81" s="127"/>
       <c r="U81" s="57">
         <v>7105289</v>
       </c>
@@ -13123,7 +13123,7 @@
       <c r="AK81" s="68"/>
     </row>
     <row r="82" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="108"/>
+      <c r="A82" s="127"/>
       <c r="B82" s="64">
         <v>7402470</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>269</v>
       </c>
       <c r="S82" s="39"/>
-      <c r="T82" s="108"/>
+      <c r="T82" s="127"/>
       <c r="U82" s="64">
         <v>7105291</v>
       </c>
@@ -13204,7 +13204,7 @@
       <c r="AK82" s="68"/>
     </row>
     <row r="83" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="108"/>
+      <c r="A83" s="127"/>
       <c r="B83" s="57">
         <v>7402166</v>
       </c>
@@ -13243,7 +13243,7 @@
       <c r="Q83" s="103"/>
       <c r="R83" s="89"/>
       <c r="S83" s="39"/>
-      <c r="T83" s="108"/>
+      <c r="T83" s="127"/>
       <c r="U83" s="57">
         <v>7105290</v>
       </c>
@@ -13273,7 +13273,7 @@
       </c>
     </row>
     <row r="84" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="108"/>
+      <c r="A84" s="127"/>
       <c r="B84" s="64">
         <v>7095758</v>
       </c>
@@ -13312,7 +13312,7 @@
       <c r="Q84" s="103"/>
       <c r="R84" s="89"/>
       <c r="S84" s="39"/>
-      <c r="T84" s="108"/>
+      <c r="T84" s="127"/>
       <c r="U84" s="64">
         <v>7105318</v>
       </c>
@@ -13352,7 +13352,7 @@
       <c r="AK84" s="68"/>
     </row>
     <row r="85" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="108"/>
+      <c r="A85" s="127"/>
       <c r="B85" s="57">
         <v>7096314</v>
       </c>
@@ -13391,7 +13391,7 @@
       <c r="Q85" s="103"/>
       <c r="R85" s="89"/>
       <c r="S85" s="39"/>
-      <c r="T85" s="108"/>
+      <c r="T85" s="127"/>
       <c r="U85" s="57">
         <v>7105367</v>
       </c>
@@ -13419,7 +13419,7 @@
       <c r="AK85" s="68"/>
     </row>
     <row r="86" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="108"/>
+      <c r="A86" s="127"/>
       <c r="B86" s="64">
         <v>7403495</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>270</v>
       </c>
       <c r="S86" s="39"/>
-      <c r="T86" s="108"/>
+      <c r="T86" s="127"/>
       <c r="U86" s="63">
         <v>7104858</v>
       </c>
@@ -13500,7 +13500,7 @@
       <c r="AK86" s="68"/>
     </row>
     <row r="87" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="108"/>
+      <c r="A87" s="127"/>
       <c r="B87" s="72">
         <v>7095746</v>
       </c>
@@ -13539,7 +13539,7 @@
       <c r="Q87" s="103"/>
       <c r="R87" s="91"/>
       <c r="S87" s="40"/>
-      <c r="T87" s="108"/>
+      <c r="T87" s="127"/>
       <c r="U87" s="57">
         <v>7104292</v>
       </c>
@@ -13579,7 +13579,7 @@
       <c r="AK87" s="68"/>
     </row>
     <row r="88" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="108"/>
+      <c r="A88" s="127"/>
       <c r="B88" s="64">
         <v>7077347</v>
       </c>
@@ -13618,7 +13618,7 @@
       <c r="Q88" s="103"/>
       <c r="R88" s="89"/>
       <c r="S88" s="39"/>
-      <c r="T88" s="108"/>
+      <c r="T88" s="127"/>
       <c r="U88" s="64">
         <v>7403411</v>
       </c>
@@ -13648,7 +13648,7 @@
       </c>
     </row>
     <row r="89" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="108"/>
+      <c r="A89" s="127"/>
       <c r="B89" s="57">
         <v>7094192</v>
       </c>
@@ -13687,7 +13687,7 @@
       <c r="Q89" s="103"/>
       <c r="R89" s="89"/>
       <c r="S89" s="39"/>
-      <c r="T89" s="108"/>
+      <c r="T89" s="127"/>
       <c r="U89" s="57">
         <v>7403370</v>
       </c>
@@ -13727,7 +13727,7 @@
       <c r="AK89" s="68"/>
     </row>
     <row r="90" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="108"/>
+      <c r="A90" s="127"/>
       <c r="B90" s="70">
         <v>7092642</v>
       </c>
@@ -13766,7 +13766,7 @@
       <c r="Q90" s="103"/>
       <c r="R90" s="89"/>
       <c r="S90" s="39"/>
-      <c r="T90" s="108"/>
+      <c r="T90" s="127"/>
       <c r="U90" s="64">
         <v>7402425</v>
       </c>
@@ -13806,7 +13806,7 @@
       <c r="AK90" s="68"/>
     </row>
     <row r="91" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="108"/>
+      <c r="A91" s="127"/>
       <c r="B91" s="57">
         <v>7403357</v>
       </c>
@@ -13845,7 +13845,7 @@
       <c r="Q91" s="103"/>
       <c r="R91" s="89"/>
       <c r="S91" s="39"/>
-      <c r="T91" s="108"/>
+      <c r="T91" s="127"/>
       <c r="U91" s="106">
         <v>7403136</v>
       </c>
@@ -13885,7 +13885,7 @@
       <c r="AK91" s="68"/>
     </row>
     <row r="92" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="108"/>
+      <c r="A92" s="127"/>
       <c r="B92" s="64">
         <v>7096839</v>
       </c>
@@ -13924,7 +13924,7 @@
       <c r="Q92" s="103"/>
       <c r="R92" s="89"/>
       <c r="S92" s="39"/>
-      <c r="T92" s="108"/>
+      <c r="T92" s="127"/>
       <c r="U92" s="44"/>
       <c r="V92" s="44"/>
       <c r="W92" s="50"/>
@@ -13944,7 +13944,7 @@
       <c r="AK92" s="28"/>
     </row>
     <row r="93" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="108"/>
+      <c r="A93" s="127"/>
       <c r="B93" s="57">
         <v>7400313</v>
       </c>
@@ -13983,7 +13983,7 @@
       <c r="Q93" s="103"/>
       <c r="R93" s="89"/>
       <c r="S93" s="39"/>
-      <c r="T93" s="108"/>
+      <c r="T93" s="127"/>
       <c r="U93" s="44"/>
       <c r="V93" s="44"/>
       <c r="W93" s="50"/>
@@ -14003,7 +14003,7 @@
       <c r="AK93" s="28"/>
     </row>
     <row r="94" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="108"/>
+      <c r="A94" s="127"/>
       <c r="B94" s="73">
         <v>7401131</v>
       </c>
@@ -14042,7 +14042,7 @@
       <c r="Q94" s="103"/>
       <c r="R94" s="89"/>
       <c r="S94" s="39"/>
-      <c r="T94" s="108"/>
+      <c r="T94" s="127"/>
       <c r="U94" s="44"/>
       <c r="V94" s="44"/>
       <c r="W94" s="50"/>
@@ -14062,7 +14062,7 @@
       <c r="AK94" s="28"/>
     </row>
     <row r="95" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="108"/>
+      <c r="A95" s="127"/>
       <c r="B95" s="57">
         <v>7402022</v>
       </c>
@@ -14101,7 +14101,7 @@
       <c r="Q95" s="103"/>
       <c r="R95" s="89"/>
       <c r="S95" s="39"/>
-      <c r="T95" s="108"/>
+      <c r="T95" s="127"/>
       <c r="U95" s="44"/>
       <c r="V95" s="44"/>
       <c r="W95" s="50"/>
@@ -14121,7 +14121,7 @@
       <c r="AK95" s="28"/>
     </row>
     <row r="96" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="108"/>
+      <c r="A96" s="127"/>
       <c r="B96" s="64">
         <v>7096419</v>
       </c>
@@ -14160,7 +14160,7 @@
       <c r="Q96" s="103"/>
       <c r="R96" s="89"/>
       <c r="S96" s="39"/>
-      <c r="T96" s="108"/>
+      <c r="T96" s="127"/>
       <c r="U96" s="44"/>
       <c r="V96" s="44"/>
       <c r="W96" s="50"/>
@@ -14180,7 +14180,7 @@
       <c r="AK96" s="28"/>
     </row>
     <row r="97" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="108"/>
+      <c r="A97" s="127"/>
       <c r="B97" s="72">
         <v>7401914</v>
       </c>
@@ -14219,7 +14219,7 @@
       <c r="Q97" s="103"/>
       <c r="R97" s="89"/>
       <c r="S97" s="39"/>
-      <c r="T97" s="108"/>
+      <c r="T97" s="127"/>
       <c r="U97" s="46"/>
       <c r="V97" s="51"/>
       <c r="W97" s="51"/>
@@ -14239,7 +14239,7 @@
       <c r="AK97" s="28"/>
     </row>
     <row r="98" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="108"/>
+      <c r="A98" s="127"/>
       <c r="B98" s="73">
         <v>7095767</v>
       </c>
@@ -14278,7 +14278,7 @@
       <c r="Q98" s="103"/>
       <c r="R98" s="89"/>
       <c r="S98" s="39"/>
-      <c r="T98" s="108"/>
+      <c r="T98" s="127"/>
       <c r="U98" s="44"/>
       <c r="V98" s="44"/>
       <c r="W98" s="50"/>
@@ -14298,7 +14298,7 @@
       <c r="AK98" s="28"/>
     </row>
     <row r="99" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="108"/>
+      <c r="A99" s="127"/>
       <c r="B99" s="57">
         <v>7400855</v>
       </c>
@@ -14337,7 +14337,7 @@
       <c r="Q99" s="103"/>
       <c r="R99" s="89"/>
       <c r="S99" s="39"/>
-      <c r="T99" s="108"/>
+      <c r="T99" s="127"/>
       <c r="U99" s="44"/>
       <c r="V99" s="44"/>
       <c r="W99" s="50"/>
@@ -14357,7 +14357,7 @@
       <c r="AK99" s="28"/>
     </row>
     <row r="100" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="108"/>
+      <c r="A100" s="127"/>
       <c r="B100" s="64">
         <v>7402422</v>
       </c>
@@ -14396,7 +14396,7 @@
       <c r="Q100" s="103"/>
       <c r="R100" s="89"/>
       <c r="S100" s="39"/>
-      <c r="T100" s="108"/>
+      <c r="T100" s="127"/>
       <c r="U100" s="32"/>
       <c r="V100" s="1"/>
       <c r="W100" s="2"/>
@@ -14416,7 +14416,7 @@
       <c r="AK100" s="28"/>
     </row>
     <row r="101" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="108"/>
+      <c r="A101" s="127"/>
       <c r="B101" s="57">
         <v>7401169</v>
       </c>
@@ -14455,7 +14455,7 @@
       <c r="Q101" s="103"/>
       <c r="R101" s="89"/>
       <c r="S101" s="39"/>
-      <c r="T101" s="108"/>
+      <c r="T101" s="127"/>
       <c r="U101" s="32"/>
       <c r="V101" s="1"/>
       <c r="W101" s="2"/>
@@ -14475,7 +14475,7 @@
       <c r="AK101" s="28"/>
     </row>
     <row r="102" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="108"/>
+      <c r="A102" s="127"/>
       <c r="B102" s="63">
         <v>7400910</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>254</v>
       </c>
       <c r="N102" s="67" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O102" s="101"/>
       <c r="P102" s="101"/>
@@ -14516,7 +14516,7 @@
         <v>257</v>
       </c>
       <c r="S102" s="39"/>
-      <c r="T102" s="108"/>
+      <c r="T102" s="127"/>
       <c r="U102" s="32"/>
       <c r="V102" s="1"/>
       <c r="W102" s="2"/>
@@ -14536,7 +14536,7 @@
       <c r="AK102" s="28"/>
     </row>
     <row r="103" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="108"/>
+      <c r="A103" s="127"/>
       <c r="B103" s="74">
         <v>7402698</v>
       </c>
@@ -14575,7 +14575,7 @@
       <c r="Q103" s="103"/>
       <c r="R103" s="89"/>
       <c r="S103" s="39"/>
-      <c r="T103" s="108"/>
+      <c r="T103" s="127"/>
       <c r="U103" s="32"/>
       <c r="V103" s="1"/>
       <c r="W103" s="2"/>
@@ -14595,7 +14595,7 @@
       <c r="AK103" s="28"/>
     </row>
     <row r="104" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="108"/>
+      <c r="A104" s="127"/>
       <c r="B104" s="76">
         <v>7403383</v>
       </c>
@@ -14634,7 +14634,7 @@
       <c r="Q104" s="103"/>
       <c r="R104" s="96"/>
       <c r="S104" s="39"/>
-      <c r="T104" s="108"/>
+      <c r="T104" s="127"/>
       <c r="U104" s="32"/>
       <c r="V104" s="1"/>
       <c r="W104" s="2"/>
@@ -14665,106 +14665,106 @@
     </row>
     <row r="107" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="20"/>
-      <c r="B107" s="123" t="s">
+      <c r="B107" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C107" s="123" t="s">
+      <c r="C107" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="D107" s="123" t="s">
+      <c r="D107" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="E107" s="124" t="s">
+      <c r="E107" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="F107" s="124" t="s">
+      <c r="F107" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="G107" s="124" t="s">
+      <c r="G107" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="H107" s="124" t="s">
+      <c r="H107" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="I107" s="125" t="s">
+      <c r="I107" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="J107" s="125" t="s">
+      <c r="J107" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="K107" s="125" t="s">
+      <c r="K107" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="L107" s="125" t="s">
+      <c r="L107" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="M107" s="125" t="s">
+      <c r="M107" s="109" t="s">
         <v>275</v>
       </c>
-      <c r="N107" s="125" t="s">
+      <c r="N107" s="109" t="s">
         <v>276</v>
       </c>
-      <c r="O107" s="125" t="s">
+      <c r="O107" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="P107" s="125" t="s">
+      <c r="P107" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="Q107" s="125" t="s">
+      <c r="Q107" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="R107" s="126" t="s">
+      <c r="R107" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="U107" s="123" t="s">
+      <c r="U107" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="V107" s="123" t="s">
+      <c r="V107" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="W107" s="123" t="s">
+      <c r="W107" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="X107" s="124" t="s">
+      <c r="X107" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="Y107" s="124" t="s">
+      <c r="Y107" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="Z107" s="124" t="s">
+      <c r="Z107" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="AA107" s="124" t="s">
+      <c r="AA107" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="AB107" s="125" t="s">
+      <c r="AB107" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="AC107" s="125" t="s">
+      <c r="AC107" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="AD107" s="125" t="s">
+      <c r="AD107" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="AE107" s="125" t="s">
+      <c r="AE107" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="AF107" s="125" t="s">
+      <c r="AF107" s="109" t="s">
         <v>275</v>
       </c>
-      <c r="AG107" s="125" t="s">
+      <c r="AG107" s="109" t="s">
         <v>276</v>
       </c>
-      <c r="AH107" s="125" t="s">
+      <c r="AH107" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="AI107" s="125" t="s">
+      <c r="AI107" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="AJ107" s="125" t="s">
+      <c r="AJ107" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="AK107" s="126" t="s">
+      <c r="AK107" s="110" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14786,7 +14786,7 @@
       <c r="O108" s="102"/>
       <c r="P108" s="102"/>
       <c r="Q108" s="102"/>
-      <c r="R108" s="127"/>
+      <c r="R108" s="111"/>
       <c r="U108" s="57"/>
       <c r="V108" s="57"/>
       <c r="W108" s="57"/>
@@ -14803,7 +14803,7 @@
       <c r="AH108" s="102"/>
       <c r="AI108" s="102"/>
       <c r="AJ108" s="102"/>
-      <c r="AK108" s="127"/>
+      <c r="AK108" s="111"/>
     </row>
     <row r="109" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
@@ -14875,20 +14875,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE33:AG33"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="A77:A104"/>
+    <mergeCell ref="T5:T31"/>
+    <mergeCell ref="T36:T72"/>
+    <mergeCell ref="T77:T104"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="I75:K75"/>
+    <mergeCell ref="L75:N75"/>
     <mergeCell ref="AB74:AD74"/>
     <mergeCell ref="AE74:AG74"/>
     <mergeCell ref="AB75:AD75"/>
@@ -14901,14 +14895,20 @@
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="AE34:AG34"/>
-    <mergeCell ref="A77:A104"/>
-    <mergeCell ref="T5:T31"/>
-    <mergeCell ref="T36:T72"/>
-    <mergeCell ref="T77:T104"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="I75:K75"/>
-    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE33:AG33"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="AB77:AJ85 I77:Q77 N51:Q51 I80:Q80 I82:Q85 I87:Q99 I102:Q104 AB5:AJ15 I5:Q32 I51:L51 I49:Q50 I36:Q47 I52:Q73 AB36:AJ72">
     <cfRule type="containsText" dxfId="217" priority="771" operator="containsText" text="y">
@@ -15135,40 +15135,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:Q108">
-    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="159" priority="9" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="158" priority="10" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:Q108">
-    <cfRule type="cellIs" dxfId="49" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="6" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB108:AJ108">
-    <cfRule type="containsText" dxfId="46" priority="4" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="154" priority="4" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",AB108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="153" priority="5" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",AB108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB108:AJ108">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
